--- a/src/main/resources/com/wakandaspace/drools_price_model/TariffDecision.xlsx
+++ b/src/main/resources/com/wakandaspace/drools_price_model/TariffDecision.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3358" uniqueCount="330">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3358" uniqueCount="329">
   <si>
     <t>RuleSet</t>
   </si>
@@ -1031,9 +1031,6 @@
   </si>
   <si>
     <t>tier4</t>
-  </si>
-  <si>
-    <t>$benefit1:Benefit</t>
   </si>
 </sst>
 </file>
@@ -1673,7 +1670,7 @@
         <v>7</v>
       </c>
       <c r="D4" s="20" t="s">
-        <v>329</v>
+        <v>14</v>
       </c>
       <c r="E4" s="10" t="s">
         <v>8</v>

--- a/src/main/resources/com/wakandaspace/drools_price_model/TariffDecision.xlsx
+++ b/src/main/resources/com/wakandaspace/drools_price_model/TariffDecision.xlsx
@@ -1667,10 +1667,10 @@
       <c r="A4" s="9"/>
       <c r="B4" s="9"/>
       <c r="C4" s="19" t="s">
+        <v>14</v>
+      </c>
+      <c r="D4" s="20" t="s">
         <v>7</v>
-      </c>
-      <c r="D4" s="20" t="s">
-        <v>14</v>
       </c>
       <c r="E4" s="10" t="s">
         <v>8</v>

--- a/src/main/resources/com/wakandaspace/drools_price_model/TariffDecision.xlsx
+++ b/src/main/resources/com/wakandaspace/drools_price_model/TariffDecision.xlsx
@@ -196,7 +196,7 @@
     <t>Declare</t>
   </si>
   <si>
-    <t>dialect java</t>
+    <t>dialect "java";</t>
   </si>
 </sst>
 </file>
@@ -788,7 +788,7 @@
   <dimension ref="A1:H1120"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="12.75" outlineLevelRow="1" x14ac:dyDescent="0.2"/>

--- a/src/main/resources/com/wakandaspace/drools_price_model/TariffDecision.xlsx
+++ b/src/main/resources/com/wakandaspace/drools_price_model/TariffDecision.xlsx
@@ -1027,10 +1027,10 @@
     <t>getBenefit_group().getName()=="$param"</t>
   </si>
   <si>
-    <t>getName().equals=="$param"</t>
-  </si>
-  <si>
     <t>getHospitalTier()=="$param"</t>
+  </si>
+  <si>
+    <t>getName()=="$param"</t>
   </si>
 </sst>
 </file>
@@ -1607,8 +1607,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J1118"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="12.75" outlineLevelRow="1" x14ac:dyDescent="0.2"/>
@@ -1687,10 +1687,10 @@
         <v>326</v>
       </c>
       <c r="D5" s="11" t="s">
+        <v>328</v>
+      </c>
+      <c r="E5" s="10" t="s">
         <v>327</v>
-      </c>
-      <c r="E5" s="10" t="s">
-        <v>328</v>
       </c>
       <c r="F5" s="12" t="s">
         <v>8</v>

--- a/src/main/resources/com/wakandaspace/drools_price_model/TariffDecision.xlsx
+++ b/src/main/resources/com/wakandaspace/drools_price_model/TariffDecision.xlsx
@@ -196,7 +196,7 @@
     <t>dialect "java";</t>
   </si>
   <si>
-    <t>getBenefit_group().getName()=="$param"</t>
+    <t>getBenefit_group().getName().equals("$param")</t>
   </si>
 </sst>
 </file>
@@ -788,7 +788,7 @@
   <dimension ref="A1:H1120"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="12.75" outlineLevelRow="1" x14ac:dyDescent="0.2"/>

--- a/src/main/resources/com/wakandaspace/drools_price_model/TariffDecision.xlsx
+++ b/src/main/resources/com/wakandaspace/drools_price_model/TariffDecision.xlsx
@@ -196,7 +196,7 @@
     <t>dialect "java";</t>
   </si>
   <si>
-    <t>getBenefit_group().getName().equals("$param")</t>
+    <t>getBenefit_group().getName()==$param</t>
   </si>
 </sst>
 </file>
@@ -787,7 +787,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H1120"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A3" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
       <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>

--- a/src/main/resources/com/wakandaspace/drools_price_model/TariffDecision.xlsx
+++ b/src/main/resources/com/wakandaspace/drools_price_model/TariffDecision.xlsx
@@ -196,7 +196,7 @@
     <t>dialect "java";</t>
   </si>
   <si>
-    <t>getBenefit_group().getName()==$param</t>
+    <t>getBenefit_group().name()=="$param"</t>
   </si>
 </sst>
 </file>

--- a/src/main/resources/com/wakandaspace/drools_price_model/TariffDecision.xlsx
+++ b/src/main/resources/com/wakandaspace/drools_price_model/TariffDecision.xlsx
@@ -196,7 +196,7 @@
     <t>dialect "java";</t>
   </si>
   <si>
-    <t>getBenefit_group().name()=="$param"</t>
+    <t>getBenefit_group().name=="$param"</t>
   </si>
 </sst>
 </file>

--- a/src/main/resources/com/wakandaspace/drools_price_model/TariffDecision.xlsx
+++ b/src/main/resources/com/wakandaspace/drools_price_model/TariffDecision.xlsx
@@ -196,7 +196,7 @@
     <t>dialect "java";</t>
   </si>
   <si>
-    <t>getBenefit_group().name=="$param"</t>
+    <t>name=="$param"</t>
   </si>
 </sst>
 </file>

--- a/src/main/resources/com/wakandaspace/drools_price_model/TariffDecision.xlsx
+++ b/src/main/resources/com/wakandaspace/drools_price_model/TariffDecision.xlsx
@@ -196,7 +196,7 @@
     <t>dialect "java";</t>
   </si>
   <si>
-    <t>name=="$param"</t>
+    <t>benefit_group.name.equals("$param")</t>
   </si>
 </sst>
 </file>
@@ -787,7 +787,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H1120"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
       <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>

--- a/src/main/resources/com/wakandaspace/drools_price_model/TariffDecision.xlsx
+++ b/src/main/resources/com/wakandaspace/drools_price_model/TariffDecision.xlsx
@@ -196,7 +196,7 @@
     <t>dialect "java";</t>
   </si>
   <si>
-    <t>benefit_group.name.equals("$param")</t>
+    <t>benefit_group.name.equals=="$param"</t>
   </si>
 </sst>
 </file>

--- a/src/main/resources/com/wakandaspace/drools_price_model/TariffDecision.xlsx
+++ b/src/main/resources/com/wakandaspace/drools_price_model/TariffDecision.xlsx
@@ -196,7 +196,7 @@
     <t>dialect "java";</t>
   </si>
   <si>
-    <t>benefit_group.name.equals=="$param"</t>
+    <t>benefit_group.name=="$param"</t>
   </si>
 </sst>
 </file>

--- a/src/main/resources/com/wakandaspace/drools_price_model/TariffDecision.xlsx
+++ b/src/main/resources/com/wakandaspace/drools_price_model/TariffDecision.xlsx
@@ -196,7 +196,7 @@
     <t>dialect "java";</t>
   </si>
   <si>
-    <t>benefit_group.name=="$param"</t>
+    <t>benefit_group.name=="aa"</t>
   </si>
 </sst>
 </file>

--- a/src/main/resources/com/wakandaspace/drools_price_model/TariffDecision.xlsx
+++ b/src/main/resources/com/wakandaspace/drools_price_model/TariffDecision.xlsx
@@ -196,7 +196,7 @@
     <t>dialect "java";</t>
   </si>
   <si>
-    <t>benefit_group.name=="aa"</t>
+    <t>benefit_group.name</t>
   </si>
 </sst>
 </file>
@@ -788,7 +788,7 @@
   <dimension ref="A1:H1120"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="12.75" outlineLevelRow="1" x14ac:dyDescent="0.2"/>

--- a/src/main/resources/com/wakandaspace/drools_price_model/TariffDecision.xlsx
+++ b/src/main/resources/com/wakandaspace/drools_price_model/TariffDecision.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1129" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1126" uniqueCount="48">
   <si>
     <t>RuleSet</t>
   </si>
@@ -187,15 +187,6 @@
     <t>$benefit : Benefit</t>
   </si>
   <si>
-    <t>import</t>
-  </si>
-  <si>
-    <t>Declare</t>
-  </si>
-  <si>
-    <t>dialect "java";</t>
-  </si>
-  <si>
     <t>getBenefit_group().getName()=="$param"</t>
   </si>
 </sst>
@@ -339,7 +330,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -391,9 +382,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="10" fontId="4" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
@@ -785,10 +773,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H1120"/>
+  <dimension ref="A1:H1118"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="12.75" outlineLevelRow="1" x14ac:dyDescent="0.2"/>
@@ -807,85 +795,91 @@
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="21" t="s">
+      <c r="B1" s="20" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="21"/>
-      <c r="D1" s="21"/>
-    </row>
-    <row r="2" spans="1:8" ht="15" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="18" t="s">
+      <c r="C1" s="20"/>
+      <c r="D1" s="20"/>
+    </row>
+    <row r="2" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="21" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="22"/>
+      <c r="C2" s="22"/>
+      <c r="D2" s="23"/>
+      <c r="H2" s="4"/>
+    </row>
+    <row r="3" spans="1:8" ht="14.1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="C3" s="19" t="s">
+        <v>5</v>
+      </c>
+      <c r="D3" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="H3" s="4"/>
+    </row>
+    <row r="4" spans="1:8" ht="25.5" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="8"/>
+      <c r="B4" s="8"/>
+      <c r="C4" s="18" t="s">
+        <v>46</v>
+      </c>
+      <c r="D4" s="9"/>
+      <c r="H4" s="4"/>
+    </row>
+    <row r="5" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="8"/>
+      <c r="B5" s="8"/>
+      <c r="C5" s="10" t="s">
         <v>47</v>
       </c>
-      <c r="B2" s="18"/>
-      <c r="C2" s="18"/>
-      <c r="D2" s="18"/>
-    </row>
-    <row r="3" spans="1:8" ht="15" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="18" t="s">
-        <v>48</v>
-      </c>
-      <c r="B3" s="18" t="s">
-        <v>49</v>
-      </c>
-      <c r="C3" s="18"/>
-      <c r="D3" s="18"/>
-    </row>
-    <row r="4" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="22" t="s">
-        <v>2</v>
-      </c>
-      <c r="B4" s="23"/>
-      <c r="C4" s="23"/>
-      <c r="D4" s="24"/>
-      <c r="H4" s="4"/>
-    </row>
-    <row r="5" spans="1:8" ht="14.1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="5" t="s">
+      <c r="D5" s="11" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="B5" s="6" t="s">
+      <c r="B6" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="C5" s="20" t="s">
-        <v>5</v>
-      </c>
-      <c r="D5" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="H5" s="4"/>
-    </row>
-    <row r="6" spans="1:8" ht="25.5" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="8"/>
-      <c r="B6" s="8"/>
-      <c r="C6" s="19" t="s">
-        <v>46</v>
-      </c>
-      <c r="D6" s="9"/>
-      <c r="H6" s="4"/>
-    </row>
-    <row r="7" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="8"/>
-      <c r="B7" s="8"/>
-      <c r="C7" s="10" t="s">
-        <v>50</v>
-      </c>
-      <c r="D7" s="11" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="12" t="s">
-        <v>3</v>
-      </c>
-      <c r="B8" s="13" t="s">
-        <v>4</v>
-      </c>
-      <c r="C8" s="13" t="s">
+      <c r="C6" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="D8" s="14" t="s">
+      <c r="D6" s="14" t="s">
         <v>9</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A7" s="15"/>
+      <c r="B7" s="16">
+        <v>20</v>
+      </c>
+      <c r="C7" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="D7" s="17">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A8" s="15"/>
+      <c r="B8" s="16">
+        <v>20</v>
+      </c>
+      <c r="C8" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="D8" s="17">
+        <v>150000</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.2">
@@ -894,10 +888,10 @@
         <v>20</v>
       </c>
       <c r="C9" s="15" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D9" s="17">
-        <v>2000</v>
+        <v>150000</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.2">
@@ -909,7 +903,7 @@
         <v>11</v>
       </c>
       <c r="D10" s="17">
-        <v>150000</v>
+        <v>15000</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.2">
@@ -921,7 +915,7 @@
         <v>11</v>
       </c>
       <c r="D11" s="17">
-        <v>150000</v>
+        <v>40000</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.2">
@@ -933,7 +927,7 @@
         <v>11</v>
       </c>
       <c r="D12" s="17">
-        <v>15000</v>
+        <v>5000000</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.2">
@@ -945,7 +939,7 @@
         <v>11</v>
       </c>
       <c r="D13" s="17">
-        <v>40000</v>
+        <v>500000</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.2">
@@ -957,7 +951,7 @@
         <v>11</v>
       </c>
       <c r="D14" s="17">
-        <v>5000000</v>
+        <v>30000</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.2">
@@ -969,7 +963,7 @@
         <v>11</v>
       </c>
       <c r="D15" s="17">
-        <v>500000</v>
+        <v>27000</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.2">
@@ -981,7 +975,7 @@
         <v>11</v>
       </c>
       <c r="D16" s="17">
-        <v>30000</v>
+        <v>250000</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.2">
@@ -993,7 +987,7 @@
         <v>11</v>
       </c>
       <c r="D17" s="17">
-        <v>27000</v>
+        <v>250000</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.2">
@@ -1053,7 +1047,7 @@
         <v>11</v>
       </c>
       <c r="D22" s="17">
-        <v>250000</v>
+        <v>60000</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.2">
@@ -1077,7 +1071,7 @@
         <v>11</v>
       </c>
       <c r="D24" s="17">
-        <v>60000</v>
+        <v>45000</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.2">
@@ -1101,7 +1095,7 @@
         <v>11</v>
       </c>
       <c r="D26" s="17">
-        <v>45000</v>
+        <v>250000</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.2">
@@ -1125,7 +1119,7 @@
         <v>11</v>
       </c>
       <c r="D28" s="17">
-        <v>250000</v>
+        <v>100000</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.2">
@@ -1149,7 +1143,7 @@
         <v>11</v>
       </c>
       <c r="D30" s="17">
-        <v>100000</v>
+        <v>250000</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.2">
@@ -1182,10 +1176,10 @@
         <v>20</v>
       </c>
       <c r="C33" s="15" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D33" s="17">
-        <v>250000</v>
+        <v>500</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.2">
@@ -1194,10 +1188,10 @@
         <v>20</v>
       </c>
       <c r="C34" s="15" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D34" s="17">
-        <v>250000</v>
+        <v>500</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.2">
@@ -1242,10 +1236,10 @@
         <v>20</v>
       </c>
       <c r="C38" s="15" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D38" s="17">
-        <v>500</v>
+        <v>12000</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.2">
@@ -1254,10 +1248,10 @@
         <v>20</v>
       </c>
       <c r="C39" s="15" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="D39" s="17">
-        <v>500</v>
+        <v>9500</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.2">
@@ -1266,7 +1260,7 @@
         <v>20</v>
       </c>
       <c r="C40" s="15" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D40" s="17">
         <v>12000</v>
@@ -1281,7 +1275,7 @@
         <v>14</v>
       </c>
       <c r="D41" s="17">
-        <v>9500</v>
+        <v>4000</v>
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.2">
@@ -1293,7 +1287,7 @@
         <v>14</v>
       </c>
       <c r="D42" s="17">
-        <v>12000</v>
+        <v>4000</v>
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.2">
@@ -1425,7 +1419,7 @@
         <v>14</v>
       </c>
       <c r="D53" s="17">
-        <v>4000</v>
+        <v>10000</v>
       </c>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.2">
@@ -1434,10 +1428,10 @@
         <v>20</v>
       </c>
       <c r="C54" s="15" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D54" s="17">
-        <v>4000</v>
+        <v>45000</v>
       </c>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.2">
@@ -1446,10 +1440,10 @@
         <v>20</v>
       </c>
       <c r="C55" s="15" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D55" s="17">
-        <v>10000</v>
+        <v>45000</v>
       </c>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.2">
@@ -1674,10 +1668,10 @@
         <v>20</v>
       </c>
       <c r="C74" s="15" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D74" s="17">
-        <v>45000</v>
+        <v>600</v>
       </c>
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.2">
@@ -1686,10 +1680,10 @@
         <v>20</v>
       </c>
       <c r="C75" s="15" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D75" s="17">
-        <v>45000</v>
+        <v>600</v>
       </c>
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.2">
@@ -1701,7 +1695,7 @@
         <v>16</v>
       </c>
       <c r="D76" s="17">
-        <v>600</v>
+        <v>960</v>
       </c>
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.2">
@@ -1713,7 +1707,7 @@
         <v>16</v>
       </c>
       <c r="D77" s="17">
-        <v>600</v>
+        <v>1500</v>
       </c>
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.2">
@@ -1737,7 +1731,7 @@
         <v>16</v>
       </c>
       <c r="D79" s="17">
-        <v>1500</v>
+        <v>720</v>
       </c>
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.2">
@@ -1749,7 +1743,7 @@
         <v>16</v>
       </c>
       <c r="D80" s="17">
-        <v>960</v>
+        <v>720</v>
       </c>
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.2">
@@ -1785,7 +1779,7 @@
         <v>16</v>
       </c>
       <c r="D83" s="17">
-        <v>720</v>
+        <v>600</v>
       </c>
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.2">
@@ -1797,7 +1791,7 @@
         <v>16</v>
       </c>
       <c r="D84" s="17">
-        <v>720</v>
+        <v>600</v>
       </c>
     </row>
     <row r="85" spans="1:4" x14ac:dyDescent="0.2">
@@ -1854,7 +1848,7 @@
         <v>20</v>
       </c>
       <c r="C89" s="15" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D89" s="17">
         <v>600</v>
@@ -1866,7 +1860,7 @@
         <v>20</v>
       </c>
       <c r="C90" s="15" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D90" s="17">
         <v>600</v>
@@ -1893,7 +1887,7 @@
         <v>17</v>
       </c>
       <c r="D92" s="17">
-        <v>600</v>
+        <v>1800</v>
       </c>
     </row>
     <row r="93" spans="1:4" x14ac:dyDescent="0.2">
@@ -1905,7 +1899,7 @@
         <v>17</v>
       </c>
       <c r="D93" s="17">
-        <v>600</v>
+        <v>1800</v>
       </c>
     </row>
     <row r="94" spans="1:4" x14ac:dyDescent="0.2">
@@ -1917,7 +1911,7 @@
         <v>17</v>
       </c>
       <c r="D94" s="17">
-        <v>1800</v>
+        <v>2400</v>
       </c>
     </row>
     <row r="95" spans="1:4" x14ac:dyDescent="0.2">
@@ -1929,7 +1923,7 @@
         <v>17</v>
       </c>
       <c r="D95" s="17">
-        <v>1800</v>
+        <v>4200</v>
       </c>
     </row>
     <row r="96" spans="1:4" x14ac:dyDescent="0.2">
@@ -1941,7 +1935,7 @@
         <v>17</v>
       </c>
       <c r="D96" s="17">
-        <v>2400</v>
+        <v>3600</v>
       </c>
     </row>
     <row r="97" spans="1:4" x14ac:dyDescent="0.2">
@@ -1953,7 +1947,7 @@
         <v>17</v>
       </c>
       <c r="D97" s="17">
-        <v>4200</v>
+        <v>600</v>
       </c>
     </row>
     <row r="98" spans="1:4" x14ac:dyDescent="0.2">
@@ -1965,7 +1959,7 @@
         <v>17</v>
       </c>
       <c r="D98" s="17">
-        <v>3600</v>
+        <v>600</v>
       </c>
     </row>
     <row r="99" spans="1:4" x14ac:dyDescent="0.2">
@@ -2145,7 +2139,7 @@
         <v>17</v>
       </c>
       <c r="D113" s="17">
-        <v>600</v>
+        <v>1200</v>
       </c>
     </row>
     <row r="114" spans="1:4" x14ac:dyDescent="0.2">
@@ -2157,7 +2151,7 @@
         <v>17</v>
       </c>
       <c r="D114" s="17">
-        <v>600</v>
+        <v>960</v>
       </c>
     </row>
     <row r="115" spans="1:4" x14ac:dyDescent="0.2">
@@ -2166,10 +2160,10 @@
         <v>20</v>
       </c>
       <c r="C115" s="15" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D115" s="17">
-        <v>1200</v>
+        <v>600</v>
       </c>
     </row>
     <row r="116" spans="1:4" x14ac:dyDescent="0.2">
@@ -2178,10 +2172,10 @@
         <v>20</v>
       </c>
       <c r="C116" s="15" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D116" s="17">
-        <v>960</v>
+        <v>2400</v>
       </c>
     </row>
     <row r="117" spans="1:4" x14ac:dyDescent="0.2">
@@ -2193,7 +2187,7 @@
         <v>18</v>
       </c>
       <c r="D117" s="17">
-        <v>600</v>
+        <v>1200</v>
       </c>
     </row>
     <row r="118" spans="1:4" x14ac:dyDescent="0.2">
@@ -2205,7 +2199,7 @@
         <v>18</v>
       </c>
       <c r="D118" s="17">
-        <v>2400</v>
+        <v>600</v>
       </c>
     </row>
     <row r="119" spans="1:4" x14ac:dyDescent="0.2">
@@ -2217,7 +2211,7 @@
         <v>18</v>
       </c>
       <c r="D119" s="17">
-        <v>1200</v>
+        <v>900</v>
       </c>
     </row>
     <row r="120" spans="1:4" x14ac:dyDescent="0.2">
@@ -2229,7 +2223,7 @@
         <v>18</v>
       </c>
       <c r="D120" s="17">
-        <v>600</v>
+        <v>960</v>
       </c>
     </row>
     <row r="121" spans="1:4" x14ac:dyDescent="0.2">
@@ -2241,7 +2235,7 @@
         <v>18</v>
       </c>
       <c r="D121" s="17">
-        <v>900</v>
+        <v>600</v>
       </c>
     </row>
     <row r="122" spans="1:4" x14ac:dyDescent="0.2">
@@ -2253,7 +2247,7 @@
         <v>18</v>
       </c>
       <c r="D122" s="17">
-        <v>960</v>
+        <v>600</v>
       </c>
     </row>
     <row r="123" spans="1:4" x14ac:dyDescent="0.2">
@@ -2265,7 +2259,7 @@
         <v>18</v>
       </c>
       <c r="D123" s="17">
-        <v>600</v>
+        <v>720</v>
       </c>
     </row>
     <row r="124" spans="1:4" x14ac:dyDescent="0.2">
@@ -2277,7 +2271,7 @@
         <v>18</v>
       </c>
       <c r="D124" s="17">
-        <v>600</v>
+        <v>1200</v>
       </c>
     </row>
     <row r="125" spans="1:4" x14ac:dyDescent="0.2">
@@ -2289,7 +2283,7 @@
         <v>18</v>
       </c>
       <c r="D125" s="17">
-        <v>720</v>
+        <v>1200</v>
       </c>
     </row>
     <row r="126" spans="1:4" x14ac:dyDescent="0.2">
@@ -2436,28 +2430,28 @@
         <v>1200</v>
       </c>
     </row>
-    <row r="138" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="138" spans="1:4" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A138" s="15"/>
       <c r="B138" s="16">
         <v>20</v>
       </c>
       <c r="C138" s="15" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D138" s="17">
-        <v>1200</v>
-      </c>
-    </row>
-    <row r="139" spans="1:4" x14ac:dyDescent="0.2">
+        <v>1800</v>
+      </c>
+    </row>
+    <row r="139" spans="1:4" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A139" s="15"/>
       <c r="B139" s="16">
         <v>20</v>
       </c>
       <c r="C139" s="15" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D139" s="17">
-        <v>1200</v>
+        <v>1800</v>
       </c>
     </row>
     <row r="140" spans="1:4" ht="25.5" x14ac:dyDescent="0.2">
@@ -2517,7 +2511,7 @@
         <v>19</v>
       </c>
       <c r="D144" s="17">
-        <v>1800</v>
+        <v>6000</v>
       </c>
     </row>
     <row r="145" spans="1:4" ht="25.5" x14ac:dyDescent="0.2">
@@ -2541,7 +2535,7 @@
         <v>19</v>
       </c>
       <c r="D146" s="17">
-        <v>6000</v>
+        <v>1800</v>
       </c>
     </row>
     <row r="147" spans="1:4" ht="25.5" x14ac:dyDescent="0.2">
@@ -2625,7 +2619,7 @@
         <v>19</v>
       </c>
       <c r="D153" s="17">
-        <v>1800</v>
+        <v>8500</v>
       </c>
     </row>
     <row r="154" spans="1:4" ht="25.5" x14ac:dyDescent="0.2">
@@ -2637,7 +2631,7 @@
         <v>19</v>
       </c>
       <c r="D154" s="17">
-        <v>1800</v>
+        <v>7200</v>
       </c>
     </row>
     <row r="155" spans="1:4" ht="25.5" x14ac:dyDescent="0.2">
@@ -2649,7 +2643,7 @@
         <v>19</v>
       </c>
       <c r="D155" s="17">
-        <v>8500</v>
+        <v>2400</v>
       </c>
     </row>
     <row r="156" spans="1:4" ht="25.5" x14ac:dyDescent="0.2">
@@ -2661,7 +2655,7 @@
         <v>19</v>
       </c>
       <c r="D156" s="17">
-        <v>7200</v>
+        <v>1800</v>
       </c>
     </row>
     <row r="157" spans="1:4" ht="25.5" x14ac:dyDescent="0.2">
@@ -2673,7 +2667,7 @@
         <v>19</v>
       </c>
       <c r="D157" s="17">
-        <v>2400</v>
+        <v>1800</v>
       </c>
     </row>
     <row r="158" spans="1:4" ht="25.5" x14ac:dyDescent="0.2">
@@ -2820,28 +2814,28 @@
         <v>1800</v>
       </c>
     </row>
-    <row r="170" spans="1:4" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="170" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A170" s="15"/>
       <c r="B170" s="16">
         <v>20</v>
       </c>
       <c r="C170" s="15" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D170" s="17">
-        <v>1800</v>
-      </c>
-    </row>
-    <row r="171" spans="1:4" ht="25.5" x14ac:dyDescent="0.2">
+        <v>2500</v>
+      </c>
+    </row>
+    <row r="171" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A171" s="15"/>
       <c r="B171" s="16">
         <v>20</v>
       </c>
       <c r="C171" s="15" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D171" s="17">
-        <v>1800</v>
+        <v>15000</v>
       </c>
     </row>
     <row r="172" spans="1:4" x14ac:dyDescent="0.2">
@@ -2853,7 +2847,7 @@
         <v>20</v>
       </c>
       <c r="D172" s="17">
-        <v>2500</v>
+        <v>20000</v>
       </c>
     </row>
     <row r="173" spans="1:4" x14ac:dyDescent="0.2">
@@ -2865,7 +2859,7 @@
         <v>20</v>
       </c>
       <c r="D173" s="17">
-        <v>15000</v>
+        <v>1500</v>
       </c>
     </row>
     <row r="174" spans="1:4" x14ac:dyDescent="0.2">
@@ -2877,7 +2871,7 @@
         <v>20</v>
       </c>
       <c r="D174" s="17">
-        <v>20000</v>
+        <v>2500</v>
       </c>
     </row>
     <row r="175" spans="1:4" x14ac:dyDescent="0.2">
@@ -2889,7 +2883,7 @@
         <v>20</v>
       </c>
       <c r="D175" s="17">
-        <v>1500</v>
+        <v>12000</v>
       </c>
     </row>
     <row r="176" spans="1:4" x14ac:dyDescent="0.2">
@@ -2901,7 +2895,7 @@
         <v>20</v>
       </c>
       <c r="D176" s="17">
-        <v>2500</v>
+        <v>15000</v>
       </c>
     </row>
     <row r="177" spans="1:4" x14ac:dyDescent="0.2">
@@ -2922,10 +2916,10 @@
         <v>20</v>
       </c>
       <c r="C178" s="15" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D178" s="17">
-        <v>15000</v>
+        <v>450000</v>
       </c>
     </row>
     <row r="179" spans="1:4" x14ac:dyDescent="0.2">
@@ -2934,10 +2928,10 @@
         <v>20</v>
       </c>
       <c r="C179" s="15" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="D179" s="17">
-        <v>12000</v>
+        <v>2000</v>
       </c>
     </row>
     <row r="180" spans="1:4" x14ac:dyDescent="0.2">
@@ -2946,10 +2940,10 @@
         <v>20</v>
       </c>
       <c r="C180" s="15" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D180" s="17">
-        <v>450000</v>
+        <v>2000</v>
       </c>
     </row>
     <row r="181" spans="1:4" x14ac:dyDescent="0.2">
@@ -2973,7 +2967,7 @@
         <v>22</v>
       </c>
       <c r="D182" s="17">
-        <v>2000</v>
+        <v>5000</v>
       </c>
     </row>
     <row r="183" spans="1:4" x14ac:dyDescent="0.2">
@@ -2994,10 +2988,10 @@
         <v>20</v>
       </c>
       <c r="C184" s="15" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D184" s="17">
-        <v>5000</v>
+        <v>8000</v>
       </c>
     </row>
     <row r="185" spans="1:4" x14ac:dyDescent="0.2">
@@ -3006,7 +3000,7 @@
         <v>20</v>
       </c>
       <c r="C185" s="15" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D185" s="17">
         <v>2000</v>
@@ -3021,7 +3015,7 @@
         <v>23</v>
       </c>
       <c r="D186" s="17">
-        <v>8000</v>
+        <v>1200</v>
       </c>
     </row>
     <row r="187" spans="1:4" x14ac:dyDescent="0.2">
@@ -3033,7 +3027,7 @@
         <v>23</v>
       </c>
       <c r="D187" s="17">
-        <v>2000</v>
+        <v>1200</v>
       </c>
     </row>
     <row r="188" spans="1:4" x14ac:dyDescent="0.2">
@@ -3057,7 +3051,7 @@
         <v>23</v>
       </c>
       <c r="D189" s="17">
-        <v>1200</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="190" spans="1:4" x14ac:dyDescent="0.2">
@@ -3069,7 +3063,7 @@
         <v>23</v>
       </c>
       <c r="D190" s="17">
-        <v>1200</v>
+        <v>2000</v>
       </c>
     </row>
     <row r="191" spans="1:4" x14ac:dyDescent="0.2">
@@ -3081,7 +3075,7 @@
         <v>23</v>
       </c>
       <c r="D191" s="17">
-        <v>1000</v>
+        <v>1200</v>
       </c>
     </row>
     <row r="192" spans="1:4" x14ac:dyDescent="0.2">
@@ -3093,7 +3087,7 @@
         <v>23</v>
       </c>
       <c r="D192" s="17">
-        <v>2000</v>
+        <v>5000</v>
       </c>
     </row>
     <row r="193" spans="1:4" x14ac:dyDescent="0.2">
@@ -3117,7 +3111,7 @@
         <v>23</v>
       </c>
       <c r="D194" s="17">
-        <v>5000</v>
+        <v>1200</v>
       </c>
     </row>
     <row r="195" spans="1:4" x14ac:dyDescent="0.2">
@@ -3165,7 +3159,7 @@
         <v>23</v>
       </c>
       <c r="D198" s="17">
-        <v>1200</v>
+        <v>5000</v>
       </c>
     </row>
     <row r="199" spans="1:4" x14ac:dyDescent="0.2">
@@ -3174,10 +3168,10 @@
         <v>20</v>
       </c>
       <c r="C199" s="15" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D199" s="17">
-        <v>1200</v>
+        <v>15000</v>
       </c>
     </row>
     <row r="200" spans="1:4" x14ac:dyDescent="0.2">
@@ -3186,10 +3180,10 @@
         <v>20</v>
       </c>
       <c r="C200" s="15" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D200" s="17">
-        <v>5000</v>
+        <v>2000</v>
       </c>
     </row>
     <row r="201" spans="1:4" x14ac:dyDescent="0.2">
@@ -3201,7 +3195,7 @@
         <v>24</v>
       </c>
       <c r="D201" s="17">
-        <v>15000</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="202" spans="1:4" x14ac:dyDescent="0.2">
@@ -3213,7 +3207,7 @@
         <v>24</v>
       </c>
       <c r="D202" s="17">
-        <v>2000</v>
+        <v>4000</v>
       </c>
     </row>
     <row r="203" spans="1:4" x14ac:dyDescent="0.2">
@@ -3225,7 +3219,7 @@
         <v>24</v>
       </c>
       <c r="D203" s="17">
-        <v>1000</v>
+        <v>4000</v>
       </c>
     </row>
     <row r="204" spans="1:4" x14ac:dyDescent="0.2">
@@ -3270,10 +3264,10 @@
         <v>20</v>
       </c>
       <c r="C207" s="15" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D207" s="17">
-        <v>4000</v>
+        <v>60000</v>
       </c>
     </row>
     <row r="208" spans="1:4" x14ac:dyDescent="0.2">
@@ -3282,10 +3276,10 @@
         <v>20</v>
       </c>
       <c r="C208" s="15" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D208" s="17">
-        <v>4000</v>
+        <v>70000</v>
       </c>
     </row>
     <row r="209" spans="1:4" x14ac:dyDescent="0.2">
@@ -3297,7 +3291,7 @@
         <v>25</v>
       </c>
       <c r="D209" s="17">
-        <v>60000</v>
+        <v>80000</v>
       </c>
     </row>
     <row r="210" spans="1:4" x14ac:dyDescent="0.2">
@@ -3309,7 +3303,7 @@
         <v>25</v>
       </c>
       <c r="D210" s="17">
-        <v>70000</v>
+        <v>12000</v>
       </c>
     </row>
     <row r="211" spans="1:4" x14ac:dyDescent="0.2">
@@ -3321,7 +3315,7 @@
         <v>25</v>
       </c>
       <c r="D211" s="17">
-        <v>80000</v>
+        <v>22000</v>
       </c>
     </row>
     <row r="212" spans="1:4" x14ac:dyDescent="0.2">
@@ -3333,7 +3327,7 @@
         <v>25</v>
       </c>
       <c r="D212" s="17">
-        <v>12000</v>
+        <v>450000</v>
       </c>
     </row>
     <row r="213" spans="1:4" x14ac:dyDescent="0.2">
@@ -3342,10 +3336,10 @@
         <v>20</v>
       </c>
       <c r="C213" s="15" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D213" s="17">
-        <v>22000</v>
+        <v>50000</v>
       </c>
     </row>
     <row r="214" spans="1:4" x14ac:dyDescent="0.2">
@@ -3354,10 +3348,10 @@
         <v>20</v>
       </c>
       <c r="C214" s="15" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D214" s="17">
-        <v>450000</v>
+        <v>15000</v>
       </c>
     </row>
     <row r="215" spans="1:4" x14ac:dyDescent="0.2">
@@ -3366,10 +3360,10 @@
         <v>20</v>
       </c>
       <c r="C215" s="15" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D215" s="17">
-        <v>50000</v>
+        <v>15000</v>
       </c>
     </row>
     <row r="216" spans="1:4" x14ac:dyDescent="0.2">
@@ -3378,10 +3372,10 @@
         <v>20</v>
       </c>
       <c r="C216" s="15" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="D216" s="17">
-        <v>15000</v>
+        <v>1200</v>
       </c>
     </row>
     <row r="217" spans="1:4" x14ac:dyDescent="0.2">
@@ -3390,10 +3384,10 @@
         <v>20</v>
       </c>
       <c r="C217" s="15" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D217" s="17">
-        <v>15000</v>
+        <v>900</v>
       </c>
     </row>
     <row r="218" spans="1:4" x14ac:dyDescent="0.2">
@@ -3405,7 +3399,7 @@
         <v>28</v>
       </c>
       <c r="D218" s="17">
-        <v>1200</v>
+        <v>2500</v>
       </c>
     </row>
     <row r="219" spans="1:4" x14ac:dyDescent="0.2">
@@ -3417,7 +3411,7 @@
         <v>28</v>
       </c>
       <c r="D219" s="17">
-        <v>900</v>
+        <v>1200</v>
       </c>
     </row>
     <row r="220" spans="1:4" x14ac:dyDescent="0.2">
@@ -3429,7 +3423,7 @@
         <v>28</v>
       </c>
       <c r="D220" s="17">
-        <v>2500</v>
+        <v>900</v>
       </c>
     </row>
     <row r="221" spans="1:4" x14ac:dyDescent="0.2">
@@ -3441,7 +3435,7 @@
         <v>28</v>
       </c>
       <c r="D221" s="17">
-        <v>1200</v>
+        <v>750</v>
       </c>
     </row>
     <row r="222" spans="1:4" x14ac:dyDescent="0.2">
@@ -3453,7 +3447,7 @@
         <v>28</v>
       </c>
       <c r="D222" s="17">
-        <v>900</v>
+        <v>2400</v>
       </c>
     </row>
     <row r="223" spans="1:4" x14ac:dyDescent="0.2">
@@ -3465,7 +3459,7 @@
         <v>28</v>
       </c>
       <c r="D223" s="17">
-        <v>750</v>
+        <v>2400</v>
       </c>
     </row>
     <row r="224" spans="1:4" x14ac:dyDescent="0.2">
@@ -3474,10 +3468,10 @@
         <v>20</v>
       </c>
       <c r="C224" s="15" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D224" s="17">
-        <v>2400</v>
+        <v>10000</v>
       </c>
     </row>
     <row r="225" spans="1:4" x14ac:dyDescent="0.2">
@@ -3486,10 +3480,10 @@
         <v>20</v>
       </c>
       <c r="C225" s="15" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D225" s="17">
-        <v>2400</v>
+        <v>13500</v>
       </c>
     </row>
     <row r="226" spans="1:4" x14ac:dyDescent="0.2">
@@ -3501,7 +3495,7 @@
         <v>29</v>
       </c>
       <c r="D226" s="17">
-        <v>10000</v>
+        <v>6000</v>
       </c>
     </row>
     <row r="227" spans="1:4" x14ac:dyDescent="0.2">
@@ -3513,7 +3507,7 @@
         <v>29</v>
       </c>
       <c r="D227" s="17">
-        <v>13500</v>
+        <v>7000</v>
       </c>
     </row>
     <row r="228" spans="1:4" x14ac:dyDescent="0.2">
@@ -3525,7 +3519,7 @@
         <v>29</v>
       </c>
       <c r="D228" s="17">
-        <v>6000</v>
+        <v>10000</v>
       </c>
     </row>
     <row r="229" spans="1:4" x14ac:dyDescent="0.2">
@@ -3540,28 +3534,28 @@
         <v>7000</v>
       </c>
     </row>
-    <row r="230" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="230" spans="1:4" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A230" s="15"/>
       <c r="B230" s="16">
         <v>20</v>
       </c>
       <c r="C230" s="15" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D230" s="17">
-        <v>10000</v>
-      </c>
-    </row>
-    <row r="231" spans="1:4" x14ac:dyDescent="0.2">
+        <v>2500</v>
+      </c>
+    </row>
+    <row r="231" spans="1:4" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A231" s="15"/>
       <c r="B231" s="16">
         <v>20</v>
       </c>
       <c r="C231" s="15" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D231" s="17">
-        <v>7000</v>
+        <v>2000</v>
       </c>
     </row>
     <row r="232" spans="1:4" ht="25.5" x14ac:dyDescent="0.2">
@@ -3573,31 +3567,31 @@
         <v>30</v>
       </c>
       <c r="D232" s="17">
-        <v>2500</v>
-      </c>
-    </row>
-    <row r="233" spans="1:4" ht="25.5" x14ac:dyDescent="0.2">
+        <v>15000</v>
+      </c>
+    </row>
+    <row r="233" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A233" s="15"/>
       <c r="B233" s="16">
         <v>20</v>
       </c>
       <c r="C233" s="15" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D233" s="17">
-        <v>2000</v>
-      </c>
-    </row>
-    <row r="234" spans="1:4" ht="25.5" x14ac:dyDescent="0.2">
+        <v>5000</v>
+      </c>
+    </row>
+    <row r="234" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A234" s="15"/>
       <c r="B234" s="16">
         <v>20</v>
       </c>
       <c r="C234" s="15" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D234" s="17">
-        <v>15000</v>
+        <v>7500</v>
       </c>
     </row>
     <row r="235" spans="1:4" x14ac:dyDescent="0.2">
@@ -3606,10 +3600,10 @@
         <v>20</v>
       </c>
       <c r="C235" s="15" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D235" s="17">
-        <v>5000</v>
+        <v>2500</v>
       </c>
     </row>
     <row r="236" spans="1:4" x14ac:dyDescent="0.2">
@@ -3618,10 +3612,10 @@
         <v>20</v>
       </c>
       <c r="C236" s="15" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D236" s="17">
-        <v>7500</v>
+        <v>2500</v>
       </c>
     </row>
     <row r="237" spans="1:4" x14ac:dyDescent="0.2">
@@ -3645,7 +3639,7 @@
         <v>32</v>
       </c>
       <c r="D238" s="17">
-        <v>2500</v>
+        <v>1500</v>
       </c>
     </row>
     <row r="239" spans="1:4" x14ac:dyDescent="0.2">
@@ -3657,7 +3651,7 @@
         <v>32</v>
       </c>
       <c r="D239" s="17">
-        <v>2500</v>
+        <v>7000</v>
       </c>
     </row>
     <row r="240" spans="1:4" x14ac:dyDescent="0.2">
@@ -3669,7 +3663,7 @@
         <v>32</v>
       </c>
       <c r="D240" s="17">
-        <v>1500</v>
+        <v>2000</v>
       </c>
     </row>
     <row r="241" spans="1:4" x14ac:dyDescent="0.2">
@@ -3681,7 +3675,7 @@
         <v>32</v>
       </c>
       <c r="D241" s="17">
-        <v>7000</v>
+        <v>2000</v>
       </c>
     </row>
     <row r="242" spans="1:4" x14ac:dyDescent="0.2">
@@ -3690,10 +3684,10 @@
         <v>20</v>
       </c>
       <c r="C242" s="15" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D242" s="17">
-        <v>2000</v>
+        <v>15000</v>
       </c>
     </row>
     <row r="243" spans="1:4" x14ac:dyDescent="0.2">
@@ -3702,10 +3696,10 @@
         <v>20</v>
       </c>
       <c r="C243" s="15" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="D243" s="17">
-        <v>2000</v>
+        <v>20000</v>
       </c>
     </row>
     <row r="244" spans="1:4" x14ac:dyDescent="0.2">
@@ -3714,10 +3708,10 @@
         <v>20</v>
       </c>
       <c r="C244" s="15" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D244" s="17">
-        <v>15000</v>
+        <v>20000</v>
       </c>
     </row>
     <row r="245" spans="1:4" x14ac:dyDescent="0.2">
@@ -3726,10 +3720,10 @@
         <v>20</v>
       </c>
       <c r="C245" s="15" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D245" s="17">
-        <v>20000</v>
+        <v>1200</v>
       </c>
     </row>
     <row r="246" spans="1:4" x14ac:dyDescent="0.2">
@@ -3738,10 +3732,10 @@
         <v>20</v>
       </c>
       <c r="C246" s="15" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D246" s="17">
-        <v>20000</v>
+        <v>2500</v>
       </c>
     </row>
     <row r="247" spans="1:4" x14ac:dyDescent="0.2">
@@ -3765,7 +3759,7 @@
         <v>35</v>
       </c>
       <c r="D248" s="17">
-        <v>2500</v>
+        <v>1200</v>
       </c>
     </row>
     <row r="249" spans="1:4" x14ac:dyDescent="0.2">
@@ -3777,7 +3771,7 @@
         <v>35</v>
       </c>
       <c r="D249" s="17">
-        <v>1200</v>
+        <v>2000</v>
       </c>
     </row>
     <row r="250" spans="1:4" x14ac:dyDescent="0.2">
@@ -3789,7 +3783,7 @@
         <v>35</v>
       </c>
       <c r="D250" s="17">
-        <v>1200</v>
+        <v>8500</v>
       </c>
     </row>
     <row r="251" spans="1:4" x14ac:dyDescent="0.2">
@@ -3801,7 +3795,7 @@
         <v>35</v>
       </c>
       <c r="D251" s="17">
-        <v>2000</v>
+        <v>1200</v>
       </c>
     </row>
     <row r="252" spans="1:4" x14ac:dyDescent="0.2">
@@ -3813,7 +3807,7 @@
         <v>35</v>
       </c>
       <c r="D252" s="17">
-        <v>8500</v>
+        <v>2000</v>
       </c>
     </row>
     <row r="253" spans="1:4" x14ac:dyDescent="0.2">
@@ -3825,7 +3819,7 @@
         <v>35</v>
       </c>
       <c r="D253" s="17">
-        <v>1200</v>
+        <v>2000</v>
       </c>
     </row>
     <row r="254" spans="1:4" x14ac:dyDescent="0.2">
@@ -3837,7 +3831,7 @@
         <v>35</v>
       </c>
       <c r="D254" s="17">
-        <v>2000</v>
+        <v>1200</v>
       </c>
     </row>
     <row r="255" spans="1:4" x14ac:dyDescent="0.2">
@@ -3846,10 +3840,10 @@
         <v>20</v>
       </c>
       <c r="C255" s="15" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D255" s="17">
-        <v>2000</v>
+        <v>200000</v>
       </c>
     </row>
     <row r="256" spans="1:4" x14ac:dyDescent="0.2">
@@ -3858,10 +3852,10 @@
         <v>20</v>
       </c>
       <c r="C256" s="15" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="D256" s="17">
-        <v>1200</v>
+        <v>250000</v>
       </c>
     </row>
     <row r="257" spans="1:4" x14ac:dyDescent="0.2">
@@ -3870,10 +3864,10 @@
         <v>20</v>
       </c>
       <c r="C257" s="15" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="D257" s="17">
-        <v>200000</v>
+        <v>50000</v>
       </c>
     </row>
     <row r="258" spans="1:4" x14ac:dyDescent="0.2">
@@ -3882,10 +3876,10 @@
         <v>20</v>
       </c>
       <c r="C258" s="15" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D258" s="17">
-        <v>250000</v>
+        <v>200000</v>
       </c>
     </row>
     <row r="259" spans="1:4" x14ac:dyDescent="0.2">
@@ -3909,7 +3903,7 @@
         <v>38</v>
       </c>
       <c r="D260" s="17">
-        <v>200000</v>
+        <v>100000</v>
       </c>
     </row>
     <row r="261" spans="1:4" x14ac:dyDescent="0.2">
@@ -3921,7 +3915,7 @@
         <v>38</v>
       </c>
       <c r="D261" s="17">
-        <v>50000</v>
+        <v>100000</v>
       </c>
     </row>
     <row r="262" spans="1:4" x14ac:dyDescent="0.2">
@@ -3930,10 +3924,10 @@
         <v>20</v>
       </c>
       <c r="C262" s="15" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D262" s="17">
-        <v>100000</v>
+        <v>225000</v>
       </c>
     </row>
     <row r="263" spans="1:4" x14ac:dyDescent="0.2">
@@ -3942,10 +3936,10 @@
         <v>20</v>
       </c>
       <c r="C263" s="15" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="D263" s="17">
-        <v>100000</v>
+        <v>5000</v>
       </c>
     </row>
     <row r="264" spans="1:4" x14ac:dyDescent="0.2">
@@ -3954,10 +3948,10 @@
         <v>20</v>
       </c>
       <c r="C264" s="15" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D264" s="17">
-        <v>225000</v>
+        <v>5000</v>
       </c>
     </row>
     <row r="265" spans="1:4" x14ac:dyDescent="0.2">
@@ -4098,10 +4092,10 @@
         <v>20</v>
       </c>
       <c r="C276" s="15" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D276" s="17">
-        <v>5000</v>
+        <v>15000</v>
       </c>
     </row>
     <row r="277" spans="1:4" x14ac:dyDescent="0.2">
@@ -4110,10 +4104,10 @@
         <v>20</v>
       </c>
       <c r="C277" s="15" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="D277" s="17">
-        <v>5000</v>
+        <v>6000</v>
       </c>
     </row>
     <row r="278" spans="1:4" x14ac:dyDescent="0.2">
@@ -4122,10 +4116,10 @@
         <v>20</v>
       </c>
       <c r="C278" s="15" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="D278" s="17">
-        <v>15000</v>
+        <v>4000</v>
       </c>
     </row>
     <row r="279" spans="1:4" x14ac:dyDescent="0.2">
@@ -4134,10 +4128,10 @@
         <v>20</v>
       </c>
       <c r="C279" s="15" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="D279" s="17">
-        <v>6000</v>
+        <v>4000</v>
       </c>
     </row>
     <row r="280" spans="1:4" x14ac:dyDescent="0.2">
@@ -4149,7 +4143,7 @@
         <v>43</v>
       </c>
       <c r="D280" s="17">
-        <v>4000</v>
+        <v>2000</v>
       </c>
     </row>
     <row r="281" spans="1:4" x14ac:dyDescent="0.2">
@@ -4158,10 +4152,10 @@
         <v>20</v>
       </c>
       <c r="C281" s="15" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D281" s="17">
-        <v>4000</v>
+        <v>5000</v>
       </c>
     </row>
     <row r="282" spans="1:4" x14ac:dyDescent="0.2">
@@ -4170,10 +4164,10 @@
         <v>20</v>
       </c>
       <c r="C282" s="15" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D282" s="17">
-        <v>2000</v>
+        <v>5000</v>
       </c>
     </row>
     <row r="283" spans="1:4" x14ac:dyDescent="0.2">
@@ -4185,7 +4179,7 @@
         <v>44</v>
       </c>
       <c r="D283" s="17">
-        <v>5000</v>
+        <v>6500</v>
       </c>
     </row>
     <row r="284" spans="1:4" x14ac:dyDescent="0.2">
@@ -4194,10 +4188,10 @@
         <v>20</v>
       </c>
       <c r="C284" s="15" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D284" s="17">
-        <v>5000</v>
+        <v>40000</v>
       </c>
     </row>
     <row r="285" spans="1:4" x14ac:dyDescent="0.2">
@@ -4206,10 +4200,10 @@
         <v>20</v>
       </c>
       <c r="C285" s="15" t="s">
-        <v>44</v>
+        <v>10</v>
       </c>
       <c r="D285" s="17">
-        <v>6500</v>
+        <v>1500</v>
       </c>
     </row>
     <row r="286" spans="1:4" x14ac:dyDescent="0.2">
@@ -4218,10 +4212,10 @@
         <v>20</v>
       </c>
       <c r="C286" s="15" t="s">
-        <v>45</v>
+        <v>11</v>
       </c>
       <c r="D286" s="17">
-        <v>40000</v>
+        <v>100000</v>
       </c>
     </row>
     <row r="287" spans="1:4" x14ac:dyDescent="0.2">
@@ -4230,10 +4224,10 @@
         <v>20</v>
       </c>
       <c r="C287" s="15" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D287" s="17">
-        <v>1500</v>
+        <v>100000</v>
       </c>
     </row>
     <row r="288" spans="1:4" x14ac:dyDescent="0.2">
@@ -4245,7 +4239,7 @@
         <v>11</v>
       </c>
       <c r="D288" s="17">
-        <v>100000</v>
+        <v>12000</v>
       </c>
     </row>
     <row r="289" spans="1:4" x14ac:dyDescent="0.2">
@@ -4257,7 +4251,7 @@
         <v>11</v>
       </c>
       <c r="D289" s="17">
-        <v>100000</v>
+        <v>30000</v>
       </c>
     </row>
     <row r="290" spans="1:4" x14ac:dyDescent="0.2">
@@ -4269,7 +4263,7 @@
         <v>11</v>
       </c>
       <c r="D290" s="17">
-        <v>12000</v>
+        <v>3500000</v>
       </c>
     </row>
     <row r="291" spans="1:4" x14ac:dyDescent="0.2">
@@ -4281,7 +4275,7 @@
         <v>11</v>
       </c>
       <c r="D291" s="17">
-        <v>30000</v>
+        <v>300000</v>
       </c>
     </row>
     <row r="292" spans="1:4" x14ac:dyDescent="0.2">
@@ -4293,7 +4287,7 @@
         <v>11</v>
       </c>
       <c r="D292" s="17">
-        <v>3500000</v>
+        <v>25000</v>
       </c>
     </row>
     <row r="293" spans="1:4" x14ac:dyDescent="0.2">
@@ -4305,7 +4299,7 @@
         <v>11</v>
       </c>
       <c r="D293" s="17">
-        <v>300000</v>
+        <v>26000</v>
       </c>
     </row>
     <row r="294" spans="1:4" x14ac:dyDescent="0.2">
@@ -4317,7 +4311,7 @@
         <v>11</v>
       </c>
       <c r="D294" s="17">
-        <v>25000</v>
+        <v>225000</v>
       </c>
     </row>
     <row r="295" spans="1:4" x14ac:dyDescent="0.2">
@@ -4329,7 +4323,7 @@
         <v>11</v>
       </c>
       <c r="D295" s="17">
-        <v>26000</v>
+        <v>225000</v>
       </c>
     </row>
     <row r="296" spans="1:4" x14ac:dyDescent="0.2">
@@ -4389,7 +4383,7 @@
         <v>11</v>
       </c>
       <c r="D300" s="17">
-        <v>225000</v>
+        <v>50000</v>
       </c>
     </row>
     <row r="301" spans="1:4" x14ac:dyDescent="0.2">
@@ -4413,7 +4407,7 @@
         <v>11</v>
       </c>
       <c r="D302" s="17">
-        <v>50000</v>
+        <v>36000</v>
       </c>
     </row>
     <row r="303" spans="1:4" x14ac:dyDescent="0.2">
@@ -4437,7 +4431,7 @@
         <v>11</v>
       </c>
       <c r="D304" s="17">
-        <v>36000</v>
+        <v>225000</v>
       </c>
     </row>
     <row r="305" spans="1:4" x14ac:dyDescent="0.2">
@@ -4461,7 +4455,7 @@
         <v>11</v>
       </c>
       <c r="D306" s="17">
-        <v>225000</v>
+        <v>75000</v>
       </c>
     </row>
     <row r="307" spans="1:4" x14ac:dyDescent="0.2">
@@ -4485,7 +4479,7 @@
         <v>11</v>
       </c>
       <c r="D308" s="17">
-        <v>75000</v>
+        <v>225000</v>
       </c>
     </row>
     <row r="309" spans="1:4" x14ac:dyDescent="0.2">
@@ -4518,10 +4512,10 @@
         <v>20</v>
       </c>
       <c r="C311" s="15" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D311" s="17">
-        <v>225000</v>
+        <v>500</v>
       </c>
     </row>
     <row r="312" spans="1:4" x14ac:dyDescent="0.2">
@@ -4530,10 +4524,10 @@
         <v>20</v>
       </c>
       <c r="C312" s="15" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D312" s="17">
-        <v>225000</v>
+        <v>500</v>
       </c>
     </row>
     <row r="313" spans="1:4" x14ac:dyDescent="0.2">
@@ -4578,10 +4572,10 @@
         <v>20</v>
       </c>
       <c r="C316" s="15" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D316" s="17">
-        <v>500</v>
+        <v>10000</v>
       </c>
     </row>
     <row r="317" spans="1:4" x14ac:dyDescent="0.2">
@@ -4590,10 +4584,10 @@
         <v>20</v>
       </c>
       <c r="C317" s="15" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="D317" s="17">
-        <v>500</v>
+        <v>9000</v>
       </c>
     </row>
     <row r="318" spans="1:4" x14ac:dyDescent="0.2">
@@ -4602,7 +4596,7 @@
         <v>20</v>
       </c>
       <c r="C318" s="15" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D318" s="17">
         <v>10000</v>
@@ -4617,7 +4611,7 @@
         <v>14</v>
       </c>
       <c r="D319" s="17">
-        <v>9000</v>
+        <v>2500</v>
       </c>
     </row>
     <row r="320" spans="1:4" x14ac:dyDescent="0.2">
@@ -4629,7 +4623,7 @@
         <v>14</v>
       </c>
       <c r="D320" s="17">
-        <v>10000</v>
+        <v>2500</v>
       </c>
     </row>
     <row r="321" spans="1:4" x14ac:dyDescent="0.2">
@@ -4761,7 +4755,7 @@
         <v>14</v>
       </c>
       <c r="D331" s="17">
-        <v>2500</v>
+        <v>8000</v>
       </c>
     </row>
     <row r="332" spans="1:4" x14ac:dyDescent="0.2">
@@ -4770,10 +4764,10 @@
         <v>20</v>
       </c>
       <c r="C332" s="15" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D332" s="17">
-        <v>2500</v>
+        <v>40000</v>
       </c>
     </row>
     <row r="333" spans="1:4" x14ac:dyDescent="0.2">
@@ -4782,10 +4776,10 @@
         <v>20</v>
       </c>
       <c r="C333" s="15" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D333" s="17">
-        <v>8000</v>
+        <v>40000</v>
       </c>
     </row>
     <row r="334" spans="1:4" x14ac:dyDescent="0.2">
@@ -5010,10 +5004,10 @@
         <v>20</v>
       </c>
       <c r="C352" s="15" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D352" s="17">
-        <v>40000</v>
+        <v>500</v>
       </c>
     </row>
     <row r="353" spans="1:4" x14ac:dyDescent="0.2">
@@ -5022,10 +5016,10 @@
         <v>20</v>
       </c>
       <c r="C353" s="15" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D353" s="17">
-        <v>40000</v>
+        <v>500</v>
       </c>
     </row>
     <row r="354" spans="1:4" x14ac:dyDescent="0.2">
@@ -5037,7 +5031,7 @@
         <v>16</v>
       </c>
       <c r="D354" s="17">
-        <v>500</v>
+        <v>800</v>
       </c>
     </row>
     <row r="355" spans="1:4" x14ac:dyDescent="0.2">
@@ -5049,7 +5043,7 @@
         <v>16</v>
       </c>
       <c r="D355" s="17">
-        <v>500</v>
+        <v>1500</v>
       </c>
     </row>
     <row r="356" spans="1:4" x14ac:dyDescent="0.2">
@@ -5073,7 +5067,7 @@
         <v>16</v>
       </c>
       <c r="D357" s="17">
-        <v>1500</v>
+        <v>600</v>
       </c>
     </row>
     <row r="358" spans="1:4" x14ac:dyDescent="0.2">
@@ -5085,7 +5079,7 @@
         <v>16</v>
       </c>
       <c r="D358" s="17">
-        <v>800</v>
+        <v>600</v>
       </c>
     </row>
     <row r="359" spans="1:4" x14ac:dyDescent="0.2">
@@ -5121,7 +5115,7 @@
         <v>16</v>
       </c>
       <c r="D361" s="17">
-        <v>600</v>
+        <v>500</v>
       </c>
     </row>
     <row r="362" spans="1:4" x14ac:dyDescent="0.2">
@@ -5133,7 +5127,7 @@
         <v>16</v>
       </c>
       <c r="D362" s="17">
-        <v>600</v>
+        <v>500</v>
       </c>
     </row>
     <row r="363" spans="1:4" x14ac:dyDescent="0.2">
@@ -5190,10 +5184,10 @@
         <v>20</v>
       </c>
       <c r="C367" s="15" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D367" s="17">
-        <v>500</v>
+        <v>600</v>
       </c>
     </row>
     <row r="368" spans="1:4" x14ac:dyDescent="0.2">
@@ -5202,10 +5196,10 @@
         <v>20</v>
       </c>
       <c r="C368" s="15" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D368" s="17">
-        <v>500</v>
+        <v>600</v>
       </c>
     </row>
     <row r="369" spans="1:4" x14ac:dyDescent="0.2">
@@ -5229,7 +5223,7 @@
         <v>17</v>
       </c>
       <c r="D370" s="17">
-        <v>600</v>
+        <v>1500</v>
       </c>
     </row>
     <row r="371" spans="1:4" x14ac:dyDescent="0.2">
@@ -5241,7 +5235,7 @@
         <v>17</v>
       </c>
       <c r="D371" s="17">
-        <v>600</v>
+        <v>1500</v>
       </c>
     </row>
     <row r="372" spans="1:4" x14ac:dyDescent="0.2">
@@ -5253,7 +5247,7 @@
         <v>17</v>
       </c>
       <c r="D372" s="17">
-        <v>1500</v>
+        <v>2000</v>
       </c>
     </row>
     <row r="373" spans="1:4" x14ac:dyDescent="0.2">
@@ -5265,7 +5259,7 @@
         <v>17</v>
       </c>
       <c r="D373" s="17">
-        <v>1500</v>
+        <v>3500</v>
       </c>
     </row>
     <row r="374" spans="1:4" x14ac:dyDescent="0.2">
@@ -5277,7 +5271,7 @@
         <v>17</v>
       </c>
       <c r="D374" s="17">
-        <v>2000</v>
+        <v>3000</v>
       </c>
     </row>
     <row r="375" spans="1:4" x14ac:dyDescent="0.2">
@@ -5289,7 +5283,7 @@
         <v>17</v>
       </c>
       <c r="D375" s="17">
-        <v>3500</v>
+        <v>500</v>
       </c>
     </row>
     <row r="376" spans="1:4" x14ac:dyDescent="0.2">
@@ -5301,7 +5295,7 @@
         <v>17</v>
       </c>
       <c r="D376" s="17">
-        <v>3000</v>
+        <v>500</v>
       </c>
     </row>
     <row r="377" spans="1:4" x14ac:dyDescent="0.2">
@@ -5481,7 +5475,7 @@
         <v>17</v>
       </c>
       <c r="D391" s="17">
-        <v>500</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="392" spans="1:4" x14ac:dyDescent="0.2">
@@ -5493,7 +5487,7 @@
         <v>17</v>
       </c>
       <c r="D392" s="17">
-        <v>500</v>
+        <v>800</v>
       </c>
     </row>
     <row r="393" spans="1:4" x14ac:dyDescent="0.2">
@@ -5502,10 +5496,10 @@
         <v>20</v>
       </c>
       <c r="C393" s="15" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D393" s="17">
-        <v>1000</v>
+        <v>500</v>
       </c>
     </row>
     <row r="394" spans="1:4" x14ac:dyDescent="0.2">
@@ -5514,10 +5508,10 @@
         <v>20</v>
       </c>
       <c r="C394" s="15" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D394" s="17">
-        <v>800</v>
+        <v>2000</v>
       </c>
     </row>
     <row r="395" spans="1:4" x14ac:dyDescent="0.2">
@@ -5529,7 +5523,7 @@
         <v>18</v>
       </c>
       <c r="D395" s="17">
-        <v>500</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="396" spans="1:4" x14ac:dyDescent="0.2">
@@ -5541,7 +5535,7 @@
         <v>18</v>
       </c>
       <c r="D396" s="17">
-        <v>2000</v>
+        <v>500</v>
       </c>
     </row>
     <row r="397" spans="1:4" x14ac:dyDescent="0.2">
@@ -5553,7 +5547,7 @@
         <v>18</v>
       </c>
       <c r="D397" s="17">
-        <v>1000</v>
+        <v>750</v>
       </c>
     </row>
     <row r="398" spans="1:4" x14ac:dyDescent="0.2">
@@ -5565,7 +5559,7 @@
         <v>18</v>
       </c>
       <c r="D398" s="17">
-        <v>500</v>
+        <v>800</v>
       </c>
     </row>
     <row r="399" spans="1:4" x14ac:dyDescent="0.2">
@@ -5577,7 +5571,7 @@
         <v>18</v>
       </c>
       <c r="D399" s="17">
-        <v>750</v>
+        <v>500</v>
       </c>
     </row>
     <row r="400" spans="1:4" x14ac:dyDescent="0.2">
@@ -5589,7 +5583,7 @@
         <v>18</v>
       </c>
       <c r="D400" s="17">
-        <v>800</v>
+        <v>500</v>
       </c>
     </row>
     <row r="401" spans="1:4" x14ac:dyDescent="0.2">
@@ -5601,7 +5595,7 @@
         <v>18</v>
       </c>
       <c r="D401" s="17">
-        <v>500</v>
+        <v>600</v>
       </c>
     </row>
     <row r="402" spans="1:4" x14ac:dyDescent="0.2">
@@ -5613,7 +5607,7 @@
         <v>18</v>
       </c>
       <c r="D402" s="17">
-        <v>500</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="403" spans="1:4" x14ac:dyDescent="0.2">
@@ -5625,7 +5619,7 @@
         <v>18</v>
       </c>
       <c r="D403" s="17">
-        <v>600</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="404" spans="1:4" x14ac:dyDescent="0.2">
@@ -5772,28 +5766,28 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="416" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="416" spans="1:4" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A416" s="15"/>
       <c r="B416" s="16">
         <v>20</v>
       </c>
       <c r="C416" s="15" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D416" s="17">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="417" spans="1:4" x14ac:dyDescent="0.2">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="417" spans="1:4" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A417" s="15"/>
       <c r="B417" s="16">
         <v>20</v>
       </c>
       <c r="C417" s="15" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D417" s="17">
-        <v>1000</v>
+        <v>1500</v>
       </c>
     </row>
     <row r="418" spans="1:4" ht="25.5" x14ac:dyDescent="0.2">
@@ -5853,7 +5847,7 @@
         <v>19</v>
       </c>
       <c r="D422" s="17">
-        <v>1500</v>
+        <v>5000</v>
       </c>
     </row>
     <row r="423" spans="1:4" ht="25.5" x14ac:dyDescent="0.2">
@@ -5877,7 +5871,7 @@
         <v>19</v>
       </c>
       <c r="D424" s="17">
-        <v>5000</v>
+        <v>1500</v>
       </c>
     </row>
     <row r="425" spans="1:4" ht="25.5" x14ac:dyDescent="0.2">
@@ -5961,7 +5955,7 @@
         <v>19</v>
       </c>
       <c r="D431" s="17">
-        <v>1500</v>
+        <v>8000</v>
       </c>
     </row>
     <row r="432" spans="1:4" ht="25.5" x14ac:dyDescent="0.2">
@@ -5973,7 +5967,7 @@
         <v>19</v>
       </c>
       <c r="D432" s="17">
-        <v>1500</v>
+        <v>6000</v>
       </c>
     </row>
     <row r="433" spans="1:4" ht="25.5" x14ac:dyDescent="0.2">
@@ -5985,7 +5979,7 @@
         <v>19</v>
       </c>
       <c r="D433" s="17">
-        <v>8000</v>
+        <v>2000</v>
       </c>
     </row>
     <row r="434" spans="1:4" ht="25.5" x14ac:dyDescent="0.2">
@@ -5997,7 +5991,7 @@
         <v>19</v>
       </c>
       <c r="D434" s="17">
-        <v>6000</v>
+        <v>1500</v>
       </c>
     </row>
     <row r="435" spans="1:4" ht="25.5" x14ac:dyDescent="0.2">
@@ -6009,7 +6003,7 @@
         <v>19</v>
       </c>
       <c r="D435" s="17">
-        <v>2000</v>
+        <v>1500</v>
       </c>
     </row>
     <row r="436" spans="1:4" ht="25.5" x14ac:dyDescent="0.2">
@@ -6156,28 +6150,28 @@
         <v>1500</v>
       </c>
     </row>
-    <row r="448" spans="1:4" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="448" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A448" s="15"/>
       <c r="B448" s="16">
         <v>20</v>
       </c>
       <c r="C448" s="15" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D448" s="17">
-        <v>1500</v>
-      </c>
-    </row>
-    <row r="449" spans="1:4" ht="25.5" x14ac:dyDescent="0.2">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="449" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A449" s="15"/>
       <c r="B449" s="16">
         <v>20</v>
       </c>
       <c r="C449" s="15" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D449" s="17">
-        <v>1500</v>
+        <v>10000</v>
       </c>
     </row>
     <row r="450" spans="1:4" x14ac:dyDescent="0.2">
@@ -6189,7 +6183,7 @@
         <v>20</v>
       </c>
       <c r="D450" s="17">
-        <v>2000</v>
+        <v>15000</v>
       </c>
     </row>
     <row r="451" spans="1:4" x14ac:dyDescent="0.2">
@@ -6201,7 +6195,7 @@
         <v>20</v>
       </c>
       <c r="D451" s="17">
-        <v>10000</v>
+        <v>1250</v>
       </c>
     </row>
     <row r="452" spans="1:4" x14ac:dyDescent="0.2">
@@ -6213,7 +6207,7 @@
         <v>20</v>
       </c>
       <c r="D452" s="17">
-        <v>15000</v>
+        <v>2000</v>
       </c>
     </row>
     <row r="453" spans="1:4" x14ac:dyDescent="0.2">
@@ -6225,7 +6219,7 @@
         <v>20</v>
       </c>
       <c r="D453" s="17">
-        <v>1250</v>
+        <v>10000</v>
       </c>
     </row>
     <row r="454" spans="1:4" x14ac:dyDescent="0.2">
@@ -6237,7 +6231,7 @@
         <v>20</v>
       </c>
       <c r="D454" s="17">
-        <v>2000</v>
+        <v>10000</v>
       </c>
     </row>
     <row r="455" spans="1:4" x14ac:dyDescent="0.2">
@@ -6258,10 +6252,10 @@
         <v>20</v>
       </c>
       <c r="C456" s="15" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D456" s="17">
-        <v>10000</v>
+        <v>350000</v>
       </c>
     </row>
     <row r="457" spans="1:4" x14ac:dyDescent="0.2">
@@ -6270,10 +6264,10 @@
         <v>20</v>
       </c>
       <c r="C457" s="15" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="D457" s="17">
-        <v>10000</v>
+        <v>1200</v>
       </c>
     </row>
     <row r="458" spans="1:4" x14ac:dyDescent="0.2">
@@ -6282,10 +6276,10 @@
         <v>20</v>
       </c>
       <c r="C458" s="15" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D458" s="17">
-        <v>350000</v>
+        <v>1200</v>
       </c>
     </row>
     <row r="459" spans="1:4" x14ac:dyDescent="0.2">
@@ -6309,7 +6303,7 @@
         <v>22</v>
       </c>
       <c r="D460" s="17">
-        <v>1200</v>
+        <v>2500</v>
       </c>
     </row>
     <row r="461" spans="1:4" x14ac:dyDescent="0.2">
@@ -6330,10 +6324,10 @@
         <v>20</v>
       </c>
       <c r="C462" s="15" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D462" s="17">
-        <v>2500</v>
+        <v>7000</v>
       </c>
     </row>
     <row r="463" spans="1:4" x14ac:dyDescent="0.2">
@@ -6342,10 +6336,10 @@
         <v>20</v>
       </c>
       <c r="C463" s="15" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D463" s="17">
-        <v>1200</v>
+        <v>1500</v>
       </c>
     </row>
     <row r="464" spans="1:4" x14ac:dyDescent="0.2">
@@ -6357,7 +6351,7 @@
         <v>23</v>
       </c>
       <c r="D464" s="17">
-        <v>7000</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="465" spans="1:4" x14ac:dyDescent="0.2">
@@ -6369,7 +6363,7 @@
         <v>23</v>
       </c>
       <c r="D465" s="17">
-        <v>1500</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="466" spans="1:4" x14ac:dyDescent="0.2">
@@ -6393,7 +6387,7 @@
         <v>23</v>
       </c>
       <c r="D467" s="17">
-        <v>1000</v>
+        <v>800</v>
       </c>
     </row>
     <row r="468" spans="1:4" x14ac:dyDescent="0.2">
@@ -6405,7 +6399,7 @@
         <v>23</v>
       </c>
       <c r="D468" s="17">
-        <v>1000</v>
+        <v>1600</v>
       </c>
     </row>
     <row r="469" spans="1:4" x14ac:dyDescent="0.2">
@@ -6417,7 +6411,7 @@
         <v>23</v>
       </c>
       <c r="D469" s="17">
-        <v>800</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="470" spans="1:4" x14ac:dyDescent="0.2">
@@ -6429,7 +6423,7 @@
         <v>23</v>
       </c>
       <c r="D470" s="17">
-        <v>1600</v>
+        <v>4000</v>
       </c>
     </row>
     <row r="471" spans="1:4" x14ac:dyDescent="0.2">
@@ -6453,7 +6447,7 @@
         <v>23</v>
       </c>
       <c r="D472" s="17">
-        <v>4000</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="473" spans="1:4" x14ac:dyDescent="0.2">
@@ -6501,7 +6495,7 @@
         <v>23</v>
       </c>
       <c r="D476" s="17">
-        <v>1000</v>
+        <v>4500</v>
       </c>
     </row>
     <row r="477" spans="1:4" x14ac:dyDescent="0.2">
@@ -6510,10 +6504,10 @@
         <v>20</v>
       </c>
       <c r="C477" s="15" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D477" s="17">
-        <v>1000</v>
+        <v>10000</v>
       </c>
     </row>
     <row r="478" spans="1:4" x14ac:dyDescent="0.2">
@@ -6522,10 +6516,10 @@
         <v>20</v>
       </c>
       <c r="C478" s="15" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D478" s="17">
-        <v>4500</v>
+        <v>2000</v>
       </c>
     </row>
     <row r="479" spans="1:4" x14ac:dyDescent="0.2">
@@ -6537,7 +6531,7 @@
         <v>24</v>
       </c>
       <c r="D479" s="17">
-        <v>10000</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="480" spans="1:4" x14ac:dyDescent="0.2">
@@ -6549,7 +6543,7 @@
         <v>24</v>
       </c>
       <c r="D480" s="17">
-        <v>2000</v>
+        <v>3500</v>
       </c>
     </row>
     <row r="481" spans="1:4" x14ac:dyDescent="0.2">
@@ -6561,7 +6555,7 @@
         <v>24</v>
       </c>
       <c r="D481" s="17">
-        <v>1000</v>
+        <v>3500</v>
       </c>
     </row>
     <row r="482" spans="1:4" x14ac:dyDescent="0.2">
@@ -6606,10 +6600,10 @@
         <v>20</v>
       </c>
       <c r="C485" s="15" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D485" s="17">
-        <v>3500</v>
+        <v>50000</v>
       </c>
     </row>
     <row r="486" spans="1:4" x14ac:dyDescent="0.2">
@@ -6618,10 +6612,10 @@
         <v>20</v>
       </c>
       <c r="C486" s="15" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D486" s="17">
-        <v>3500</v>
+        <v>50000</v>
       </c>
     </row>
     <row r="487" spans="1:4" x14ac:dyDescent="0.2">
@@ -6633,7 +6627,7 @@
         <v>25</v>
       </c>
       <c r="D487" s="17">
-        <v>50000</v>
+        <v>60000</v>
       </c>
     </row>
     <row r="488" spans="1:4" x14ac:dyDescent="0.2">
@@ -6645,7 +6639,7 @@
         <v>25</v>
       </c>
       <c r="D488" s="17">
-        <v>50000</v>
+        <v>10000</v>
       </c>
     </row>
     <row r="489" spans="1:4" x14ac:dyDescent="0.2">
@@ -6657,7 +6651,7 @@
         <v>25</v>
       </c>
       <c r="D489" s="17">
-        <v>60000</v>
+        <v>20000</v>
       </c>
     </row>
     <row r="490" spans="1:4" x14ac:dyDescent="0.2">
@@ -6669,7 +6663,7 @@
         <v>25</v>
       </c>
       <c r="D490" s="17">
-        <v>10000</v>
+        <v>350000</v>
       </c>
     </row>
     <row r="491" spans="1:4" x14ac:dyDescent="0.2">
@@ -6678,10 +6672,10 @@
         <v>20</v>
       </c>
       <c r="C491" s="15" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D491" s="17">
-        <v>20000</v>
+        <v>47500</v>
       </c>
     </row>
     <row r="492" spans="1:4" x14ac:dyDescent="0.2">
@@ -6690,10 +6684,10 @@
         <v>20</v>
       </c>
       <c r="C492" s="15" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D492" s="17">
-        <v>350000</v>
+        <v>12500</v>
       </c>
     </row>
     <row r="493" spans="1:4" x14ac:dyDescent="0.2">
@@ -6702,10 +6696,10 @@
         <v>20</v>
       </c>
       <c r="C493" s="15" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D493" s="17">
-        <v>47500</v>
+        <v>12000</v>
       </c>
     </row>
     <row r="494" spans="1:4" x14ac:dyDescent="0.2">
@@ -6714,10 +6708,10 @@
         <v>20</v>
       </c>
       <c r="C494" s="15" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="D494" s="17">
-        <v>12500</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="495" spans="1:4" x14ac:dyDescent="0.2">
@@ -6726,10 +6720,10 @@
         <v>20</v>
       </c>
       <c r="C495" s="15" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D495" s="17">
-        <v>12000</v>
+        <v>750</v>
       </c>
     </row>
     <row r="496" spans="1:4" x14ac:dyDescent="0.2">
@@ -6741,7 +6735,7 @@
         <v>28</v>
       </c>
       <c r="D496" s="17">
-        <v>1000</v>
+        <v>2400</v>
       </c>
     </row>
     <row r="497" spans="1:4" x14ac:dyDescent="0.2">
@@ -6753,7 +6747,7 @@
         <v>28</v>
       </c>
       <c r="D497" s="17">
-        <v>750</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="498" spans="1:4" x14ac:dyDescent="0.2">
@@ -6765,7 +6759,7 @@
         <v>28</v>
       </c>
       <c r="D498" s="17">
-        <v>2400</v>
+        <v>750</v>
       </c>
     </row>
     <row r="499" spans="1:4" x14ac:dyDescent="0.2">
@@ -6777,7 +6771,7 @@
         <v>28</v>
       </c>
       <c r="D499" s="17">
-        <v>1000</v>
+        <v>500</v>
       </c>
     </row>
     <row r="500" spans="1:4" x14ac:dyDescent="0.2">
@@ -6789,7 +6783,7 @@
         <v>28</v>
       </c>
       <c r="D500" s="17">
-        <v>750</v>
+        <v>2000</v>
       </c>
     </row>
     <row r="501" spans="1:4" x14ac:dyDescent="0.2">
@@ -6801,7 +6795,7 @@
         <v>28</v>
       </c>
       <c r="D501" s="17">
-        <v>500</v>
+        <v>2000</v>
       </c>
     </row>
     <row r="502" spans="1:4" x14ac:dyDescent="0.2">
@@ -6810,10 +6804,10 @@
         <v>20</v>
       </c>
       <c r="C502" s="15" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D502" s="17">
-        <v>2000</v>
+        <v>10000</v>
       </c>
     </row>
     <row r="503" spans="1:4" x14ac:dyDescent="0.2">
@@ -6822,10 +6816,10 @@
         <v>20</v>
       </c>
       <c r="C503" s="15" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D503" s="17">
-        <v>2000</v>
+        <v>12000</v>
       </c>
     </row>
     <row r="504" spans="1:4" x14ac:dyDescent="0.2">
@@ -6837,7 +6831,7 @@
         <v>29</v>
       </c>
       <c r="D504" s="17">
-        <v>10000</v>
+        <v>5000</v>
       </c>
     </row>
     <row r="505" spans="1:4" x14ac:dyDescent="0.2">
@@ -6849,7 +6843,7 @@
         <v>29</v>
       </c>
       <c r="D505" s="17">
-        <v>12000</v>
+        <v>6000</v>
       </c>
     </row>
     <row r="506" spans="1:4" x14ac:dyDescent="0.2">
@@ -6861,7 +6855,7 @@
         <v>29</v>
       </c>
       <c r="D506" s="17">
-        <v>5000</v>
+        <v>10000</v>
       </c>
     </row>
     <row r="507" spans="1:4" x14ac:dyDescent="0.2">
@@ -6873,31 +6867,31 @@
         <v>29</v>
       </c>
       <c r="D507" s="17">
-        <v>6000</v>
-      </c>
-    </row>
-    <row r="508" spans="1:4" x14ac:dyDescent="0.2">
+        <v>6500</v>
+      </c>
+    </row>
+    <row r="508" spans="1:4" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A508" s="15"/>
       <c r="B508" s="16">
         <v>20</v>
       </c>
       <c r="C508" s="15" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D508" s="17">
-        <v>10000</v>
-      </c>
-    </row>
-    <row r="509" spans="1:4" x14ac:dyDescent="0.2">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="509" spans="1:4" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A509" s="15"/>
       <c r="B509" s="16">
         <v>20</v>
       </c>
       <c r="C509" s="15" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D509" s="17">
-        <v>6500</v>
+        <v>1500</v>
       </c>
     </row>
     <row r="510" spans="1:4" ht="25.5" x14ac:dyDescent="0.2">
@@ -6909,31 +6903,31 @@
         <v>30</v>
       </c>
       <c r="D510" s="17">
-        <v>2000</v>
-      </c>
-    </row>
-    <row r="511" spans="1:4" ht="25.5" x14ac:dyDescent="0.2">
+        <v>12500</v>
+      </c>
+    </row>
+    <row r="511" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A511" s="15"/>
       <c r="B511" s="16">
         <v>20</v>
       </c>
       <c r="C511" s="15" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D511" s="17">
-        <v>1500</v>
-      </c>
-    </row>
-    <row r="512" spans="1:4" ht="25.5" x14ac:dyDescent="0.2">
+        <v>5000</v>
+      </c>
+    </row>
+    <row r="512" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A512" s="15"/>
       <c r="B512" s="16">
         <v>20</v>
       </c>
       <c r="C512" s="15" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D512" s="17">
-        <v>12500</v>
+        <v>7500</v>
       </c>
     </row>
     <row r="513" spans="1:4" x14ac:dyDescent="0.2">
@@ -6942,10 +6936,10 @@
         <v>20</v>
       </c>
       <c r="C513" s="15" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D513" s="17">
-        <v>5000</v>
+        <v>2200</v>
       </c>
     </row>
     <row r="514" spans="1:4" x14ac:dyDescent="0.2">
@@ -6954,10 +6948,10 @@
         <v>20</v>
       </c>
       <c r="C514" s="15" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D514" s="17">
-        <v>7500</v>
+        <v>2200</v>
       </c>
     </row>
     <row r="515" spans="1:4" x14ac:dyDescent="0.2">
@@ -6981,7 +6975,7 @@
         <v>32</v>
       </c>
       <c r="D516" s="17">
-        <v>2200</v>
+        <v>1250</v>
       </c>
     </row>
     <row r="517" spans="1:4" x14ac:dyDescent="0.2">
@@ -6993,7 +6987,7 @@
         <v>32</v>
       </c>
       <c r="D517" s="17">
-        <v>2200</v>
+        <v>6500</v>
       </c>
     </row>
     <row r="518" spans="1:4" x14ac:dyDescent="0.2">
@@ -7005,7 +6999,7 @@
         <v>32</v>
       </c>
       <c r="D518" s="17">
-        <v>1250</v>
+        <v>2000</v>
       </c>
     </row>
     <row r="519" spans="1:4" x14ac:dyDescent="0.2">
@@ -7017,7 +7011,7 @@
         <v>32</v>
       </c>
       <c r="D519" s="17">
-        <v>6500</v>
+        <v>2000</v>
       </c>
     </row>
     <row r="520" spans="1:4" x14ac:dyDescent="0.2">
@@ -7026,10 +7020,10 @@
         <v>20</v>
       </c>
       <c r="C520" s="15" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D520" s="17">
-        <v>2000</v>
+        <v>15000</v>
       </c>
     </row>
     <row r="521" spans="1:4" x14ac:dyDescent="0.2">
@@ -7038,10 +7032,10 @@
         <v>20</v>
       </c>
       <c r="C521" s="15" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="D521" s="17">
-        <v>2000</v>
+        <v>20000</v>
       </c>
     </row>
     <row r="522" spans="1:4" x14ac:dyDescent="0.2">
@@ -7050,10 +7044,10 @@
         <v>20</v>
       </c>
       <c r="C522" s="15" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D522" s="17">
-        <v>15000</v>
+        <v>20000</v>
       </c>
     </row>
     <row r="523" spans="1:4" x14ac:dyDescent="0.2">
@@ -7062,10 +7056,10 @@
         <v>20</v>
       </c>
       <c r="C523" s="15" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D523" s="17">
-        <v>20000</v>
+        <v>1100</v>
       </c>
     </row>
     <row r="524" spans="1:4" x14ac:dyDescent="0.2">
@@ -7074,10 +7068,10 @@
         <v>20</v>
       </c>
       <c r="C524" s="15" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D524" s="17">
-        <v>20000</v>
+        <v>2300</v>
       </c>
     </row>
     <row r="525" spans="1:4" x14ac:dyDescent="0.2">
@@ -7101,7 +7095,7 @@
         <v>35</v>
       </c>
       <c r="D526" s="17">
-        <v>2300</v>
+        <v>1100</v>
       </c>
     </row>
     <row r="527" spans="1:4" x14ac:dyDescent="0.2">
@@ -7113,7 +7107,7 @@
         <v>35</v>
       </c>
       <c r="D527" s="17">
-        <v>1100</v>
+        <v>2000</v>
       </c>
     </row>
     <row r="528" spans="1:4" x14ac:dyDescent="0.2">
@@ -7125,7 +7119,7 @@
         <v>35</v>
       </c>
       <c r="D528" s="17">
-        <v>1100</v>
+        <v>7000</v>
       </c>
     </row>
     <row r="529" spans="1:4" x14ac:dyDescent="0.2">
@@ -7137,7 +7131,7 @@
         <v>35</v>
       </c>
       <c r="D529" s="17">
-        <v>2000</v>
+        <v>1100</v>
       </c>
     </row>
     <row r="530" spans="1:4" x14ac:dyDescent="0.2">
@@ -7149,7 +7143,7 @@
         <v>35</v>
       </c>
       <c r="D530" s="17">
-        <v>7000</v>
+        <v>2000</v>
       </c>
     </row>
     <row r="531" spans="1:4" x14ac:dyDescent="0.2">
@@ -7161,7 +7155,7 @@
         <v>35</v>
       </c>
       <c r="D531" s="17">
-        <v>1100</v>
+        <v>2000</v>
       </c>
     </row>
     <row r="532" spans="1:4" x14ac:dyDescent="0.2">
@@ -7173,7 +7167,7 @@
         <v>35</v>
       </c>
       <c r="D532" s="17">
-        <v>2000</v>
+        <v>1100</v>
       </c>
     </row>
     <row r="533" spans="1:4" x14ac:dyDescent="0.2">
@@ -7182,10 +7176,10 @@
         <v>20</v>
       </c>
       <c r="C533" s="15" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D533" s="17">
-        <v>2000</v>
+        <v>175000</v>
       </c>
     </row>
     <row r="534" spans="1:4" x14ac:dyDescent="0.2">
@@ -7194,10 +7188,10 @@
         <v>20</v>
       </c>
       <c r="C534" s="15" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="D534" s="17">
-        <v>1100</v>
+        <v>225000</v>
       </c>
     </row>
     <row r="535" spans="1:4" x14ac:dyDescent="0.2">
@@ -7206,10 +7200,10 @@
         <v>20</v>
       </c>
       <c r="C535" s="15" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="D535" s="17">
-        <v>175000</v>
+        <v>50000</v>
       </c>
     </row>
     <row r="536" spans="1:4" x14ac:dyDescent="0.2">
@@ -7218,10 +7212,10 @@
         <v>20</v>
       </c>
       <c r="C536" s="15" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D536" s="17">
-        <v>225000</v>
+        <v>200000</v>
       </c>
     </row>
     <row r="537" spans="1:4" x14ac:dyDescent="0.2">
@@ -7245,7 +7239,7 @@
         <v>38</v>
       </c>
       <c r="D538" s="17">
-        <v>200000</v>
+        <v>100000</v>
       </c>
     </row>
     <row r="539" spans="1:4" x14ac:dyDescent="0.2">
@@ -7257,7 +7251,7 @@
         <v>38</v>
       </c>
       <c r="D539" s="17">
-        <v>50000</v>
+        <v>100000</v>
       </c>
     </row>
     <row r="540" spans="1:4" x14ac:dyDescent="0.2">
@@ -7266,10 +7260,10 @@
         <v>20</v>
       </c>
       <c r="C540" s="15" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D540" s="17">
-        <v>100000</v>
+        <v>220000</v>
       </c>
     </row>
     <row r="541" spans="1:4" x14ac:dyDescent="0.2">
@@ -7278,10 +7272,10 @@
         <v>20</v>
       </c>
       <c r="C541" s="15" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="D541" s="17">
-        <v>100000</v>
+        <v>2000</v>
       </c>
     </row>
     <row r="542" spans="1:4" x14ac:dyDescent="0.2">
@@ -7290,10 +7284,10 @@
         <v>20</v>
       </c>
       <c r="C542" s="15" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D542" s="17">
-        <v>220000</v>
+        <v>2000</v>
       </c>
     </row>
     <row r="543" spans="1:4" x14ac:dyDescent="0.2">
@@ -7434,10 +7428,10 @@
         <v>20</v>
       </c>
       <c r="C554" s="15" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D554" s="17">
-        <v>2000</v>
+        <v>12500</v>
       </c>
     </row>
     <row r="555" spans="1:4" x14ac:dyDescent="0.2">
@@ -7446,10 +7440,10 @@
         <v>20</v>
       </c>
       <c r="C555" s="15" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="D555" s="17">
-        <v>2000</v>
+        <v>5000</v>
       </c>
     </row>
     <row r="556" spans="1:4" x14ac:dyDescent="0.2">
@@ -7458,10 +7452,10 @@
         <v>20</v>
       </c>
       <c r="C556" s="15" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="D556" s="17">
-        <v>12500</v>
+        <v>2500</v>
       </c>
     </row>
     <row r="557" spans="1:4" x14ac:dyDescent="0.2">
@@ -7470,10 +7464,10 @@
         <v>20</v>
       </c>
       <c r="C557" s="15" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="D557" s="17">
-        <v>5000</v>
+        <v>2500</v>
       </c>
     </row>
     <row r="558" spans="1:4" x14ac:dyDescent="0.2">
@@ -7485,7 +7479,7 @@
         <v>43</v>
       </c>
       <c r="D558" s="17">
-        <v>2500</v>
+        <v>1500</v>
       </c>
     </row>
     <row r="559" spans="1:4" x14ac:dyDescent="0.2">
@@ -7494,10 +7488,10 @@
         <v>20</v>
       </c>
       <c r="C559" s="15" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D559" s="17">
-        <v>2500</v>
+        <v>5000</v>
       </c>
     </row>
     <row r="560" spans="1:4" x14ac:dyDescent="0.2">
@@ -7506,10 +7500,10 @@
         <v>20</v>
       </c>
       <c r="C560" s="15" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D560" s="17">
-        <v>1500</v>
+        <v>5000</v>
       </c>
     </row>
     <row r="561" spans="1:4" x14ac:dyDescent="0.2">
@@ -7521,7 +7515,7 @@
         <v>44</v>
       </c>
       <c r="D561" s="17">
-        <v>5000</v>
+        <v>6500</v>
       </c>
     </row>
     <row r="562" spans="1:4" x14ac:dyDescent="0.2">
@@ -7530,10 +7524,10 @@
         <v>20</v>
       </c>
       <c r="C562" s="15" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D562" s="17">
-        <v>5000</v>
+        <v>40000</v>
       </c>
     </row>
     <row r="563" spans="1:4" x14ac:dyDescent="0.2">
@@ -7542,10 +7536,10 @@
         <v>20</v>
       </c>
       <c r="C563" s="15" t="s">
-        <v>44</v>
+        <v>10</v>
       </c>
       <c r="D563" s="17">
-        <v>6500</v>
+        <v>400</v>
       </c>
     </row>
     <row r="564" spans="1:4" x14ac:dyDescent="0.2">
@@ -7554,10 +7548,10 @@
         <v>20</v>
       </c>
       <c r="C564" s="15" t="s">
-        <v>45</v>
+        <v>11</v>
       </c>
       <c r="D564" s="17">
-        <v>40000</v>
+        <v>26700</v>
       </c>
     </row>
     <row r="565" spans="1:4" x14ac:dyDescent="0.2">
@@ -7566,10 +7560,10 @@
         <v>20</v>
       </c>
       <c r="C565" s="15" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D565" s="17">
-        <v>400</v>
+        <v>26700</v>
       </c>
     </row>
     <row r="566" spans="1:4" x14ac:dyDescent="0.2">
@@ -7581,7 +7575,7 @@
         <v>11</v>
       </c>
       <c r="D566" s="17">
-        <v>26700</v>
+        <v>2500</v>
       </c>
     </row>
     <row r="567" spans="1:4" x14ac:dyDescent="0.2">
@@ -7593,7 +7587,7 @@
         <v>11</v>
       </c>
       <c r="D567" s="17">
-        <v>26700</v>
+        <v>6700</v>
       </c>
     </row>
     <row r="568" spans="1:4" x14ac:dyDescent="0.2">
@@ -7605,7 +7599,7 @@
         <v>11</v>
       </c>
       <c r="D568" s="17">
-        <v>2500</v>
+        <v>833400</v>
       </c>
     </row>
     <row r="569" spans="1:4" x14ac:dyDescent="0.2">
@@ -7617,7 +7611,7 @@
         <v>11</v>
       </c>
       <c r="D569" s="17">
-        <v>6700</v>
+        <v>66700</v>
       </c>
     </row>
     <row r="570" spans="1:4" x14ac:dyDescent="0.2">
@@ -7629,7 +7623,7 @@
         <v>11</v>
       </c>
       <c r="D570" s="17">
-        <v>833400</v>
+        <v>6700</v>
       </c>
     </row>
     <row r="571" spans="1:4" x14ac:dyDescent="0.2">
@@ -7641,7 +7635,7 @@
         <v>11</v>
       </c>
       <c r="D571" s="17">
-        <v>66700</v>
+        <v>8400</v>
       </c>
     </row>
     <row r="572" spans="1:4" x14ac:dyDescent="0.2">
@@ -7653,7 +7647,7 @@
         <v>11</v>
       </c>
       <c r="D572" s="17">
-        <v>6700</v>
+        <v>66700</v>
       </c>
     </row>
     <row r="573" spans="1:4" x14ac:dyDescent="0.2">
@@ -7665,7 +7659,7 @@
         <v>11</v>
       </c>
       <c r="D573" s="17">
-        <v>8400</v>
+        <v>66700</v>
       </c>
     </row>
     <row r="574" spans="1:4" x14ac:dyDescent="0.2">
@@ -7725,7 +7719,7 @@
         <v>11</v>
       </c>
       <c r="D578" s="17">
-        <v>66700</v>
+        <v>11700</v>
       </c>
     </row>
     <row r="579" spans="1:4" x14ac:dyDescent="0.2">
@@ -7749,7 +7743,7 @@
         <v>11</v>
       </c>
       <c r="D580" s="17">
-        <v>11700</v>
+        <v>9400</v>
       </c>
     </row>
     <row r="581" spans="1:4" x14ac:dyDescent="0.2">
@@ -7773,7 +7767,7 @@
         <v>11</v>
       </c>
       <c r="D582" s="17">
-        <v>9400</v>
+        <v>66700</v>
       </c>
     </row>
     <row r="583" spans="1:4" x14ac:dyDescent="0.2">
@@ -7797,7 +7791,7 @@
         <v>11</v>
       </c>
       <c r="D584" s="17">
-        <v>66700</v>
+        <v>16700</v>
       </c>
     </row>
     <row r="585" spans="1:4" x14ac:dyDescent="0.2">
@@ -7821,7 +7815,7 @@
         <v>11</v>
       </c>
       <c r="D586" s="17">
-        <v>16700</v>
+        <v>66700</v>
       </c>
     </row>
     <row r="587" spans="1:4" x14ac:dyDescent="0.2">
@@ -7854,10 +7848,10 @@
         <v>20</v>
       </c>
       <c r="C589" s="15" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D589" s="17">
-        <v>66700</v>
+        <v>500</v>
       </c>
     </row>
     <row r="590" spans="1:4" x14ac:dyDescent="0.2">
@@ -7866,10 +7860,10 @@
         <v>20</v>
       </c>
       <c r="C590" s="15" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D590" s="17">
-        <v>66700</v>
+        <v>500</v>
       </c>
     </row>
     <row r="591" spans="1:4" x14ac:dyDescent="0.2">
@@ -7914,10 +7908,10 @@
         <v>20</v>
       </c>
       <c r="C594" s="15" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D594" s="17">
-        <v>500</v>
+        <v>3000</v>
       </c>
     </row>
     <row r="595" spans="1:4" x14ac:dyDescent="0.2">
@@ -7926,10 +7920,10 @@
         <v>20</v>
       </c>
       <c r="C595" s="15" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="D595" s="17">
-        <v>500</v>
+        <v>2700</v>
       </c>
     </row>
     <row r="596" spans="1:4" x14ac:dyDescent="0.2">
@@ -7938,10 +7932,10 @@
         <v>20</v>
       </c>
       <c r="C596" s="15" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D596" s="17">
-        <v>3000</v>
+        <v>3200</v>
       </c>
     </row>
     <row r="597" spans="1:4" x14ac:dyDescent="0.2">
@@ -7953,7 +7947,7 @@
         <v>14</v>
       </c>
       <c r="D597" s="17">
-        <v>2700</v>
+        <v>700</v>
       </c>
     </row>
     <row r="598" spans="1:4" x14ac:dyDescent="0.2">
@@ -7965,7 +7959,7 @@
         <v>14</v>
       </c>
       <c r="D598" s="17">
-        <v>3200</v>
+        <v>700</v>
       </c>
     </row>
     <row r="599" spans="1:4" x14ac:dyDescent="0.2">
@@ -8097,7 +8091,7 @@
         <v>14</v>
       </c>
       <c r="D609" s="17">
-        <v>700</v>
+        <v>2400</v>
       </c>
     </row>
     <row r="610" spans="1:4" x14ac:dyDescent="0.2">
@@ -8106,10 +8100,10 @@
         <v>20</v>
       </c>
       <c r="C610" s="15" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D610" s="17">
-        <v>700</v>
+        <v>11700</v>
       </c>
     </row>
     <row r="611" spans="1:4" x14ac:dyDescent="0.2">
@@ -8118,10 +8112,10 @@
         <v>20</v>
       </c>
       <c r="C611" s="15" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D611" s="17">
-        <v>2400</v>
+        <v>11700</v>
       </c>
     </row>
     <row r="612" spans="1:4" x14ac:dyDescent="0.2">
@@ -8346,10 +8340,10 @@
         <v>20</v>
       </c>
       <c r="C630" s="15" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D630" s="17">
-        <v>11700</v>
+        <v>400</v>
       </c>
     </row>
     <row r="631" spans="1:4" x14ac:dyDescent="0.2">
@@ -8358,10 +8352,10 @@
         <v>20</v>
       </c>
       <c r="C631" s="15" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D631" s="17">
-        <v>11700</v>
+        <v>400</v>
       </c>
     </row>
     <row r="632" spans="1:4" x14ac:dyDescent="0.2">
@@ -8373,7 +8367,7 @@
         <v>16</v>
       </c>
       <c r="D632" s="17">
-        <v>400</v>
+        <v>600</v>
       </c>
     </row>
     <row r="633" spans="1:4" x14ac:dyDescent="0.2">
@@ -8385,7 +8379,7 @@
         <v>16</v>
       </c>
       <c r="D633" s="17">
-        <v>400</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="634" spans="1:4" x14ac:dyDescent="0.2">
@@ -8409,7 +8403,7 @@
         <v>16</v>
       </c>
       <c r="D635" s="17">
-        <v>1000</v>
+        <v>500</v>
       </c>
     </row>
     <row r="636" spans="1:4" x14ac:dyDescent="0.2">
@@ -8421,7 +8415,7 @@
         <v>16</v>
       </c>
       <c r="D636" s="17">
-        <v>600</v>
+        <v>500</v>
       </c>
     </row>
     <row r="637" spans="1:4" x14ac:dyDescent="0.2">
@@ -8457,7 +8451,7 @@
         <v>16</v>
       </c>
       <c r="D639" s="17">
-        <v>500</v>
+        <v>400</v>
       </c>
     </row>
     <row r="640" spans="1:4" x14ac:dyDescent="0.2">
@@ -8469,7 +8463,7 @@
         <v>16</v>
       </c>
       <c r="D640" s="17">
-        <v>500</v>
+        <v>400</v>
       </c>
     </row>
     <row r="641" spans="1:4" x14ac:dyDescent="0.2">
@@ -8526,10 +8520,10 @@
         <v>20</v>
       </c>
       <c r="C645" s="15" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D645" s="17">
-        <v>400</v>
+        <v>200</v>
       </c>
     </row>
     <row r="646" spans="1:4" x14ac:dyDescent="0.2">
@@ -8538,10 +8532,10 @@
         <v>20</v>
       </c>
       <c r="C646" s="15" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D646" s="17">
-        <v>400</v>
+        <v>200</v>
       </c>
     </row>
     <row r="647" spans="1:4" x14ac:dyDescent="0.2">
@@ -8565,7 +8559,7 @@
         <v>17</v>
       </c>
       <c r="D648" s="17">
-        <v>200</v>
+        <v>400</v>
       </c>
     </row>
     <row r="649" spans="1:4" x14ac:dyDescent="0.2">
@@ -8577,7 +8571,7 @@
         <v>17</v>
       </c>
       <c r="D649" s="17">
-        <v>200</v>
+        <v>400</v>
       </c>
     </row>
     <row r="650" spans="1:4" x14ac:dyDescent="0.2">
@@ -8589,7 +8583,7 @@
         <v>17</v>
       </c>
       <c r="D650" s="17">
-        <v>400</v>
+        <v>600</v>
       </c>
     </row>
     <row r="651" spans="1:4" x14ac:dyDescent="0.2">
@@ -8601,7 +8595,7 @@
         <v>17</v>
       </c>
       <c r="D651" s="17">
-        <v>400</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="652" spans="1:4" x14ac:dyDescent="0.2">
@@ -8613,7 +8607,7 @@
         <v>17</v>
       </c>
       <c r="D652" s="17">
-        <v>600</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="653" spans="1:4" x14ac:dyDescent="0.2">
@@ -8625,7 +8619,7 @@
         <v>17</v>
       </c>
       <c r="D653" s="17">
-        <v>1000</v>
+        <v>200</v>
       </c>
     </row>
     <row r="654" spans="1:4" x14ac:dyDescent="0.2">
@@ -8637,7 +8631,7 @@
         <v>17</v>
       </c>
       <c r="D654" s="17">
-        <v>1000</v>
+        <v>200</v>
       </c>
     </row>
     <row r="655" spans="1:4" x14ac:dyDescent="0.2">
@@ -8709,7 +8703,7 @@
         <v>17</v>
       </c>
       <c r="D660" s="17">
-        <v>200</v>
+        <v>400</v>
       </c>
     </row>
     <row r="661" spans="1:4" x14ac:dyDescent="0.2">
@@ -8721,7 +8715,7 @@
         <v>17</v>
       </c>
       <c r="D661" s="17">
-        <v>200</v>
+        <v>400</v>
       </c>
     </row>
     <row r="662" spans="1:4" x14ac:dyDescent="0.2">
@@ -8817,7 +8811,7 @@
         <v>17</v>
       </c>
       <c r="D669" s="17">
-        <v>400</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="670" spans="1:4" x14ac:dyDescent="0.2">
@@ -8829,7 +8823,7 @@
         <v>17</v>
       </c>
       <c r="D670" s="17">
-        <v>400</v>
+        <v>600</v>
       </c>
     </row>
     <row r="671" spans="1:4" x14ac:dyDescent="0.2">
@@ -8838,10 +8832,10 @@
         <v>20</v>
       </c>
       <c r="C671" s="15" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D671" s="17">
-        <v>1000</v>
+        <v>400</v>
       </c>
     </row>
     <row r="672" spans="1:4" x14ac:dyDescent="0.2">
@@ -8850,10 +8844,10 @@
         <v>20</v>
       </c>
       <c r="C672" s="15" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D672" s="17">
-        <v>600</v>
+        <v>1500</v>
       </c>
     </row>
     <row r="673" spans="1:4" x14ac:dyDescent="0.2">
@@ -8865,7 +8859,7 @@
         <v>18</v>
       </c>
       <c r="D673" s="17">
-        <v>400</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="674" spans="1:4" x14ac:dyDescent="0.2">
@@ -8877,7 +8871,7 @@
         <v>18</v>
       </c>
       <c r="D674" s="17">
-        <v>1500</v>
+        <v>500</v>
       </c>
     </row>
     <row r="675" spans="1:4" x14ac:dyDescent="0.2">
@@ -8889,7 +8883,7 @@
         <v>18</v>
       </c>
       <c r="D675" s="17">
-        <v>1000</v>
+        <v>750</v>
       </c>
     </row>
     <row r="676" spans="1:4" x14ac:dyDescent="0.2">
@@ -8913,7 +8907,7 @@
         <v>18</v>
       </c>
       <c r="D677" s="17">
-        <v>750</v>
+        <v>500</v>
       </c>
     </row>
     <row r="678" spans="1:4" x14ac:dyDescent="0.2">
@@ -8937,7 +8931,7 @@
         <v>18</v>
       </c>
       <c r="D679" s="17">
-        <v>500</v>
+        <v>600</v>
       </c>
     </row>
     <row r="680" spans="1:4" x14ac:dyDescent="0.2">
@@ -8949,7 +8943,7 @@
         <v>18</v>
       </c>
       <c r="D680" s="17">
-        <v>500</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="681" spans="1:4" x14ac:dyDescent="0.2">
@@ -8961,7 +8955,7 @@
         <v>18</v>
       </c>
       <c r="D681" s="17">
-        <v>600</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="682" spans="1:4" x14ac:dyDescent="0.2">
@@ -9108,28 +9102,28 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="694" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="694" spans="1:4" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A694" s="15"/>
       <c r="B694" s="16">
         <v>20</v>
       </c>
       <c r="C694" s="15" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D694" s="17">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="695" spans="1:4" x14ac:dyDescent="0.2">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="695" spans="1:4" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A695" s="15"/>
       <c r="B695" s="16">
         <v>20</v>
       </c>
       <c r="C695" s="15" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D695" s="17">
-        <v>1000</v>
+        <v>400</v>
       </c>
     </row>
     <row r="696" spans="1:4" ht="25.5" x14ac:dyDescent="0.2">
@@ -9189,7 +9183,7 @@
         <v>19</v>
       </c>
       <c r="D700" s="17">
-        <v>400</v>
+        <v>1400</v>
       </c>
     </row>
     <row r="701" spans="1:4" ht="25.5" x14ac:dyDescent="0.2">
@@ -9213,7 +9207,7 @@
         <v>19</v>
       </c>
       <c r="D702" s="17">
-        <v>1400</v>
+        <v>400</v>
       </c>
     </row>
     <row r="703" spans="1:4" ht="25.5" x14ac:dyDescent="0.2">
@@ -9297,7 +9291,7 @@
         <v>19</v>
       </c>
       <c r="D709" s="17">
-        <v>400</v>
+        <v>2700</v>
       </c>
     </row>
     <row r="710" spans="1:4" ht="25.5" x14ac:dyDescent="0.2">
@@ -9309,7 +9303,7 @@
         <v>19</v>
       </c>
       <c r="D710" s="17">
-        <v>400</v>
+        <v>1700</v>
       </c>
     </row>
     <row r="711" spans="1:4" ht="25.5" x14ac:dyDescent="0.2">
@@ -9321,7 +9315,7 @@
         <v>19</v>
       </c>
       <c r="D711" s="17">
-        <v>2700</v>
+        <v>500</v>
       </c>
     </row>
     <row r="712" spans="1:4" ht="25.5" x14ac:dyDescent="0.2">
@@ -9333,7 +9327,7 @@
         <v>19</v>
       </c>
       <c r="D712" s="17">
-        <v>1700</v>
+        <v>400</v>
       </c>
     </row>
     <row r="713" spans="1:4" ht="25.5" x14ac:dyDescent="0.2">
@@ -9345,7 +9339,7 @@
         <v>19</v>
       </c>
       <c r="D713" s="17">
-        <v>500</v>
+        <v>400</v>
       </c>
     </row>
     <row r="714" spans="1:4" ht="25.5" x14ac:dyDescent="0.2">
@@ -9492,28 +9486,28 @@
         <v>400</v>
       </c>
     </row>
-    <row r="726" spans="1:4" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="726" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A726" s="15"/>
       <c r="B726" s="16">
         <v>20</v>
       </c>
       <c r="C726" s="15" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D726" s="17">
-        <v>400</v>
-      </c>
-    </row>
-    <row r="727" spans="1:4" ht="25.5" x14ac:dyDescent="0.2">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="727" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A727" s="15"/>
       <c r="B727" s="16">
         <v>20</v>
       </c>
       <c r="C727" s="15" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D727" s="17">
-        <v>400</v>
+        <v>2400</v>
       </c>
     </row>
     <row r="728" spans="1:4" x14ac:dyDescent="0.2">
@@ -9525,7 +9519,7 @@
         <v>20</v>
       </c>
       <c r="D728" s="17">
-        <v>500</v>
+        <v>4000</v>
       </c>
     </row>
     <row r="729" spans="1:4" x14ac:dyDescent="0.2">
@@ -9537,7 +9531,7 @@
         <v>20</v>
       </c>
       <c r="D729" s="17">
-        <v>2400</v>
+        <v>400</v>
       </c>
     </row>
     <row r="730" spans="1:4" x14ac:dyDescent="0.2">
@@ -9549,7 +9543,7 @@
         <v>20</v>
       </c>
       <c r="D730" s="17">
-        <v>4000</v>
+        <v>500</v>
       </c>
     </row>
     <row r="731" spans="1:4" x14ac:dyDescent="0.2">
@@ -9561,7 +9555,7 @@
         <v>20</v>
       </c>
       <c r="D731" s="17">
-        <v>400</v>
+        <v>2500</v>
       </c>
     </row>
     <row r="732" spans="1:4" x14ac:dyDescent="0.2">
@@ -9573,7 +9567,7 @@
         <v>20</v>
       </c>
       <c r="D732" s="17">
-        <v>500</v>
+        <v>2400</v>
       </c>
     </row>
     <row r="733" spans="1:4" x14ac:dyDescent="0.2">
@@ -9585,7 +9579,7 @@
         <v>20</v>
       </c>
       <c r="D733" s="17">
-        <v>2500</v>
+        <v>2700</v>
       </c>
     </row>
     <row r="734" spans="1:4" x14ac:dyDescent="0.2">
@@ -9594,10 +9588,10 @@
         <v>20</v>
       </c>
       <c r="C734" s="15" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D734" s="17">
-        <v>2400</v>
+        <v>275000</v>
       </c>
     </row>
     <row r="735" spans="1:4" x14ac:dyDescent="0.2">
@@ -9606,10 +9600,10 @@
         <v>20</v>
       </c>
       <c r="C735" s="15" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="D735" s="17">
-        <v>2700</v>
+        <v>300</v>
       </c>
     </row>
     <row r="736" spans="1:4" x14ac:dyDescent="0.2">
@@ -9618,10 +9612,10 @@
         <v>20</v>
       </c>
       <c r="C736" s="15" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D736" s="17">
-        <v>275000</v>
+        <v>300</v>
       </c>
     </row>
     <row r="737" spans="1:4" x14ac:dyDescent="0.2">
@@ -9645,7 +9639,7 @@
         <v>22</v>
       </c>
       <c r="D738" s="17">
-        <v>300</v>
+        <v>500</v>
       </c>
     </row>
     <row r="739" spans="1:4" x14ac:dyDescent="0.2">
@@ -9666,10 +9660,10 @@
         <v>20</v>
       </c>
       <c r="C740" s="15" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D740" s="17">
-        <v>500</v>
+        <v>2000</v>
       </c>
     </row>
     <row r="741" spans="1:4" x14ac:dyDescent="0.2">
@@ -9678,10 +9672,10 @@
         <v>20</v>
       </c>
       <c r="C741" s="15" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D741" s="17">
-        <v>300</v>
+        <v>400</v>
       </c>
     </row>
     <row r="742" spans="1:4" x14ac:dyDescent="0.2">
@@ -9693,7 +9687,7 @@
         <v>23</v>
       </c>
       <c r="D742" s="17">
-        <v>2000</v>
+        <v>300</v>
       </c>
     </row>
     <row r="743" spans="1:4" x14ac:dyDescent="0.2">
@@ -9705,7 +9699,7 @@
         <v>23</v>
       </c>
       <c r="D743" s="17">
-        <v>400</v>
+        <v>300</v>
       </c>
     </row>
     <row r="744" spans="1:4" x14ac:dyDescent="0.2">
@@ -9729,7 +9723,7 @@
         <v>23</v>
       </c>
       <c r="D745" s="17">
-        <v>300</v>
+        <v>200</v>
       </c>
     </row>
     <row r="746" spans="1:4" x14ac:dyDescent="0.2">
@@ -9741,7 +9735,7 @@
         <v>23</v>
       </c>
       <c r="D746" s="17">
-        <v>300</v>
+        <v>500</v>
       </c>
     </row>
     <row r="747" spans="1:4" x14ac:dyDescent="0.2">
@@ -9753,7 +9747,7 @@
         <v>23</v>
       </c>
       <c r="D747" s="17">
-        <v>200</v>
+        <v>300</v>
       </c>
     </row>
     <row r="748" spans="1:4" x14ac:dyDescent="0.2">
@@ -9765,7 +9759,7 @@
         <v>23</v>
       </c>
       <c r="D748" s="17">
-        <v>500</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="749" spans="1:4" x14ac:dyDescent="0.2">
@@ -9789,7 +9783,7 @@
         <v>23</v>
       </c>
       <c r="D750" s="17">
-        <v>1000</v>
+        <v>300</v>
       </c>
     </row>
     <row r="751" spans="1:4" x14ac:dyDescent="0.2">
@@ -9837,7 +9831,7 @@
         <v>23</v>
       </c>
       <c r="D754" s="17">
-        <v>300</v>
+        <v>1400</v>
       </c>
     </row>
     <row r="755" spans="1:4" x14ac:dyDescent="0.2">
@@ -9846,10 +9840,10 @@
         <v>20</v>
       </c>
       <c r="C755" s="15" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D755" s="17">
-        <v>300</v>
+        <v>3000</v>
       </c>
     </row>
     <row r="756" spans="1:4" x14ac:dyDescent="0.2">
@@ -9858,10 +9852,10 @@
         <v>20</v>
       </c>
       <c r="C756" s="15" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D756" s="17">
-        <v>1400</v>
+        <v>700</v>
       </c>
     </row>
     <row r="757" spans="1:4" x14ac:dyDescent="0.2">
@@ -9873,7 +9867,7 @@
         <v>24</v>
       </c>
       <c r="D757" s="17">
-        <v>3000</v>
+        <v>400</v>
       </c>
     </row>
     <row r="758" spans="1:4" x14ac:dyDescent="0.2">
@@ -9885,7 +9879,7 @@
         <v>24</v>
       </c>
       <c r="D758" s="17">
-        <v>700</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="759" spans="1:4" x14ac:dyDescent="0.2">
@@ -9897,7 +9891,7 @@
         <v>24</v>
       </c>
       <c r="D759" s="17">
-        <v>400</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="760" spans="1:4" x14ac:dyDescent="0.2">
@@ -9942,10 +9936,10 @@
         <v>20</v>
       </c>
       <c r="C763" s="15" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D763" s="17">
-        <v>1000</v>
+        <v>35000</v>
       </c>
     </row>
     <row r="764" spans="1:4" x14ac:dyDescent="0.2">
@@ -9954,10 +9948,10 @@
         <v>20</v>
       </c>
       <c r="C764" s="15" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D764" s="17">
-        <v>1000</v>
+        <v>40000</v>
       </c>
     </row>
     <row r="765" spans="1:4" x14ac:dyDescent="0.2">
@@ -9969,7 +9963,7 @@
         <v>25</v>
       </c>
       <c r="D765" s="17">
-        <v>35000</v>
+        <v>45000</v>
       </c>
     </row>
     <row r="766" spans="1:4" x14ac:dyDescent="0.2">
@@ -9981,7 +9975,7 @@
         <v>25</v>
       </c>
       <c r="D766" s="17">
-        <v>40000</v>
+        <v>7500</v>
       </c>
     </row>
     <row r="767" spans="1:4" x14ac:dyDescent="0.2">
@@ -9993,7 +9987,7 @@
         <v>25</v>
       </c>
       <c r="D767" s="17">
-        <v>45000</v>
+        <v>20000</v>
       </c>
     </row>
     <row r="768" spans="1:4" x14ac:dyDescent="0.2">
@@ -10005,7 +9999,7 @@
         <v>25</v>
       </c>
       <c r="D768" s="17">
-        <v>7500</v>
+        <v>200000</v>
       </c>
     </row>
     <row r="769" spans="1:4" x14ac:dyDescent="0.2">
@@ -10014,10 +10008,10 @@
         <v>20</v>
       </c>
       <c r="C769" s="15" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D769" s="17">
-        <v>20000</v>
+        <v>42500</v>
       </c>
     </row>
     <row r="770" spans="1:4" x14ac:dyDescent="0.2">
@@ -10026,10 +10020,10 @@
         <v>20</v>
       </c>
       <c r="C770" s="15" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D770" s="17">
-        <v>200000</v>
+        <v>10000</v>
       </c>
     </row>
     <row r="771" spans="1:4" x14ac:dyDescent="0.2">
@@ -10038,10 +10032,10 @@
         <v>20</v>
       </c>
       <c r="C771" s="15" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D771" s="17">
-        <v>42500</v>
+        <v>10000</v>
       </c>
     </row>
     <row r="772" spans="1:4" x14ac:dyDescent="0.2">
@@ -10050,10 +10044,10 @@
         <v>20</v>
       </c>
       <c r="C772" s="15" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="D772" s="17">
-        <v>10000</v>
+        <v>200</v>
       </c>
     </row>
     <row r="773" spans="1:4" x14ac:dyDescent="0.2">
@@ -10062,10 +10056,10 @@
         <v>20</v>
       </c>
       <c r="C773" s="15" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D773" s="17">
-        <v>10000</v>
+        <v>200</v>
       </c>
     </row>
     <row r="774" spans="1:4" x14ac:dyDescent="0.2">
@@ -10077,7 +10071,7 @@
         <v>28</v>
       </c>
       <c r="D774" s="17">
-        <v>200</v>
+        <v>700</v>
       </c>
     </row>
     <row r="775" spans="1:4" x14ac:dyDescent="0.2">
@@ -10089,7 +10083,7 @@
         <v>28</v>
       </c>
       <c r="D775" s="17">
-        <v>200</v>
+        <v>400</v>
       </c>
     </row>
     <row r="776" spans="1:4" x14ac:dyDescent="0.2">
@@ -10101,7 +10095,7 @@
         <v>28</v>
       </c>
       <c r="D776" s="17">
-        <v>700</v>
+        <v>200</v>
       </c>
     </row>
     <row r="777" spans="1:4" x14ac:dyDescent="0.2">
@@ -10113,7 +10107,7 @@
         <v>28</v>
       </c>
       <c r="D777" s="17">
-        <v>400</v>
+        <v>100</v>
       </c>
     </row>
     <row r="778" spans="1:4" x14ac:dyDescent="0.2">
@@ -10125,7 +10119,7 @@
         <v>28</v>
       </c>
       <c r="D778" s="17">
-        <v>200</v>
+        <v>400</v>
       </c>
     </row>
     <row r="779" spans="1:4" x14ac:dyDescent="0.2">
@@ -10137,7 +10131,7 @@
         <v>28</v>
       </c>
       <c r="D779" s="17">
-        <v>100</v>
+        <v>400</v>
       </c>
     </row>
     <row r="780" spans="1:4" x14ac:dyDescent="0.2">
@@ -10146,10 +10140,10 @@
         <v>20</v>
       </c>
       <c r="C780" s="15" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D780" s="17">
-        <v>400</v>
+        <v>1700</v>
       </c>
     </row>
     <row r="781" spans="1:4" x14ac:dyDescent="0.2">
@@ -10158,10 +10152,10 @@
         <v>20</v>
       </c>
       <c r="C781" s="15" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D781" s="17">
-        <v>400</v>
+        <v>3000</v>
       </c>
     </row>
     <row r="782" spans="1:4" x14ac:dyDescent="0.2">
@@ -10173,7 +10167,7 @@
         <v>29</v>
       </c>
       <c r="D782" s="17">
-        <v>1700</v>
+        <v>1400</v>
       </c>
     </row>
     <row r="783" spans="1:4" x14ac:dyDescent="0.2">
@@ -10185,7 +10179,7 @@
         <v>29</v>
       </c>
       <c r="D783" s="17">
-        <v>3000</v>
+        <v>1400</v>
       </c>
     </row>
     <row r="784" spans="1:4" x14ac:dyDescent="0.2">
@@ -10197,7 +10191,7 @@
         <v>29</v>
       </c>
       <c r="D784" s="17">
-        <v>1400</v>
+        <v>3400</v>
       </c>
     </row>
     <row r="785" spans="1:4" x14ac:dyDescent="0.2">
@@ -10209,31 +10203,31 @@
         <v>29</v>
       </c>
       <c r="D785" s="17">
-        <v>1400</v>
-      </c>
-    </row>
-    <row r="786" spans="1:4" x14ac:dyDescent="0.2">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="786" spans="1:4" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A786" s="15"/>
       <c r="B786" s="16">
         <v>20</v>
       </c>
       <c r="C786" s="15" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D786" s="17">
-        <v>3400</v>
-      </c>
-    </row>
-    <row r="787" spans="1:4" x14ac:dyDescent="0.2">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="787" spans="1:4" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A787" s="15"/>
       <c r="B787" s="16">
         <v>20</v>
       </c>
       <c r="C787" s="15" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D787" s="17">
-        <v>2000</v>
+        <v>400</v>
       </c>
     </row>
     <row r="788" spans="1:4" ht="25.5" x14ac:dyDescent="0.2">
@@ -10245,31 +10239,31 @@
         <v>30</v>
       </c>
       <c r="D788" s="17">
-        <v>700</v>
-      </c>
-    </row>
-    <row r="789" spans="1:4" ht="25.5" x14ac:dyDescent="0.2">
+        <v>3400</v>
+      </c>
+    </row>
+    <row r="789" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A789" s="15"/>
       <c r="B789" s="16">
         <v>20</v>
       </c>
       <c r="C789" s="15" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D789" s="17">
-        <v>400</v>
-      </c>
-    </row>
-    <row r="790" spans="1:4" ht="25.5" x14ac:dyDescent="0.2">
+        <v>5000</v>
+      </c>
+    </row>
+    <row r="790" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A790" s="15"/>
       <c r="B790" s="16">
         <v>20</v>
       </c>
       <c r="C790" s="15" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D790" s="17">
-        <v>3400</v>
+        <v>7500</v>
       </c>
     </row>
     <row r="791" spans="1:4" x14ac:dyDescent="0.2">
@@ -10278,10 +10272,10 @@
         <v>20</v>
       </c>
       <c r="C791" s="15" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D791" s="17">
-        <v>5000</v>
+        <v>700</v>
       </c>
     </row>
     <row r="792" spans="1:4" x14ac:dyDescent="0.2">
@@ -10290,10 +10284,10 @@
         <v>20</v>
       </c>
       <c r="C792" s="15" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D792" s="17">
-        <v>7500</v>
+        <v>700</v>
       </c>
     </row>
     <row r="793" spans="1:4" x14ac:dyDescent="0.2">
@@ -10317,7 +10311,7 @@
         <v>32</v>
       </c>
       <c r="D794" s="17">
-        <v>700</v>
+        <v>400</v>
       </c>
     </row>
     <row r="795" spans="1:4" x14ac:dyDescent="0.2">
@@ -10329,7 +10323,7 @@
         <v>32</v>
       </c>
       <c r="D795" s="17">
-        <v>700</v>
+        <v>1700</v>
       </c>
     </row>
     <row r="796" spans="1:4" x14ac:dyDescent="0.2">
@@ -10341,7 +10335,7 @@
         <v>32</v>
       </c>
       <c r="D796" s="17">
-        <v>400</v>
+        <v>700</v>
       </c>
     </row>
     <row r="797" spans="1:4" x14ac:dyDescent="0.2">
@@ -10353,7 +10347,7 @@
         <v>32</v>
       </c>
       <c r="D797" s="17">
-        <v>1700</v>
+        <v>700</v>
       </c>
     </row>
     <row r="798" spans="1:4" x14ac:dyDescent="0.2">
@@ -10362,10 +10356,10 @@
         <v>20</v>
       </c>
       <c r="C798" s="15" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D798" s="17">
-        <v>700</v>
+        <v>15000</v>
       </c>
     </row>
     <row r="799" spans="1:4" x14ac:dyDescent="0.2">
@@ -10374,10 +10368,10 @@
         <v>20</v>
       </c>
       <c r="C799" s="15" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="D799" s="17">
-        <v>700</v>
+        <v>20000</v>
       </c>
     </row>
     <row r="800" spans="1:4" x14ac:dyDescent="0.2">
@@ -10386,10 +10380,10 @@
         <v>20</v>
       </c>
       <c r="C800" s="15" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D800" s="17">
-        <v>15000</v>
+        <v>20000</v>
       </c>
     </row>
     <row r="801" spans="1:4" x14ac:dyDescent="0.2">
@@ -10398,10 +10392,10 @@
         <v>20</v>
       </c>
       <c r="C801" s="15" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D801" s="17">
-        <v>20000</v>
+        <v>400</v>
       </c>
     </row>
     <row r="802" spans="1:4" x14ac:dyDescent="0.2">
@@ -10410,10 +10404,10 @@
         <v>20</v>
       </c>
       <c r="C802" s="15" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D802" s="17">
-        <v>20000</v>
+        <v>700</v>
       </c>
     </row>
     <row r="803" spans="1:4" x14ac:dyDescent="0.2">
@@ -10437,7 +10431,7 @@
         <v>35</v>
       </c>
       <c r="D804" s="17">
-        <v>700</v>
+        <v>400</v>
       </c>
     </row>
     <row r="805" spans="1:4" x14ac:dyDescent="0.2">
@@ -10449,7 +10443,7 @@
         <v>35</v>
       </c>
       <c r="D805" s="17">
-        <v>400</v>
+        <v>700</v>
       </c>
     </row>
     <row r="806" spans="1:4" x14ac:dyDescent="0.2">
@@ -10461,7 +10455,7 @@
         <v>35</v>
       </c>
       <c r="D806" s="17">
-        <v>400</v>
+        <v>2000</v>
       </c>
     </row>
     <row r="807" spans="1:4" x14ac:dyDescent="0.2">
@@ -10473,7 +10467,7 @@
         <v>35</v>
       </c>
       <c r="D807" s="17">
-        <v>700</v>
+        <v>400</v>
       </c>
     </row>
     <row r="808" spans="1:4" x14ac:dyDescent="0.2">
@@ -10485,7 +10479,7 @@
         <v>35</v>
       </c>
       <c r="D808" s="17">
-        <v>2000</v>
+        <v>700</v>
       </c>
     </row>
     <row r="809" spans="1:4" x14ac:dyDescent="0.2">
@@ -10497,7 +10491,7 @@
         <v>35</v>
       </c>
       <c r="D809" s="17">
-        <v>400</v>
+        <v>700</v>
       </c>
     </row>
     <row r="810" spans="1:4" x14ac:dyDescent="0.2">
@@ -10509,7 +10503,7 @@
         <v>35</v>
       </c>
       <c r="D810" s="17">
-        <v>700</v>
+        <v>400</v>
       </c>
     </row>
     <row r="811" spans="1:4" x14ac:dyDescent="0.2">
@@ -10518,10 +10512,10 @@
         <v>20</v>
       </c>
       <c r="C811" s="15" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D811" s="17">
-        <v>700</v>
+        <v>50000</v>
       </c>
     </row>
     <row r="812" spans="1:4" x14ac:dyDescent="0.2">
@@ -10530,10 +10524,10 @@
         <v>20</v>
       </c>
       <c r="C812" s="15" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="D812" s="17">
-        <v>400</v>
+        <v>220000</v>
       </c>
     </row>
     <row r="813" spans="1:4" x14ac:dyDescent="0.2">
@@ -10542,7 +10536,7 @@
         <v>20</v>
       </c>
       <c r="C813" s="15" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="D813" s="17">
         <v>50000</v>
@@ -10554,10 +10548,10 @@
         <v>20</v>
       </c>
       <c r="C814" s="15" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D814" s="17">
-        <v>220000</v>
+        <v>200000</v>
       </c>
     </row>
     <row r="815" spans="1:4" x14ac:dyDescent="0.2">
@@ -10581,7 +10575,7 @@
         <v>38</v>
       </c>
       <c r="D816" s="17">
-        <v>200000</v>
+        <v>100000</v>
       </c>
     </row>
     <row r="817" spans="1:4" x14ac:dyDescent="0.2">
@@ -10593,7 +10587,7 @@
         <v>38</v>
       </c>
       <c r="D817" s="17">
-        <v>50000</v>
+        <v>100000</v>
       </c>
     </row>
     <row r="818" spans="1:4" x14ac:dyDescent="0.2">
@@ -10602,10 +10596,10 @@
         <v>20</v>
       </c>
       <c r="C818" s="15" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D818" s="17">
-        <v>100000</v>
+        <v>205000</v>
       </c>
     </row>
     <row r="819" spans="1:4" x14ac:dyDescent="0.2">
@@ -10614,10 +10608,10 @@
         <v>20</v>
       </c>
       <c r="C819" s="15" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="D819" s="17">
-        <v>100000</v>
+        <v>1500</v>
       </c>
     </row>
     <row r="820" spans="1:4" x14ac:dyDescent="0.2">
@@ -10626,10 +10620,10 @@
         <v>20</v>
       </c>
       <c r="C820" s="15" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D820" s="17">
-        <v>205000</v>
+        <v>1500</v>
       </c>
     </row>
     <row r="821" spans="1:4" x14ac:dyDescent="0.2">
@@ -10770,10 +10764,10 @@
         <v>20</v>
       </c>
       <c r="C832" s="15" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D832" s="17">
-        <v>1500</v>
+        <v>10000</v>
       </c>
     </row>
     <row r="833" spans="1:4" x14ac:dyDescent="0.2">
@@ -10782,10 +10776,10 @@
         <v>20</v>
       </c>
       <c r="C833" s="15" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="D833" s="17">
-        <v>1500</v>
+        <v>3000</v>
       </c>
     </row>
     <row r="834" spans="1:4" x14ac:dyDescent="0.2">
@@ -10794,10 +10788,10 @@
         <v>20</v>
       </c>
       <c r="C834" s="15" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="D834" s="17">
-        <v>10000</v>
+        <v>700</v>
       </c>
     </row>
     <row r="835" spans="1:4" x14ac:dyDescent="0.2">
@@ -10806,10 +10800,10 @@
         <v>20</v>
       </c>
       <c r="C835" s="15" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="D835" s="17">
-        <v>3000</v>
+        <v>700</v>
       </c>
     </row>
     <row r="836" spans="1:4" x14ac:dyDescent="0.2">
@@ -10821,7 +10815,7 @@
         <v>43</v>
       </c>
       <c r="D836" s="17">
-        <v>700</v>
+        <v>400</v>
       </c>
     </row>
     <row r="837" spans="1:4" x14ac:dyDescent="0.2">
@@ -10830,10 +10824,10 @@
         <v>20</v>
       </c>
       <c r="C837" s="15" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D837" s="17">
-        <v>700</v>
+        <v>5000</v>
       </c>
     </row>
     <row r="838" spans="1:4" x14ac:dyDescent="0.2">
@@ -10842,10 +10836,10 @@
         <v>20</v>
       </c>
       <c r="C838" s="15" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D838" s="17">
-        <v>400</v>
+        <v>5000</v>
       </c>
     </row>
     <row r="839" spans="1:4" x14ac:dyDescent="0.2">
@@ -10857,7 +10851,7 @@
         <v>44</v>
       </c>
       <c r="D839" s="17">
-        <v>5000</v>
+        <v>6500</v>
       </c>
     </row>
     <row r="840" spans="1:4" x14ac:dyDescent="0.2">
@@ -10866,10 +10860,10 @@
         <v>20</v>
       </c>
       <c r="C840" s="15" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D840" s="17">
-        <v>5000</v>
+        <v>40000</v>
       </c>
     </row>
     <row r="841" spans="1:4" x14ac:dyDescent="0.2">
@@ -10878,10 +10872,10 @@
         <v>20</v>
       </c>
       <c r="C841" s="15" t="s">
-        <v>44</v>
+        <v>10</v>
       </c>
       <c r="D841" s="17">
-        <v>6500</v>
+        <v>400</v>
       </c>
     </row>
     <row r="842" spans="1:4" x14ac:dyDescent="0.2">
@@ -10890,10 +10884,10 @@
         <v>20</v>
       </c>
       <c r="C842" s="15" t="s">
-        <v>45</v>
+        <v>11</v>
       </c>
       <c r="D842" s="17">
-        <v>40000</v>
+        <v>16700</v>
       </c>
     </row>
     <row r="843" spans="1:4" x14ac:dyDescent="0.2">
@@ -10902,10 +10896,10 @@
         <v>20</v>
       </c>
       <c r="C843" s="15" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D843" s="17">
-        <v>400</v>
+        <v>16700</v>
       </c>
     </row>
     <row r="844" spans="1:4" x14ac:dyDescent="0.2">
@@ -10917,7 +10911,7 @@
         <v>11</v>
       </c>
       <c r="D844" s="17">
-        <v>16700</v>
+        <v>1700</v>
       </c>
     </row>
     <row r="845" spans="1:4" x14ac:dyDescent="0.2">
@@ -10929,7 +10923,7 @@
         <v>11</v>
       </c>
       <c r="D845" s="17">
-        <v>16700</v>
+        <v>3400</v>
       </c>
     </row>
     <row r="846" spans="1:4" x14ac:dyDescent="0.2">
@@ -10941,7 +10935,7 @@
         <v>11</v>
       </c>
       <c r="D846" s="17">
-        <v>1700</v>
+        <v>666700</v>
       </c>
     </row>
     <row r="847" spans="1:4" x14ac:dyDescent="0.2">
@@ -10953,7 +10947,7 @@
         <v>11</v>
       </c>
       <c r="D847" s="17">
-        <v>3400</v>
+        <v>33400</v>
       </c>
     </row>
     <row r="848" spans="1:4" x14ac:dyDescent="0.2">
@@ -10965,7 +10959,7 @@
         <v>11</v>
       </c>
       <c r="D848" s="17">
-        <v>666700</v>
+        <v>5000</v>
       </c>
     </row>
     <row r="849" spans="1:4" x14ac:dyDescent="0.2">
@@ -10977,7 +10971,7 @@
         <v>11</v>
       </c>
       <c r="D849" s="17">
-        <v>33400</v>
+        <v>7700</v>
       </c>
     </row>
     <row r="850" spans="1:4" x14ac:dyDescent="0.2">
@@ -10989,7 +10983,7 @@
         <v>11</v>
       </c>
       <c r="D850" s="17">
-        <v>5000</v>
+        <v>33400</v>
       </c>
     </row>
     <row r="851" spans="1:4" x14ac:dyDescent="0.2">
@@ -11001,7 +10995,7 @@
         <v>11</v>
       </c>
       <c r="D851" s="17">
-        <v>7700</v>
+        <v>33400</v>
       </c>
     </row>
     <row r="852" spans="1:4" x14ac:dyDescent="0.2">
@@ -11061,7 +11055,7 @@
         <v>11</v>
       </c>
       <c r="D856" s="17">
-        <v>33400</v>
+        <v>11700</v>
       </c>
     </row>
     <row r="857" spans="1:4" x14ac:dyDescent="0.2">
@@ -11085,7 +11079,7 @@
         <v>11</v>
       </c>
       <c r="D858" s="17">
-        <v>11700</v>
+        <v>8400</v>
       </c>
     </row>
     <row r="859" spans="1:4" x14ac:dyDescent="0.2">
@@ -11109,7 +11103,7 @@
         <v>11</v>
       </c>
       <c r="D860" s="17">
-        <v>8400</v>
+        <v>33400</v>
       </c>
     </row>
     <row r="861" spans="1:4" x14ac:dyDescent="0.2">
@@ -11133,7 +11127,7 @@
         <v>11</v>
       </c>
       <c r="D862" s="17">
-        <v>33400</v>
+        <v>16700</v>
       </c>
     </row>
     <row r="863" spans="1:4" x14ac:dyDescent="0.2">
@@ -11157,7 +11151,7 @@
         <v>11</v>
       </c>
       <c r="D864" s="17">
-        <v>16700</v>
+        <v>33400</v>
       </c>
     </row>
     <row r="865" spans="1:4" x14ac:dyDescent="0.2">
@@ -11190,10 +11184,10 @@
         <v>20</v>
       </c>
       <c r="C867" s="15" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D867" s="17">
-        <v>33400</v>
+        <v>500</v>
       </c>
     </row>
     <row r="868" spans="1:4" x14ac:dyDescent="0.2">
@@ -11202,10 +11196,10 @@
         <v>20</v>
       </c>
       <c r="C868" s="15" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D868" s="17">
-        <v>33400</v>
+        <v>500</v>
       </c>
     </row>
     <row r="869" spans="1:4" x14ac:dyDescent="0.2">
@@ -11250,10 +11244,10 @@
         <v>20</v>
       </c>
       <c r="C872" s="15" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D872" s="17">
-        <v>500</v>
+        <v>2500</v>
       </c>
     </row>
     <row r="873" spans="1:4" x14ac:dyDescent="0.2">
@@ -11262,10 +11256,10 @@
         <v>20</v>
       </c>
       <c r="C873" s="15" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="D873" s="17">
-        <v>500</v>
+        <v>2500</v>
       </c>
     </row>
     <row r="874" spans="1:4" x14ac:dyDescent="0.2">
@@ -11274,10 +11268,10 @@
         <v>20</v>
       </c>
       <c r="C874" s="15" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D874" s="17">
-        <v>2500</v>
+        <v>2700</v>
       </c>
     </row>
     <row r="875" spans="1:4" x14ac:dyDescent="0.2">
@@ -11289,7 +11283,7 @@
         <v>14</v>
       </c>
       <c r="D875" s="17">
-        <v>2500</v>
+        <v>700</v>
       </c>
     </row>
     <row r="876" spans="1:4" x14ac:dyDescent="0.2">
@@ -11301,7 +11295,7 @@
         <v>14</v>
       </c>
       <c r="D876" s="17">
-        <v>2700</v>
+        <v>700</v>
       </c>
     </row>
     <row r="877" spans="1:4" x14ac:dyDescent="0.2">
@@ -11433,7 +11427,7 @@
         <v>14</v>
       </c>
       <c r="D887" s="17">
-        <v>700</v>
+        <v>2200</v>
       </c>
     </row>
     <row r="888" spans="1:4" x14ac:dyDescent="0.2">
@@ -11442,10 +11436,10 @@
         <v>20</v>
       </c>
       <c r="C888" s="15" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D888" s="17">
-        <v>700</v>
+        <v>8400</v>
       </c>
     </row>
     <row r="889" spans="1:4" x14ac:dyDescent="0.2">
@@ -11454,10 +11448,10 @@
         <v>20</v>
       </c>
       <c r="C889" s="15" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D889" s="17">
-        <v>2200</v>
+        <v>8400</v>
       </c>
     </row>
     <row r="890" spans="1:4" x14ac:dyDescent="0.2">
@@ -11682,10 +11676,10 @@
         <v>20</v>
       </c>
       <c r="C908" s="15" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D908" s="17">
-        <v>8400</v>
+        <v>200</v>
       </c>
     </row>
     <row r="909" spans="1:4" x14ac:dyDescent="0.2">
@@ -11694,10 +11688,10 @@
         <v>20</v>
       </c>
       <c r="C909" s="15" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D909" s="17">
-        <v>8400</v>
+        <v>200</v>
       </c>
     </row>
     <row r="910" spans="1:4" x14ac:dyDescent="0.2">
@@ -11721,7 +11715,7 @@
         <v>16</v>
       </c>
       <c r="D911" s="17">
-        <v>200</v>
+        <v>400</v>
       </c>
     </row>
     <row r="912" spans="1:4" x14ac:dyDescent="0.2">
@@ -11745,7 +11739,7 @@
         <v>16</v>
       </c>
       <c r="D913" s="17">
-        <v>400</v>
+        <v>200</v>
       </c>
     </row>
     <row r="914" spans="1:4" x14ac:dyDescent="0.2">
@@ -11862,7 +11856,7 @@
         <v>20</v>
       </c>
       <c r="C923" s="15" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D923" s="17">
         <v>200</v>
@@ -11874,7 +11868,7 @@
         <v>20</v>
       </c>
       <c r="C924" s="15" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D924" s="17">
         <v>200</v>
@@ -11901,7 +11895,7 @@
         <v>17</v>
       </c>
       <c r="D926" s="17">
-        <v>200</v>
+        <v>400</v>
       </c>
     </row>
     <row r="927" spans="1:4" x14ac:dyDescent="0.2">
@@ -11913,7 +11907,7 @@
         <v>17</v>
       </c>
       <c r="D927" s="17">
-        <v>200</v>
+        <v>400</v>
       </c>
     </row>
     <row r="928" spans="1:4" x14ac:dyDescent="0.2">
@@ -11937,7 +11931,7 @@
         <v>17</v>
       </c>
       <c r="D929" s="17">
-        <v>400</v>
+        <v>900</v>
       </c>
     </row>
     <row r="930" spans="1:4" x14ac:dyDescent="0.2">
@@ -11949,7 +11943,7 @@
         <v>17</v>
       </c>
       <c r="D930" s="17">
-        <v>400</v>
+        <v>900</v>
       </c>
     </row>
     <row r="931" spans="1:4" x14ac:dyDescent="0.2">
@@ -11961,7 +11955,7 @@
         <v>17</v>
       </c>
       <c r="D931" s="17">
-        <v>900</v>
+        <v>100</v>
       </c>
     </row>
     <row r="932" spans="1:4" x14ac:dyDescent="0.2">
@@ -11973,7 +11967,7 @@
         <v>17</v>
       </c>
       <c r="D932" s="17">
-        <v>900</v>
+        <v>100</v>
       </c>
     </row>
     <row r="933" spans="1:4" x14ac:dyDescent="0.2">
@@ -12153,7 +12147,7 @@
         <v>17</v>
       </c>
       <c r="D947" s="17">
-        <v>100</v>
+        <v>400</v>
       </c>
     </row>
     <row r="948" spans="1:4" x14ac:dyDescent="0.2">
@@ -12165,7 +12159,7 @@
         <v>17</v>
       </c>
       <c r="D948" s="17">
-        <v>100</v>
+        <v>200</v>
       </c>
     </row>
     <row r="949" spans="1:4" x14ac:dyDescent="0.2">
@@ -12174,10 +12168,10 @@
         <v>20</v>
       </c>
       <c r="C949" s="15" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D949" s="17">
-        <v>400</v>
+        <v>200</v>
       </c>
     </row>
     <row r="950" spans="1:4" x14ac:dyDescent="0.2">
@@ -12186,10 +12180,10 @@
         <v>20</v>
       </c>
       <c r="C950" s="15" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D950" s="17">
-        <v>200</v>
+        <v>500</v>
       </c>
     </row>
     <row r="951" spans="1:4" x14ac:dyDescent="0.2">
@@ -12201,7 +12195,7 @@
         <v>18</v>
       </c>
       <c r="D951" s="17">
-        <v>200</v>
+        <v>400</v>
       </c>
     </row>
     <row r="952" spans="1:4" x14ac:dyDescent="0.2">
@@ -12213,7 +12207,7 @@
         <v>18</v>
       </c>
       <c r="D952" s="17">
-        <v>500</v>
+        <v>200</v>
       </c>
     </row>
     <row r="953" spans="1:4" x14ac:dyDescent="0.2">
@@ -12225,7 +12219,7 @@
         <v>18</v>
       </c>
       <c r="D953" s="17">
-        <v>400</v>
+        <v>300</v>
       </c>
     </row>
     <row r="954" spans="1:4" x14ac:dyDescent="0.2">
@@ -12249,7 +12243,7 @@
         <v>18</v>
       </c>
       <c r="D955" s="17">
-        <v>300</v>
+        <v>200</v>
       </c>
     </row>
     <row r="956" spans="1:4" x14ac:dyDescent="0.2">
@@ -12285,7 +12279,7 @@
         <v>18</v>
       </c>
       <c r="D958" s="17">
-        <v>200</v>
+        <v>400</v>
       </c>
     </row>
     <row r="959" spans="1:4" x14ac:dyDescent="0.2">
@@ -12297,7 +12291,7 @@
         <v>18</v>
       </c>
       <c r="D959" s="17">
-        <v>200</v>
+        <v>400</v>
       </c>
     </row>
     <row r="960" spans="1:4" x14ac:dyDescent="0.2">
@@ -12444,28 +12438,28 @@
         <v>400</v>
       </c>
     </row>
-    <row r="972" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="972" spans="1:4" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A972" s="15"/>
       <c r="B972" s="16">
         <v>20</v>
       </c>
       <c r="C972" s="15" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D972" s="17">
-        <v>400</v>
-      </c>
-    </row>
-    <row r="973" spans="1:4" x14ac:dyDescent="0.2">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="973" spans="1:4" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A973" s="15"/>
       <c r="B973" s="16">
         <v>20</v>
       </c>
       <c r="C973" s="15" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D973" s="17">
-        <v>400</v>
+        <v>300</v>
       </c>
     </row>
     <row r="974" spans="1:4" ht="25.5" x14ac:dyDescent="0.2">
@@ -12525,7 +12519,7 @@
         <v>19</v>
       </c>
       <c r="D978" s="17">
-        <v>300</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="979" spans="1:4" ht="25.5" x14ac:dyDescent="0.2">
@@ -12549,7 +12543,7 @@
         <v>19</v>
       </c>
       <c r="D980" s="17">
-        <v>1000</v>
+        <v>300</v>
       </c>
     </row>
     <row r="981" spans="1:4" ht="25.5" x14ac:dyDescent="0.2">
@@ -12633,7 +12627,7 @@
         <v>19</v>
       </c>
       <c r="D987" s="17">
-        <v>300</v>
+        <v>2500</v>
       </c>
     </row>
     <row r="988" spans="1:4" ht="25.5" x14ac:dyDescent="0.2">
@@ -12645,7 +12639,7 @@
         <v>19</v>
       </c>
       <c r="D988" s="17">
-        <v>300</v>
+        <v>1700</v>
       </c>
     </row>
     <row r="989" spans="1:4" ht="25.5" x14ac:dyDescent="0.2">
@@ -12657,7 +12651,7 @@
         <v>19</v>
       </c>
       <c r="D989" s="17">
-        <v>2500</v>
+        <v>400</v>
       </c>
     </row>
     <row r="990" spans="1:4" ht="25.5" x14ac:dyDescent="0.2">
@@ -12669,7 +12663,7 @@
         <v>19</v>
       </c>
       <c r="D990" s="17">
-        <v>1700</v>
+        <v>300</v>
       </c>
     </row>
     <row r="991" spans="1:4" ht="25.5" x14ac:dyDescent="0.2">
@@ -12681,7 +12675,7 @@
         <v>19</v>
       </c>
       <c r="D991" s="17">
-        <v>400</v>
+        <v>300</v>
       </c>
     </row>
     <row r="992" spans="1:4" ht="25.5" x14ac:dyDescent="0.2">
@@ -12828,28 +12822,28 @@
         <v>300</v>
       </c>
     </row>
-    <row r="1004" spans="1:4" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="1004" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1004" s="15"/>
       <c r="B1004" s="16">
         <v>20</v>
       </c>
       <c r="C1004" s="15" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D1004" s="17">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="1005" spans="1:4" ht="25.5" x14ac:dyDescent="0.2">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="1005" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1005" s="15"/>
       <c r="B1005" s="16">
         <v>20</v>
       </c>
       <c r="C1005" s="15" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D1005" s="17">
-        <v>300</v>
+        <v>1700</v>
       </c>
     </row>
     <row r="1006" spans="1:4" x14ac:dyDescent="0.2">
@@ -12861,7 +12855,7 @@
         <v>20</v>
       </c>
       <c r="D1006" s="17">
-        <v>400</v>
+        <v>3400</v>
       </c>
     </row>
     <row r="1007" spans="1:4" x14ac:dyDescent="0.2">
@@ -12873,7 +12867,7 @@
         <v>20</v>
       </c>
       <c r="D1007" s="17">
-        <v>1700</v>
+        <v>300</v>
       </c>
     </row>
     <row r="1008" spans="1:4" x14ac:dyDescent="0.2">
@@ -12885,7 +12879,7 @@
         <v>20</v>
       </c>
       <c r="D1008" s="17">
-        <v>3400</v>
+        <v>400</v>
       </c>
     </row>
     <row r="1009" spans="1:4" x14ac:dyDescent="0.2">
@@ -12897,7 +12891,7 @@
         <v>20</v>
       </c>
       <c r="D1009" s="17">
-        <v>300</v>
+        <v>2200</v>
       </c>
     </row>
     <row r="1010" spans="1:4" x14ac:dyDescent="0.2">
@@ -12909,7 +12903,7 @@
         <v>20</v>
       </c>
       <c r="D1010" s="17">
-        <v>400</v>
+        <v>1700</v>
       </c>
     </row>
     <row r="1011" spans="1:4" x14ac:dyDescent="0.2">
@@ -12921,7 +12915,7 @@
         <v>20</v>
       </c>
       <c r="D1011" s="17">
-        <v>2200</v>
+        <v>1700</v>
       </c>
     </row>
     <row r="1012" spans="1:4" x14ac:dyDescent="0.2">
@@ -12930,10 +12924,10 @@
         <v>20</v>
       </c>
       <c r="C1012" s="15" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D1012" s="17">
-        <v>1700</v>
+        <v>250000</v>
       </c>
     </row>
     <row r="1013" spans="1:4" x14ac:dyDescent="0.2">
@@ -12942,10 +12936,10 @@
         <v>20</v>
       </c>
       <c r="C1013" s="15" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="D1013" s="17">
-        <v>1700</v>
+        <v>200</v>
       </c>
     </row>
     <row r="1014" spans="1:4" x14ac:dyDescent="0.2">
@@ -12954,10 +12948,10 @@
         <v>20</v>
       </c>
       <c r="C1014" s="15" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D1014" s="17">
-        <v>250000</v>
+        <v>200</v>
       </c>
     </row>
     <row r="1015" spans="1:4" x14ac:dyDescent="0.2">
@@ -12981,7 +12975,7 @@
         <v>22</v>
       </c>
       <c r="D1016" s="17">
-        <v>200</v>
+        <v>400</v>
       </c>
     </row>
     <row r="1017" spans="1:4" x14ac:dyDescent="0.2">
@@ -13002,10 +12996,10 @@
         <v>20</v>
       </c>
       <c r="C1018" s="15" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D1018" s="17">
-        <v>400</v>
+        <v>1700</v>
       </c>
     </row>
     <row r="1019" spans="1:4" x14ac:dyDescent="0.2">
@@ -13014,10 +13008,10 @@
         <v>20</v>
       </c>
       <c r="C1019" s="15" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D1019" s="17">
-        <v>200</v>
+        <v>400</v>
       </c>
     </row>
     <row r="1020" spans="1:4" x14ac:dyDescent="0.2">
@@ -13029,7 +13023,7 @@
         <v>23</v>
       </c>
       <c r="D1020" s="17">
-        <v>1700</v>
+        <v>300</v>
       </c>
     </row>
     <row r="1021" spans="1:4" x14ac:dyDescent="0.2">
@@ -13041,7 +13035,7 @@
         <v>23</v>
       </c>
       <c r="D1021" s="17">
-        <v>400</v>
+        <v>300</v>
       </c>
     </row>
     <row r="1022" spans="1:4" x14ac:dyDescent="0.2">
@@ -13065,7 +13059,7 @@
         <v>23</v>
       </c>
       <c r="D1023" s="17">
-        <v>300</v>
+        <v>200</v>
       </c>
     </row>
     <row r="1024" spans="1:4" x14ac:dyDescent="0.2">
@@ -13077,7 +13071,7 @@
         <v>23</v>
       </c>
       <c r="D1024" s="17">
-        <v>300</v>
+        <v>400</v>
       </c>
     </row>
     <row r="1025" spans="1:4" x14ac:dyDescent="0.2">
@@ -13089,7 +13083,7 @@
         <v>23</v>
       </c>
       <c r="D1025" s="17">
-        <v>200</v>
+        <v>300</v>
       </c>
     </row>
     <row r="1026" spans="1:4" x14ac:dyDescent="0.2">
@@ -13101,7 +13095,7 @@
         <v>23</v>
       </c>
       <c r="D1026" s="17">
-        <v>400</v>
+        <v>900</v>
       </c>
     </row>
     <row r="1027" spans="1:4" x14ac:dyDescent="0.2">
@@ -13125,7 +13119,7 @@
         <v>23</v>
       </c>
       <c r="D1028" s="17">
-        <v>900</v>
+        <v>300</v>
       </c>
     </row>
     <row r="1029" spans="1:4" x14ac:dyDescent="0.2">
@@ -13173,7 +13167,7 @@
         <v>23</v>
       </c>
       <c r="D1032" s="17">
-        <v>300</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="1033" spans="1:4" x14ac:dyDescent="0.2">
@@ -13182,10 +13176,10 @@
         <v>20</v>
       </c>
       <c r="C1033" s="15" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D1033" s="17">
-        <v>300</v>
+        <v>2700</v>
       </c>
     </row>
     <row r="1034" spans="1:4" x14ac:dyDescent="0.2">
@@ -13194,10 +13188,10 @@
         <v>20</v>
       </c>
       <c r="C1034" s="15" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D1034" s="17">
-        <v>1000</v>
+        <v>700</v>
       </c>
     </row>
     <row r="1035" spans="1:4" x14ac:dyDescent="0.2">
@@ -13209,7 +13203,7 @@
         <v>24</v>
       </c>
       <c r="D1035" s="17">
-        <v>2700</v>
+        <v>400</v>
       </c>
     </row>
     <row r="1036" spans="1:4" x14ac:dyDescent="0.2">
@@ -13221,7 +13215,7 @@
         <v>24</v>
       </c>
       <c r="D1036" s="17">
-        <v>700</v>
+        <v>900</v>
       </c>
     </row>
     <row r="1037" spans="1:4" x14ac:dyDescent="0.2">
@@ -13233,7 +13227,7 @@
         <v>24</v>
       </c>
       <c r="D1037" s="17">
-        <v>400</v>
+        <v>900</v>
       </c>
     </row>
     <row r="1038" spans="1:4" x14ac:dyDescent="0.2">
@@ -13278,10 +13272,10 @@
         <v>20</v>
       </c>
       <c r="C1041" s="15" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D1041" s="17">
-        <v>900</v>
+        <v>25000</v>
       </c>
     </row>
     <row r="1042" spans="1:4" x14ac:dyDescent="0.2">
@@ -13290,10 +13284,10 @@
         <v>20</v>
       </c>
       <c r="C1042" s="15" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D1042" s="17">
-        <v>900</v>
+        <v>35000</v>
       </c>
     </row>
     <row r="1043" spans="1:4" x14ac:dyDescent="0.2">
@@ -13305,7 +13299,7 @@
         <v>25</v>
       </c>
       <c r="D1043" s="17">
-        <v>25000</v>
+        <v>4000</v>
       </c>
     </row>
     <row r="1044" spans="1:4" x14ac:dyDescent="0.2">
@@ -13317,7 +13311,7 @@
         <v>25</v>
       </c>
       <c r="D1044" s="17">
-        <v>35000</v>
+        <v>7000</v>
       </c>
     </row>
     <row r="1045" spans="1:4" x14ac:dyDescent="0.2">
@@ -13329,7 +13323,7 @@
         <v>25</v>
       </c>
       <c r="D1045" s="17">
-        <v>4000</v>
+        <v>15000</v>
       </c>
     </row>
     <row r="1046" spans="1:4" x14ac:dyDescent="0.2">
@@ -13341,7 +13335,7 @@
         <v>25</v>
       </c>
       <c r="D1046" s="17">
-        <v>7000</v>
+        <v>175000</v>
       </c>
     </row>
     <row r="1047" spans="1:4" x14ac:dyDescent="0.2">
@@ -13350,10 +13344,10 @@
         <v>20</v>
       </c>
       <c r="C1047" s="15" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D1047" s="17">
-        <v>15000</v>
+        <v>40000</v>
       </c>
     </row>
     <row r="1048" spans="1:4" x14ac:dyDescent="0.2">
@@ -13362,10 +13356,10 @@
         <v>20</v>
       </c>
       <c r="C1048" s="15" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D1048" s="17">
-        <v>175000</v>
+        <v>5000</v>
       </c>
     </row>
     <row r="1049" spans="1:4" x14ac:dyDescent="0.2">
@@ -13374,10 +13368,10 @@
         <v>20</v>
       </c>
       <c r="C1049" s="15" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D1049" s="17">
-        <v>40000</v>
+        <v>8000</v>
       </c>
     </row>
     <row r="1050" spans="1:4" x14ac:dyDescent="0.2">
@@ -13386,10 +13380,10 @@
         <v>20</v>
       </c>
       <c r="C1050" s="15" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="D1050" s="17">
-        <v>5000</v>
+        <v>200</v>
       </c>
     </row>
     <row r="1051" spans="1:4" x14ac:dyDescent="0.2">
@@ -13398,10 +13392,10 @@
         <v>20</v>
       </c>
       <c r="C1051" s="15" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D1051" s="17">
-        <v>8000</v>
+        <v>200</v>
       </c>
     </row>
     <row r="1052" spans="1:4" x14ac:dyDescent="0.2">
@@ -13413,7 +13407,7 @@
         <v>28</v>
       </c>
       <c r="D1052" s="17">
-        <v>200</v>
+        <v>500</v>
       </c>
     </row>
     <row r="1053" spans="1:4" x14ac:dyDescent="0.2">
@@ -13425,7 +13419,7 @@
         <v>28</v>
       </c>
       <c r="D1053" s="17">
-        <v>200</v>
+        <v>400</v>
       </c>
     </row>
     <row r="1054" spans="1:4" x14ac:dyDescent="0.2">
@@ -13437,7 +13431,7 @@
         <v>28</v>
       </c>
       <c r="D1054" s="17">
-        <v>500</v>
+        <v>200</v>
       </c>
     </row>
     <row r="1055" spans="1:4" x14ac:dyDescent="0.2">
@@ -13449,7 +13443,7 @@
         <v>28</v>
       </c>
       <c r="D1055" s="17">
-        <v>400</v>
+        <v>100</v>
       </c>
     </row>
     <row r="1056" spans="1:4" x14ac:dyDescent="0.2">
@@ -13473,7 +13467,7 @@
         <v>28</v>
       </c>
       <c r="D1057" s="17">
-        <v>100</v>
+        <v>200</v>
       </c>
     </row>
     <row r="1058" spans="1:4" x14ac:dyDescent="0.2">
@@ -13482,10 +13476,10 @@
         <v>20</v>
       </c>
       <c r="C1058" s="15" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D1058" s="17">
-        <v>200</v>
+        <v>1700</v>
       </c>
     </row>
     <row r="1059" spans="1:4" x14ac:dyDescent="0.2">
@@ -13494,10 +13488,10 @@
         <v>20</v>
       </c>
       <c r="C1059" s="15" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D1059" s="17">
-        <v>200</v>
+        <v>2900</v>
       </c>
     </row>
     <row r="1060" spans="1:4" x14ac:dyDescent="0.2">
@@ -13509,7 +13503,7 @@
         <v>29</v>
       </c>
       <c r="D1060" s="17">
-        <v>1700</v>
+        <v>1400</v>
       </c>
     </row>
     <row r="1061" spans="1:4" x14ac:dyDescent="0.2">
@@ -13521,7 +13515,7 @@
         <v>29</v>
       </c>
       <c r="D1061" s="17">
-        <v>2900</v>
+        <v>1400</v>
       </c>
     </row>
     <row r="1062" spans="1:4" x14ac:dyDescent="0.2">
@@ -13533,7 +13527,7 @@
         <v>29</v>
       </c>
       <c r="D1062" s="17">
-        <v>1400</v>
+        <v>3400</v>
       </c>
     </row>
     <row r="1063" spans="1:4" x14ac:dyDescent="0.2">
@@ -13545,31 +13539,31 @@
         <v>29</v>
       </c>
       <c r="D1063" s="17">
-        <v>1400</v>
-      </c>
-    </row>
-    <row r="1064" spans="1:4" x14ac:dyDescent="0.2">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="1064" spans="1:4" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A1064" s="15"/>
       <c r="B1064" s="16">
         <v>20</v>
       </c>
       <c r="C1064" s="15" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D1064" s="17">
-        <v>3400</v>
-      </c>
-    </row>
-    <row r="1065" spans="1:4" x14ac:dyDescent="0.2">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="1065" spans="1:4" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A1065" s="15"/>
       <c r="B1065" s="16">
         <v>20</v>
       </c>
       <c r="C1065" s="15" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D1065" s="17">
-        <v>2000</v>
+        <v>400</v>
       </c>
     </row>
     <row r="1066" spans="1:4" ht="25.5" x14ac:dyDescent="0.2">
@@ -13581,31 +13575,31 @@
         <v>30</v>
       </c>
       <c r="D1066" s="17">
-        <v>700</v>
-      </c>
-    </row>
-    <row r="1067" spans="1:4" ht="25.5" x14ac:dyDescent="0.2">
+        <v>2900</v>
+      </c>
+    </row>
+    <row r="1067" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1067" s="15"/>
       <c r="B1067" s="16">
         <v>20</v>
       </c>
       <c r="C1067" s="15" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D1067" s="17">
-        <v>400</v>
-      </c>
-    </row>
-    <row r="1068" spans="1:4" ht="25.5" x14ac:dyDescent="0.2">
+        <v>5000</v>
+      </c>
+    </row>
+    <row r="1068" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1068" s="15"/>
       <c r="B1068" s="16">
         <v>20</v>
       </c>
       <c r="C1068" s="15" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D1068" s="17">
-        <v>2900</v>
+        <v>7500</v>
       </c>
     </row>
     <row r="1069" spans="1:4" x14ac:dyDescent="0.2">
@@ -13614,10 +13608,10 @@
         <v>20</v>
       </c>
       <c r="C1069" s="15" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D1069" s="17">
-        <v>5000</v>
+        <v>700</v>
       </c>
     </row>
     <row r="1070" spans="1:4" x14ac:dyDescent="0.2">
@@ -13626,10 +13620,10 @@
         <v>20</v>
       </c>
       <c r="C1070" s="15" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D1070" s="17">
-        <v>7500</v>
+        <v>700</v>
       </c>
     </row>
     <row r="1071" spans="1:4" x14ac:dyDescent="0.2">
@@ -13653,7 +13647,7 @@
         <v>32</v>
       </c>
       <c r="D1072" s="17">
-        <v>700</v>
+        <v>400</v>
       </c>
     </row>
     <row r="1073" spans="1:4" x14ac:dyDescent="0.2">
@@ -13665,7 +13659,7 @@
         <v>32</v>
       </c>
       <c r="D1073" s="17">
-        <v>700</v>
+        <v>1700</v>
       </c>
     </row>
     <row r="1074" spans="1:4" x14ac:dyDescent="0.2">
@@ -13677,7 +13671,7 @@
         <v>32</v>
       </c>
       <c r="D1074" s="17">
-        <v>400</v>
+        <v>700</v>
       </c>
     </row>
     <row r="1075" spans="1:4" x14ac:dyDescent="0.2">
@@ -13689,7 +13683,7 @@
         <v>32</v>
       </c>
       <c r="D1075" s="17">
-        <v>1700</v>
+        <v>700</v>
       </c>
     </row>
     <row r="1076" spans="1:4" x14ac:dyDescent="0.2">
@@ -13698,10 +13692,10 @@
         <v>20</v>
       </c>
       <c r="C1076" s="15" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D1076" s="17">
-        <v>700</v>
+        <v>15000</v>
       </c>
     </row>
     <row r="1077" spans="1:4" x14ac:dyDescent="0.2">
@@ -13710,10 +13704,10 @@
         <v>20</v>
       </c>
       <c r="C1077" s="15" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="D1077" s="17">
-        <v>700</v>
+        <v>20000</v>
       </c>
     </row>
     <row r="1078" spans="1:4" x14ac:dyDescent="0.2">
@@ -13722,10 +13716,10 @@
         <v>20</v>
       </c>
       <c r="C1078" s="15" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D1078" s="17">
-        <v>15000</v>
+        <v>20000</v>
       </c>
     </row>
     <row r="1079" spans="1:4" x14ac:dyDescent="0.2">
@@ -13734,10 +13728,10 @@
         <v>20</v>
       </c>
       <c r="C1079" s="15" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D1079" s="17">
-        <v>20000</v>
+        <v>400</v>
       </c>
     </row>
     <row r="1080" spans="1:4" x14ac:dyDescent="0.2">
@@ -13746,10 +13740,10 @@
         <v>20</v>
       </c>
       <c r="C1080" s="15" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D1080" s="17">
-        <v>20000</v>
+        <v>700</v>
       </c>
     </row>
     <row r="1081" spans="1:4" x14ac:dyDescent="0.2">
@@ -13773,7 +13767,7 @@
         <v>35</v>
       </c>
       <c r="D1082" s="17">
-        <v>700</v>
+        <v>400</v>
       </c>
     </row>
     <row r="1083" spans="1:4" x14ac:dyDescent="0.2">
@@ -13785,7 +13779,7 @@
         <v>35</v>
       </c>
       <c r="D1083" s="17">
-        <v>400</v>
+        <v>700</v>
       </c>
     </row>
     <row r="1084" spans="1:4" x14ac:dyDescent="0.2">
@@ -13797,7 +13791,7 @@
         <v>35</v>
       </c>
       <c r="D1084" s="17">
-        <v>400</v>
+        <v>1700</v>
       </c>
     </row>
     <row r="1085" spans="1:4" x14ac:dyDescent="0.2">
@@ -13809,7 +13803,7 @@
         <v>35</v>
       </c>
       <c r="D1085" s="17">
-        <v>700</v>
+        <v>400</v>
       </c>
     </row>
     <row r="1086" spans="1:4" x14ac:dyDescent="0.2">
@@ -13821,7 +13815,7 @@
         <v>35</v>
       </c>
       <c r="D1086" s="17">
-        <v>1700</v>
+        <v>700</v>
       </c>
     </row>
     <row r="1087" spans="1:4" x14ac:dyDescent="0.2">
@@ -13833,7 +13827,7 @@
         <v>35</v>
       </c>
       <c r="D1087" s="17">
-        <v>400</v>
+        <v>700</v>
       </c>
     </row>
     <row r="1088" spans="1:4" x14ac:dyDescent="0.2">
@@ -13845,7 +13839,7 @@
         <v>35</v>
       </c>
       <c r="D1088" s="17">
-        <v>700</v>
+        <v>400</v>
       </c>
     </row>
     <row r="1089" spans="1:4" x14ac:dyDescent="0.2">
@@ -13854,10 +13848,10 @@
         <v>20</v>
       </c>
       <c r="C1089" s="15" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D1089" s="17">
-        <v>700</v>
+        <v>40000</v>
       </c>
     </row>
     <row r="1090" spans="1:4" x14ac:dyDescent="0.2">
@@ -13866,10 +13860,10 @@
         <v>20</v>
       </c>
       <c r="C1090" s="15" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="D1090" s="17">
-        <v>400</v>
+        <v>200000</v>
       </c>
     </row>
     <row r="1091" spans="1:4" x14ac:dyDescent="0.2">
@@ -13878,10 +13872,10 @@
         <v>20</v>
       </c>
       <c r="C1091" s="15" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="D1091" s="17">
-        <v>40000</v>
+        <v>50000</v>
       </c>
     </row>
     <row r="1092" spans="1:4" x14ac:dyDescent="0.2">
@@ -13890,7 +13884,7 @@
         <v>20</v>
       </c>
       <c r="C1092" s="15" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D1092" s="17">
         <v>200000</v>
@@ -13917,7 +13911,7 @@
         <v>38</v>
       </c>
       <c r="D1094" s="17">
-        <v>200000</v>
+        <v>100000</v>
       </c>
     </row>
     <row r="1095" spans="1:4" x14ac:dyDescent="0.2">
@@ -13929,7 +13923,7 @@
         <v>38</v>
       </c>
       <c r="D1095" s="17">
-        <v>50000</v>
+        <v>100000</v>
       </c>
     </row>
     <row r="1096" spans="1:4" x14ac:dyDescent="0.2">
@@ -13938,10 +13932,10 @@
         <v>20</v>
       </c>
       <c r="C1096" s="15" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D1096" s="17">
-        <v>100000</v>
+        <v>200000</v>
       </c>
     </row>
     <row r="1097" spans="1:4" x14ac:dyDescent="0.2">
@@ -13950,10 +13944,10 @@
         <v>20</v>
       </c>
       <c r="C1097" s="15" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="D1097" s="17">
-        <v>100000</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="1098" spans="1:4" x14ac:dyDescent="0.2">
@@ -13962,10 +13956,10 @@
         <v>20</v>
       </c>
       <c r="C1098" s="15" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D1098" s="17">
-        <v>200000</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="1099" spans="1:4" x14ac:dyDescent="0.2">
@@ -14106,10 +14100,10 @@
         <v>20</v>
       </c>
       <c r="C1110" s="15" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D1110" s="17">
-        <v>1000</v>
+        <v>5000</v>
       </c>
     </row>
     <row r="1111" spans="1:4" x14ac:dyDescent="0.2">
@@ -14118,10 +14112,10 @@
         <v>20</v>
       </c>
       <c r="C1111" s="15" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="D1111" s="17">
-        <v>1000</v>
+        <v>2500</v>
       </c>
     </row>
     <row r="1112" spans="1:4" x14ac:dyDescent="0.2">
@@ -14130,10 +14124,10 @@
         <v>20</v>
       </c>
       <c r="C1112" s="15" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="D1112" s="17">
-        <v>5000</v>
+        <v>500</v>
       </c>
     </row>
     <row r="1113" spans="1:4" x14ac:dyDescent="0.2">
@@ -14142,10 +14136,10 @@
         <v>20</v>
       </c>
       <c r="C1113" s="15" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="D1113" s="17">
-        <v>2500</v>
+        <v>500</v>
       </c>
     </row>
     <row r="1114" spans="1:4" x14ac:dyDescent="0.2">
@@ -14157,7 +14151,7 @@
         <v>43</v>
       </c>
       <c r="D1114" s="17">
-        <v>500</v>
+        <v>400</v>
       </c>
     </row>
     <row r="1115" spans="1:4" x14ac:dyDescent="0.2">
@@ -14166,10 +14160,10 @@
         <v>20</v>
       </c>
       <c r="C1115" s="15" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D1115" s="17">
-        <v>500</v>
+        <v>5000</v>
       </c>
     </row>
     <row r="1116" spans="1:4" x14ac:dyDescent="0.2">
@@ -14178,10 +14172,10 @@
         <v>20</v>
       </c>
       <c r="C1116" s="15" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D1116" s="17">
-        <v>400</v>
+        <v>5000</v>
       </c>
     </row>
     <row r="1117" spans="1:4" x14ac:dyDescent="0.2">
@@ -14193,7 +14187,7 @@
         <v>44</v>
       </c>
       <c r="D1117" s="17">
-        <v>5000</v>
+        <v>6500</v>
       </c>
     </row>
     <row r="1118" spans="1:4" x14ac:dyDescent="0.2">
@@ -14202,40 +14196,16 @@
         <v>20</v>
       </c>
       <c r="C1118" s="15" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D1118" s="17">
-        <v>5000</v>
-      </c>
-    </row>
-    <row r="1119" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A1119" s="15"/>
-      <c r="B1119" s="16">
-        <v>20</v>
-      </c>
-      <c r="C1119" s="15" t="s">
-        <v>44</v>
-      </c>
-      <c r="D1119" s="17">
-        <v>6500</v>
-      </c>
-    </row>
-    <row r="1120" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A1120" s="15"/>
-      <c r="B1120" s="16">
-        <v>20</v>
-      </c>
-      <c r="C1120" s="15" t="s">
-        <v>45</v>
-      </c>
-      <c r="D1120" s="17">
         <v>40000</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="2">
     <mergeCell ref="B1:D1"/>
-    <mergeCell ref="A4:D4"/>
+    <mergeCell ref="A2:D2"/>
   </mergeCells>
   <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.0249999999999999" bottom="1.0249999999999999" header="0.78749999999999998" footer="0.78749999999999998"/>
   <pageSetup paperSize="0" scale="0" orientation="portrait" usePrinterDefaults="0" useFirstPageNumber="1" horizontalDpi="0" verticalDpi="0" copies="0"/>

--- a/src/main/resources/com/wakandaspace/drools_price_model/TariffDecision.xlsx
+++ b/src/main/resources/com/wakandaspace/drools_price_model/TariffDecision.xlsx
@@ -187,7 +187,7 @@
     <t>$benefit : Benefit</t>
   </si>
   <si>
-    <t>getBenefit_group().getName()=="$param"</t>
+    <t>getBenefit_group().getName().equals("$param")</t>
   </si>
 </sst>
 </file>
@@ -776,7 +776,7 @@
   <dimension ref="A1:H1118"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="12.75" outlineLevelRow="1" x14ac:dyDescent="0.2"/>

--- a/src/main/resources/com/wakandaspace/drools_price_model/TariffDecision.xlsx
+++ b/src/main/resources/com/wakandaspace/drools_price_model/TariffDecision.xlsx
@@ -167,9 +167,6 @@
     <t>Declare</t>
   </si>
   <si>
-    <t>getBenefit_group().getName().equals("$param")</t>
-  </si>
-  <si>
     <r>
       <t xml:space="preserve">RuleTable </t>
     </r>
@@ -186,6 +183,9 @@
   </si>
   <si>
     <t>dialect "java"</t>
+  </si>
+  <si>
+    <t>(getBenefit_group().getName()).equals("$param")</t>
   </si>
 </sst>
 </file>
@@ -783,7 +783,7 @@
   <dimension ref="A1:H1119"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:D3"/>
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="12.75" outlineLevelRow="1" x14ac:dyDescent="0.2"/>
@@ -813,14 +813,14 @@
         <v>46</v>
       </c>
       <c r="B2" s="21" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C2" s="21"/>
       <c r="D2" s="22"/>
     </row>
     <row r="3" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="24" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B3" s="25"/>
       <c r="C3" s="25"/>
@@ -855,7 +855,7 @@
       <c r="A6" s="8"/>
       <c r="B6" s="8"/>
       <c r="C6" s="10" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="D6" s="11" t="s">
         <v>6</v>

--- a/src/main/resources/com/wakandaspace/drools_price_model/TariffDecision.xlsx
+++ b/src/main/resources/com/wakandaspace/drools_price_model/TariffDecision.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3356" uniqueCount="329">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3357" uniqueCount="329">
   <si>
     <t>RuleSet</t>
   </si>
@@ -1213,6 +1213,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
+    <xf numFmtId="10" fontId="3" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="3" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -1220,12 +1226,6 @@
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="10" fontId="4" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="10" fontId="3" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="10" fontId="3" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1603,7 +1603,7 @@
   <dimension ref="A1:J1118"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+      <selection activeCell="C4" sqref="C4:D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="12.75" outlineLevelRow="1" x14ac:dyDescent="0.2"/>
@@ -1624,23 +1624,23 @@
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="19" t="s">
+      <c r="B1" s="21" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="19"/>
-      <c r="D1" s="19"/>
-      <c r="E1" s="19"/>
-      <c r="F1" s="19"/>
+      <c r="C1" s="21"/>
+      <c r="D1" s="21"/>
+      <c r="E1" s="21"/>
+      <c r="F1" s="21"/>
     </row>
     <row r="2" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="19" t="s">
+      <c r="A2" s="21" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="19"/>
-      <c r="C2" s="19"/>
-      <c r="D2" s="19"/>
-      <c r="E2" s="19"/>
-      <c r="F2" s="19"/>
+      <c r="B2" s="21"/>
+      <c r="C2" s="21"/>
+      <c r="D2" s="21"/>
+      <c r="E2" s="21"/>
+      <c r="F2" s="21"/>
       <c r="J2" s="5"/>
     </row>
     <row r="3" spans="1:10" ht="14.1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
@@ -1650,10 +1650,12 @@
       <c r="B3" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="C3" s="22" t="s">
+      <c r="C3" s="19" t="s">
         <v>5</v>
       </c>
-      <c r="D3" s="23"/>
+      <c r="D3" s="20" t="s">
+        <v>5</v>
+      </c>
       <c r="E3" s="8" t="s">
         <v>5</v>
       </c>
@@ -1665,10 +1667,10 @@
     <row r="4" spans="1:10" ht="25.5" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A4" s="9"/>
       <c r="B4" s="9"/>
-      <c r="C4" s="20" t="s">
+      <c r="C4" s="22" t="s">
         <v>325</v>
       </c>
-      <c r="D4" s="21"/>
+      <c r="D4" s="23"/>
       <c r="E4" s="10" t="s">
         <v>7</v>
       </c>
@@ -25064,11 +25066,10 @@
       </c>
     </row>
   </sheetData>
-  <mergeCells count="4">
+  <mergeCells count="3">
     <mergeCell ref="B1:F1"/>
     <mergeCell ref="A2:F2"/>
     <mergeCell ref="C4:D4"/>
-    <mergeCell ref="C3:D3"/>
   </mergeCells>
   <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.0249999999999999" bottom="1.0249999999999999" header="0.78749999999999998" footer="0.78749999999999998"/>
   <pageSetup paperSize="0" scale="0" orientation="portrait" usePrinterDefaults="0" useFirstPageNumber="1" horizontalDpi="0" verticalDpi="0" copies="0"/>

--- a/src/main/resources/com/wakandaspace/drools_price_model/TariffDecision.xlsx
+++ b/src/main/resources/com/wakandaspace/drools_price_model/TariffDecision.xlsx
@@ -1213,6 +1213,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
+    <xf numFmtId="10" fontId="4" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="4" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="10" fontId="3" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -1221,12 +1227,6 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="10" fontId="4" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="10" fontId="4" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1603,7 +1603,7 @@
   <dimension ref="A1:J1118"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4:D4"/>
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="12.75" outlineLevelRow="1" x14ac:dyDescent="0.2"/>
@@ -1624,23 +1624,23 @@
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="21" t="s">
+      <c r="B1" s="23" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="21"/>
-      <c r="D1" s="21"/>
-      <c r="E1" s="21"/>
-      <c r="F1" s="21"/>
+      <c r="C1" s="23"/>
+      <c r="D1" s="23"/>
+      <c r="E1" s="23"/>
+      <c r="F1" s="23"/>
     </row>
     <row r="2" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="21" t="s">
+      <c r="A2" s="23" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="21"/>
-      <c r="C2" s="21"/>
-      <c r="D2" s="21"/>
-      <c r="E2" s="21"/>
-      <c r="F2" s="21"/>
+      <c r="B2" s="23"/>
+      <c r="C2" s="23"/>
+      <c r="D2" s="23"/>
+      <c r="E2" s="23"/>
+      <c r="F2" s="23"/>
       <c r="J2" s="5"/>
     </row>
     <row r="3" spans="1:10" ht="14.1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
@@ -1650,10 +1650,10 @@
       <c r="B3" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="C3" s="19" t="s">
+      <c r="C3" s="21" t="s">
         <v>5</v>
       </c>
-      <c r="D3" s="20" t="s">
+      <c r="D3" s="22" t="s">
         <v>5</v>
       </c>
       <c r="E3" s="8" t="s">
@@ -1667,10 +1667,10 @@
     <row r="4" spans="1:10" ht="25.5" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A4" s="9"/>
       <c r="B4" s="9"/>
-      <c r="C4" s="22" t="s">
+      <c r="C4" s="19" t="s">
         <v>325</v>
       </c>
-      <c r="D4" s="23"/>
+      <c r="D4" s="20"/>
       <c r="E4" s="10" t="s">
         <v>7</v>
       </c>
@@ -25066,10 +25066,9 @@
       </c>
     </row>
   </sheetData>
-  <mergeCells count="3">
+  <mergeCells count="2">
     <mergeCell ref="B1:F1"/>
     <mergeCell ref="A2:F2"/>
-    <mergeCell ref="C4:D4"/>
   </mergeCells>
   <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.0249999999999999" bottom="1.0249999999999999" header="0.78749999999999998" footer="0.78749999999999998"/>
   <pageSetup paperSize="0" scale="0" orientation="portrait" usePrinterDefaults="0" useFirstPageNumber="1" horizontalDpi="0" verticalDpi="0" copies="0"/>

--- a/src/main/resources/com/wakandaspace/drools_price_model/TariffDecision.xlsx
+++ b/src/main/resources/com/wakandaspace/drools_price_model/TariffDecision.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="17">
   <si>
     <t>RuleSet</t>
   </si>
@@ -67,6 +67,18 @@
   </si>
   <si>
     <t>$benefit.setCalculationResult($param);</t>
+  </si>
+  <si>
+    <t>GENERAL CONSULTATION</t>
+  </si>
+  <si>
+    <t>Basic outpatient and in-patient Treatment</t>
+  </si>
+  <si>
+    <t>tier1</t>
+  </si>
+  <si>
+    <t>TariffDecision1</t>
   </si>
 </sst>
 </file>
@@ -192,7 +204,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -226,6 +238,15 @@
     </xf>
     <xf numFmtId="10" fontId="5" fillId="3" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -529,13 +550,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:F6"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="19.85546875" customWidth="1"/>
+    <col min="3" max="3" width="20.42578125" customWidth="1"/>
+    <col min="4" max="4" width="29.140625" customWidth="1"/>
+    <col min="5" max="5" width="23.85546875" customWidth="1"/>
+    <col min="6" max="6" width="26.140625" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
@@ -605,6 +633,26 @@
       </c>
       <c r="F5" s="10" t="s">
         <v>12</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" ht="36" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>16</v>
+      </c>
+      <c r="B6" s="13">
+        <v>20</v>
+      </c>
+      <c r="C6" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="D6" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="E6" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="F6" s="14">
+        <v>2000</v>
       </c>
     </row>
   </sheetData>

--- a/src/main/resources/com/wakandaspace/drools_price_model/TariffDecision.xlsx
+++ b/src/main/resources/com/wakandaspace/drools_price_model/TariffDecision.xlsx
@@ -553,11 +553,12 @@
   <dimension ref="A1:F6"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
+    <col min="1" max="1" width="15.7109375" customWidth="1"/>
     <col min="2" max="2" width="19.85546875" customWidth="1"/>
     <col min="3" max="3" width="20.42578125" customWidth="1"/>
     <col min="4" max="4" width="29.140625" customWidth="1"/>

--- a/src/main/resources/com/wakandaspace/drools_price_model/TariffDecision.xlsx
+++ b/src/main/resources/com/wakandaspace/drools_price_model/TariffDecision.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="20">
   <si>
     <t>RuleSet</t>
   </si>
@@ -79,6 +79,15 @@
   </si>
   <si>
     <t>TariffDecision1</t>
+  </si>
+  <si>
+    <t>TariffDecision2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SPECIALIST CONSULTATION </t>
+  </si>
+  <si>
+    <t>Obstetrician</t>
   </si>
 </sst>
 </file>
@@ -204,7 +213,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -218,35 +227,44 @@
     <xf numFmtId="1" fontId="4" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="5" fillId="3" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="5" fillId="3" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="5" fillId="3" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="10" fontId="5" fillId="3" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="10" fontId="5" fillId="3" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="5" fillId="3" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="5" fillId="3" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="10" fontId="5" fillId="3" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -550,10 +568,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:F7"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -570,23 +588,23 @@
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="5" t="s">
+      <c r="B1" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="5"/>
-      <c r="D1" s="5"/>
-      <c r="E1" s="5"/>
-      <c r="F1" s="5"/>
+      <c r="C1" s="15"/>
+      <c r="D1" s="15"/>
+      <c r="E1" s="15"/>
+      <c r="F1" s="15"/>
     </row>
     <row r="2" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A2" s="5" t="s">
+      <c r="A2" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="5"/>
-      <c r="C2" s="5"/>
-      <c r="D2" s="5"/>
-      <c r="E2" s="5"/>
-      <c r="F2" s="5"/>
+      <c r="B2" s="15"/>
+      <c r="C2" s="15"/>
+      <c r="D2" s="15"/>
+      <c r="E2" s="15"/>
+      <c r="F2" s="15"/>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
@@ -609,30 +627,30 @@
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A4" s="7"/>
-      <c r="B4" s="7"/>
-      <c r="C4" s="6" t="s">
+      <c r="A4" s="5"/>
+      <c r="B4" s="5"/>
+      <c r="C4" s="16" t="s">
         <v>7</v>
       </c>
-      <c r="D4" s="11"/>
-      <c r="E4" s="8" t="s">
+      <c r="D4" s="17"/>
+      <c r="E4" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="F4" s="8"/>
+      <c r="F4" s="6"/>
     </row>
     <row r="5" spans="1:6" ht="51.75" x14ac:dyDescent="0.25">
-      <c r="A5" s="7"/>
-      <c r="B5" s="7"/>
-      <c r="C5" s="9" t="s">
+      <c r="A5" s="5"/>
+      <c r="B5" s="5"/>
+      <c r="C5" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="D5" s="9" t="s">
+      <c r="D5" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="E5" s="8" t="s">
+      <c r="E5" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="F5" s="10" t="s">
+      <c r="F5" s="8" t="s">
         <v>12</v>
       </c>
     </row>
@@ -640,20 +658,40 @@
       <c r="A6" t="s">
         <v>16</v>
       </c>
-      <c r="B6" s="13">
+      <c r="B6" s="10">
         <v>20</v>
       </c>
-      <c r="C6" s="12" t="s">
+      <c r="C6" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="D6" s="12" t="s">
+      <c r="D6" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="E6" s="14" t="s">
+      <c r="E6" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="F6" s="14">
+      <c r="F6" s="11">
         <v>2000</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>17</v>
+      </c>
+      <c r="B7" s="13">
+        <v>20</v>
+      </c>
+      <c r="C7" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="D7" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="E7" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="F7" s="14">
+        <v>150000</v>
       </c>
     </row>
   </sheetData>

--- a/src/main/resources/com/wakandaspace/drools_price_model/TariffDecision.xlsx
+++ b/src/main/resources/com/wakandaspace/drools_price_model/TariffDecision.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="24">
   <si>
     <t>RuleSet</t>
   </si>
@@ -88,6 +88,18 @@
   </si>
   <si>
     <t>Obstetrician</t>
+  </si>
+  <si>
+    <t>Gynaecologist</t>
+  </si>
+  <si>
+    <t>Pediatrician</t>
+  </si>
+  <si>
+    <t>TariffDecision3</t>
+  </si>
+  <si>
+    <t>TariffDecision4</t>
   </si>
 </sst>
 </file>
@@ -213,7 +225,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -239,24 +251,6 @@
     <xf numFmtId="1" fontId="5" fillId="3" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -265,6 +259,15 @@
     </xf>
     <xf numFmtId="10" fontId="5" fillId="3" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -568,10 +571,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:F9"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -588,23 +591,23 @@
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="15" t="s">
+      <c r="B1" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="15"/>
-      <c r="D1" s="15"/>
-      <c r="E1" s="15"/>
-      <c r="F1" s="15"/>
+      <c r="C1" s="9"/>
+      <c r="D1" s="9"/>
+      <c r="E1" s="9"/>
+      <c r="F1" s="9"/>
     </row>
     <row r="2" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A2" s="15" t="s">
+      <c r="A2" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="15"/>
-      <c r="C2" s="15"/>
-      <c r="D2" s="15"/>
-      <c r="E2" s="15"/>
-      <c r="F2" s="15"/>
+      <c r="B2" s="9"/>
+      <c r="C2" s="9"/>
+      <c r="D2" s="9"/>
+      <c r="E2" s="9"/>
+      <c r="F2" s="9"/>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
@@ -629,16 +632,16 @@
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="5"/>
       <c r="B4" s="5"/>
-      <c r="C4" s="16" t="s">
+      <c r="C4" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="D4" s="17"/>
+      <c r="D4" s="11"/>
       <c r="E4" s="6" t="s">
         <v>8</v>
       </c>
       <c r="F4" s="6"/>
     </row>
-    <row r="5" spans="1:6" ht="51.75" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A5" s="5"/>
       <c r="B5" s="5"/>
       <c r="C5" s="7" t="s">
@@ -654,37 +657,37 @@
         <v>12</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="36" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>16</v>
       </c>
-      <c r="B6" s="10">
+      <c r="B6" s="12">
         <v>20</v>
       </c>
-      <c r="C6" s="9" t="s">
+      <c r="C6" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="D6" s="9" t="s">
+      <c r="D6" s="13" t="s">
         <v>14</v>
       </c>
-      <c r="E6" s="11" t="s">
+      <c r="E6" s="14" t="s">
         <v>15</v>
       </c>
-      <c r="F6" s="11">
+      <c r="F6" s="14">
         <v>2000</v>
       </c>
     </row>
-    <row r="7" spans="1:6" ht="26.25" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>17</v>
       </c>
-      <c r="B7" s="13">
+      <c r="B7" s="12">
         <v>20</v>
       </c>
-      <c r="C7" s="12" t="s">
+      <c r="C7" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="D7" s="12" t="s">
+      <c r="D7" s="13" t="s">
         <v>19</v>
       </c>
       <c r="E7" s="14" t="s">
@@ -692,6 +695,46 @@
       </c>
       <c r="F7" s="14">
         <v>150000</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>22</v>
+      </c>
+      <c r="B8" s="12">
+        <v>20</v>
+      </c>
+      <c r="C8" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="D8" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="E8" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="F8" s="14">
+        <v>150000</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>23</v>
+      </c>
+      <c r="B9" s="12">
+        <v>20</v>
+      </c>
+      <c r="C9" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="D9" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="E9" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="F9" s="14">
+        <v>15000</v>
       </c>
     </row>
   </sheetData>

--- a/src/main/resources/com/wakandaspace/drools_price_model/TariffDecision.xlsx
+++ b/src/main/resources/com/wakandaspace/drools_price_model/TariffDecision.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="21">
   <si>
     <t>RuleSet</t>
   </si>
@@ -69,16 +69,7 @@
     <t>$benefit.setCalculationResult($param);</t>
   </si>
   <si>
-    <t>GENERAL CONSULTATION</t>
-  </si>
-  <si>
-    <t>Basic outpatient and in-patient Treatment</t>
-  </si>
-  <si>
     <t>tier1</t>
-  </si>
-  <si>
-    <t>TariffDecision1</t>
   </si>
   <si>
     <t>TariffDecision2</t>
@@ -571,10 +562,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F9"/>
+  <dimension ref="A1:F8"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+      <selection activeCell="A6" sqref="A6:XFD6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -657,41 +648,41 @@
         <v>12</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B6" s="12">
         <v>20</v>
       </c>
       <c r="C6" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="D6" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="E6" s="14" t="s">
         <v>13</v>
       </c>
-      <c r="D6" s="13" t="s">
-        <v>14</v>
-      </c>
-      <c r="E6" s="14" t="s">
-        <v>15</v>
-      </c>
       <c r="F6" s="14">
-        <v>2000</v>
+        <v>150000</v>
       </c>
     </row>
     <row r="7" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B7" s="12">
         <v>20</v>
       </c>
       <c r="C7" s="13" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="D7" s="13" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="E7" s="14" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="F7" s="14">
         <v>150000</v>
@@ -699,41 +690,21 @@
     </row>
     <row r="8" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B8" s="12">
         <v>20</v>
       </c>
       <c r="C8" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="D8" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="D8" s="13" t="s">
-        <v>20</v>
-      </c>
       <c r="E8" s="14" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="F8" s="14">
-        <v>150000</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>23</v>
-      </c>
-      <c r="B9" s="12">
-        <v>20</v>
-      </c>
-      <c r="C9" s="13" t="s">
-        <v>18</v>
-      </c>
-      <c r="D9" s="13" t="s">
-        <v>21</v>
-      </c>
-      <c r="E9" s="14" t="s">
-        <v>15</v>
-      </c>
-      <c r="F9" s="14">
         <v>15000</v>
       </c>
     </row>

--- a/src/main/resources/com/wakandaspace/drools_price_model/TariffDecision.xlsx
+++ b/src/main/resources/com/wakandaspace/drools_price_model/TariffDecision.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="23">
   <si>
     <t>RuleSet</t>
   </si>
@@ -72,15 +72,9 @@
     <t>tier1</t>
   </si>
   <si>
-    <t>TariffDecision2</t>
-  </si>
-  <si>
     <t xml:space="preserve">SPECIALIST CONSULTATION </t>
   </si>
   <si>
-    <t>Obstetrician</t>
-  </si>
-  <si>
     <t>Gynaecologist</t>
   </si>
   <si>
@@ -91,13 +85,25 @@
   </si>
   <si>
     <t>TariffDecision4</t>
+  </si>
+  <si>
+    <t>Benefit group</t>
+  </si>
+  <si>
+    <t>Benefit</t>
+  </si>
+  <si>
+    <t>HospitalTier</t>
+  </si>
+  <si>
+    <t>CalculationResult</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -141,8 +147,16 @@
       <family val="2"/>
       <charset val="1"/>
     </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -161,6 +175,12 @@
         <bgColor rgb="FFFFFFCC"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFB2B2B2"/>
+        <bgColor rgb="FF969696"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="4">
     <border>
@@ -216,7 +236,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -259,6 +279,15 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="6" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="6" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -564,8 +593,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F8"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6:XFD6"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="A6" sqref="A6:F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -648,38 +677,38 @@
         <v>12</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>14</v>
-      </c>
-      <c r="B6" s="12">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6" s="15" t="s">
+        <v>3</v>
+      </c>
+      <c r="B6" s="16" t="s">
+        <v>4</v>
+      </c>
+      <c r="C6" s="16" t="s">
+        <v>19</v>
+      </c>
+      <c r="D6" s="16" t="s">
         <v>20</v>
       </c>
-      <c r="C6" s="13" t="s">
-        <v>15</v>
-      </c>
-      <c r="D6" s="13" t="s">
-        <v>16</v>
-      </c>
-      <c r="E6" s="14" t="s">
-        <v>13</v>
-      </c>
-      <c r="F6" s="14">
-        <v>150000</v>
+      <c r="E6" s="17" t="s">
+        <v>21</v>
+      </c>
+      <c r="F6" s="17" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="7" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B7" s="12">
         <v>20</v>
       </c>
       <c r="C7" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="D7" s="13" t="s">
         <v>15</v>
-      </c>
-      <c r="D7" s="13" t="s">
-        <v>17</v>
       </c>
       <c r="E7" s="14" t="s">
         <v>13</v>
@@ -690,16 +719,16 @@
     </row>
     <row r="8" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B8" s="12">
         <v>20</v>
       </c>
       <c r="C8" s="13" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D8" s="13" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="E8" s="14" t="s">
         <v>13</v>

--- a/src/main/resources/com/wakandaspace/drools_price_model/TariffDecision.xlsx
+++ b/src/main/resources/com/wakandaspace/drools_price_model/TariffDecision.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="21">
   <si>
     <t>RuleSet</t>
   </si>
@@ -79,12 +79,6 @@
   </si>
   <si>
     <t>Pediatrician</t>
-  </si>
-  <si>
-    <t>TariffDecision3</t>
-  </si>
-  <si>
-    <t>TariffDecision4</t>
   </si>
   <si>
     <t>Benefit group</t>
@@ -594,12 +588,12 @@
   <dimension ref="A1:F8"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6:F6"/>
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="15.7109375" customWidth="1"/>
+    <col min="1" max="1" width="27.5703125" customWidth="1"/>
     <col min="2" max="2" width="19.85546875" customWidth="1"/>
     <col min="3" max="3" width="20.42578125" customWidth="1"/>
     <col min="4" max="4" width="29.140625" customWidth="1"/>
@@ -685,21 +679,22 @@
         <v>4</v>
       </c>
       <c r="C6" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="D6" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="E6" s="17" t="s">
         <v>19</v>
       </c>
-      <c r="D6" s="16" t="s">
+      <c r="F6" s="17" t="s">
         <v>20</v>
       </c>
-      <c r="E6" s="17" t="s">
-        <v>21</v>
-      </c>
-      <c r="F6" s="17" t="s">
-        <v>22</v>
-      </c>
     </row>
-    <row r="7" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>17</v>
+    <row r="7" spans="1:6" ht="90" x14ac:dyDescent="0.25">
+      <c r="A7" s="13" t="str">
+        <f>CONCATENATE("Tariff ",C7,D7,"-",E7)</f>
+        <v>Tariff SPECIALIST CONSULTATION Gynaecologist-tier1</v>
       </c>
       <c r="B7" s="12">
         <v>20</v>
@@ -717,9 +712,10 @@
         <v>150000</v>
       </c>
     </row>
-    <row r="8" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>18</v>
+    <row r="8" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="A8" s="13" t="str">
+        <f>CONCATENATE("Tariff ",C8,D8,"-",E8)</f>
+        <v>Tariff SPECIALIST CONSULTATION Pediatrician-tier1</v>
       </c>
       <c r="B8" s="12">
         <v>20</v>

--- a/src/main/resources/com/wakandaspace/drools_price_model/TariffDecision.xlsx
+++ b/src/main/resources/com/wakandaspace/drools_price_model/TariffDecision.xlsx
@@ -11,12 +11,15 @@
     <sheet name="Feuil2" sheetId="2" r:id="rId2"/>
     <sheet name="Feuil3" sheetId="3" r:id="rId3"/>
   </sheets>
+  <externalReferences>
+    <externalReference r:id="rId4"/>
+  </externalReferences>
   <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="903" uniqueCount="327">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1503" uniqueCount="327">
   <si>
     <t>RuleSet</t>
   </si>
@@ -1214,6 +1217,2220 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <sheetNames>
+      <sheetName val="Tariff"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0">
+        <row r="301">
+          <cell r="C301" t="str">
+            <v xml:space="preserve">SPECIALIST CONSULTATION </v>
+          </cell>
+          <cell r="D301" t="str">
+            <v xml:space="preserve">Dermatologist </v>
+          </cell>
+          <cell r="E301" t="str">
+            <v>tier2</v>
+          </cell>
+        </row>
+        <row r="302">
+          <cell r="C302" t="str">
+            <v xml:space="preserve">SPECIALIST CONSULTATION </v>
+          </cell>
+          <cell r="D302" t="str">
+            <v>Haematologist</v>
+          </cell>
+          <cell r="E302" t="str">
+            <v>tier2</v>
+          </cell>
+        </row>
+        <row r="303">
+          <cell r="C303" t="str">
+            <v xml:space="preserve">SPECIALIST CONSULTATION </v>
+          </cell>
+          <cell r="D303" t="str">
+            <v xml:space="preserve">Dietician/Nutritionist </v>
+          </cell>
+          <cell r="E303" t="str">
+            <v>tier2</v>
+          </cell>
+        </row>
+        <row r="304">
+          <cell r="C304" t="str">
+            <v xml:space="preserve">SPECIALIST CONSULTATION </v>
+          </cell>
+          <cell r="D304" t="str">
+            <v>Pulmonologist/Respiratory Physician</v>
+          </cell>
+          <cell r="E304" t="str">
+            <v>tier2</v>
+          </cell>
+        </row>
+        <row r="305">
+          <cell r="C305" t="str">
+            <v xml:space="preserve">SPECIALIST CONSULTATION </v>
+          </cell>
+          <cell r="D305" t="str">
+            <v xml:space="preserve">Hematologist </v>
+          </cell>
+          <cell r="E305" t="str">
+            <v>tier2</v>
+          </cell>
+        </row>
+        <row r="306">
+          <cell r="C306" t="str">
+            <v xml:space="preserve">SPECIALIST CONSULTATION </v>
+          </cell>
+          <cell r="D306" t="str">
+            <v xml:space="preserve">Oncologist </v>
+          </cell>
+          <cell r="E306" t="str">
+            <v>tier2</v>
+          </cell>
+        </row>
+        <row r="307">
+          <cell r="C307" t="str">
+            <v xml:space="preserve">SPECIALIST CONSULTATION </v>
+          </cell>
+          <cell r="D307" t="str">
+            <v xml:space="preserve">Pathologist </v>
+          </cell>
+          <cell r="E307" t="str">
+            <v>tier2</v>
+          </cell>
+        </row>
+        <row r="308">
+          <cell r="C308" t="str">
+            <v xml:space="preserve">SPECIALIST CONSULTATION </v>
+          </cell>
+          <cell r="D308" t="str">
+            <v xml:space="preserve">Endocrinologist </v>
+          </cell>
+          <cell r="E308" t="str">
+            <v>tier2</v>
+          </cell>
+        </row>
+        <row r="309">
+          <cell r="C309" t="str">
+            <v xml:space="preserve">SPECIALIST CONSULTATION </v>
+          </cell>
+          <cell r="D309" t="str">
+            <v>Family Physician</v>
+          </cell>
+          <cell r="E309" t="str">
+            <v>tier2</v>
+          </cell>
+        </row>
+        <row r="310">
+          <cell r="C310" t="str">
+            <v xml:space="preserve">SPECIALIST CONSULTATION </v>
+          </cell>
+          <cell r="D310" t="str">
+            <v>Oral and Maxillofacial Surgeon</v>
+          </cell>
+          <cell r="E310" t="str">
+            <v>tier2</v>
+          </cell>
+        </row>
+        <row r="311">
+          <cell r="C311" t="str">
+            <v xml:space="preserve">ACCESS TO FREE TELEMEDICINE APP </v>
+          </cell>
+          <cell r="D311" t="str">
+            <v>Chat - certified Doctors during medical emergency</v>
+          </cell>
+          <cell r="E311" t="str">
+            <v>tier2</v>
+          </cell>
+        </row>
+        <row r="312">
+          <cell r="C312" t="str">
+            <v xml:space="preserve">ACCESS TO FREE TELEMEDICINE APP </v>
+          </cell>
+          <cell r="D312" t="str">
+            <v>Chat - certified Doctors for medical Information</v>
+          </cell>
+          <cell r="E312" t="str">
+            <v>tier2</v>
+          </cell>
+        </row>
+        <row r="313">
+          <cell r="C313" t="str">
+            <v xml:space="preserve">ACCESS TO FREE TELEMEDICINE APP </v>
+          </cell>
+          <cell r="D313" t="str">
+            <v>Free drug Pick-up at designated Pharmacies</v>
+          </cell>
+          <cell r="E313" t="str">
+            <v>tier2</v>
+          </cell>
+        </row>
+        <row r="314">
+          <cell r="C314" t="str">
+            <v xml:space="preserve">ACCESS TO FREE TELEMEDICINE APP </v>
+          </cell>
+          <cell r="D314" t="str">
+            <v>GPS-enabled access to hospital directories</v>
+          </cell>
+          <cell r="E314" t="str">
+            <v>tier2</v>
+          </cell>
+        </row>
+        <row r="315">
+          <cell r="C315" t="str">
+            <v xml:space="preserve">ACCESS TO FREE TELEMEDICINE APP </v>
+          </cell>
+          <cell r="D315" t="str">
+            <v>Telemedicine app with details of covered benefits</v>
+          </cell>
+          <cell r="E315" t="str">
+            <v>tier2</v>
+          </cell>
+        </row>
+        <row r="316">
+          <cell r="C316" t="str">
+            <v>ACCIDENT AND EMERGENCY CARE</v>
+          </cell>
+          <cell r="D316" t="str">
+            <v>Resuscitative care needed to stabilize patient</v>
+          </cell>
+          <cell r="E316" t="str">
+            <v>tier2</v>
+          </cell>
+        </row>
+        <row r="317">
+          <cell r="C317" t="str">
+            <v>BASIC DIAGNOSTIC IMAGING</v>
+          </cell>
+          <cell r="D317" t="str">
+            <v>Chest X-Rays</v>
+          </cell>
+          <cell r="E317" t="str">
+            <v>tier2</v>
+          </cell>
+        </row>
+        <row r="318">
+          <cell r="C318" t="str">
+            <v>BASIC DIAGNOSTIC IMAGING</v>
+          </cell>
+          <cell r="D318" t="str">
+            <v>Abdominal X-Rays</v>
+          </cell>
+          <cell r="E318" t="str">
+            <v>tier2</v>
+          </cell>
+        </row>
+        <row r="319">
+          <cell r="C319" t="str">
+            <v>BASIC DIAGNOSTIC IMAGING</v>
+          </cell>
+          <cell r="D319" t="str">
+            <v>Limbs X-rays</v>
+          </cell>
+          <cell r="E319" t="str">
+            <v>tier2</v>
+          </cell>
+        </row>
+        <row r="320">
+          <cell r="C320" t="str">
+            <v>BASIC DIAGNOSTIC IMAGING</v>
+          </cell>
+          <cell r="D320" t="str">
+            <v>Neck X-rays</v>
+          </cell>
+          <cell r="E320" t="str">
+            <v>tier2</v>
+          </cell>
+        </row>
+        <row r="321">
+          <cell r="C321" t="str">
+            <v>BASIC DIAGNOSTIC IMAGING</v>
+          </cell>
+          <cell r="D321" t="str">
+            <v>Sinus X-rays</v>
+          </cell>
+          <cell r="E321" t="str">
+            <v>tier2</v>
+          </cell>
+        </row>
+        <row r="322">
+          <cell r="C322" t="str">
+            <v>BASIC DIAGNOSTIC IMAGING</v>
+          </cell>
+          <cell r="D322" t="str">
+            <v>Mastoid X-rays</v>
+          </cell>
+          <cell r="E322" t="str">
+            <v>tier2</v>
+          </cell>
+        </row>
+        <row r="323">
+          <cell r="C323" t="str">
+            <v>BASIC DIAGNOSTIC IMAGING</v>
+          </cell>
+          <cell r="D323" t="str">
+            <v>Cervical Spine X-rays</v>
+          </cell>
+          <cell r="E323" t="str">
+            <v>tier2</v>
+          </cell>
+        </row>
+        <row r="324">
+          <cell r="C324" t="str">
+            <v>BASIC DIAGNOSTIC IMAGING</v>
+          </cell>
+          <cell r="D324" t="str">
+            <v>Skull X-rays</v>
+          </cell>
+          <cell r="E324" t="str">
+            <v>tier2</v>
+          </cell>
+        </row>
+        <row r="325">
+          <cell r="C325" t="str">
+            <v>BASIC DIAGNOSTIC IMAGING</v>
+          </cell>
+          <cell r="D325" t="str">
+            <v>Pelvic X-rays</v>
+          </cell>
+          <cell r="E325" t="str">
+            <v>tier2</v>
+          </cell>
+        </row>
+        <row r="326">
+          <cell r="C326" t="str">
+            <v>BASIC DIAGNOSTIC IMAGING</v>
+          </cell>
+          <cell r="D326" t="str">
+            <v>Thoracic Inlet X-rays</v>
+          </cell>
+          <cell r="E326" t="str">
+            <v>tier2</v>
+          </cell>
+        </row>
+        <row r="327">
+          <cell r="C327" t="str">
+            <v>BASIC DIAGNOSTIC IMAGING</v>
+          </cell>
+          <cell r="D327" t="str">
+            <v>Thoraco-Lumbar X-rays</v>
+          </cell>
+          <cell r="E327" t="str">
+            <v>tier2</v>
+          </cell>
+        </row>
+        <row r="328">
+          <cell r="C328" t="str">
+            <v>BASIC DIAGNOSTIC IMAGING</v>
+          </cell>
+          <cell r="D328" t="str">
+            <v>Lumbosacral X-Rays</v>
+          </cell>
+          <cell r="E328" t="str">
+            <v>tier2</v>
+          </cell>
+        </row>
+        <row r="329">
+          <cell r="C329" t="str">
+            <v>BASIC DIAGNOSTIC IMAGING</v>
+          </cell>
+          <cell r="D329" t="str">
+            <v>Mandibles/Temporomandibular Joint X-Rays</v>
+          </cell>
+          <cell r="E329" t="str">
+            <v>tier2</v>
+          </cell>
+        </row>
+        <row r="330">
+          <cell r="C330" t="str">
+            <v>BASIC DIAGNOSTIC IMAGING</v>
+          </cell>
+          <cell r="D330" t="str">
+            <v>X-rays of All Body Joints</v>
+          </cell>
+          <cell r="E330" t="str">
+            <v>tier2</v>
+          </cell>
+        </row>
+        <row r="331">
+          <cell r="C331" t="str">
+            <v>BASIC DIAGNOSTIC IMAGING</v>
+          </cell>
+          <cell r="D331" t="str">
+            <v>Ultrasound Scan</v>
+          </cell>
+          <cell r="E331" t="str">
+            <v>tier2</v>
+          </cell>
+        </row>
+        <row r="332">
+          <cell r="C332" t="str">
+            <v>ADVANCED DIAGNOSTIC IMAGING</v>
+          </cell>
+          <cell r="D332" t="str">
+            <v>Doppler Ultrasound Scan</v>
+          </cell>
+          <cell r="E332" t="str">
+            <v>tier2</v>
+          </cell>
+        </row>
+        <row r="333">
+          <cell r="C333" t="str">
+            <v>ADVANCED DIAGNOSTIC IMAGING</v>
+          </cell>
+          <cell r="D333" t="str">
+            <v>ECG (PRE AND POST EXERCISE)</v>
+          </cell>
+          <cell r="E333" t="str">
+            <v>tier2</v>
+          </cell>
+        </row>
+        <row r="334">
+          <cell r="C334" t="str">
+            <v>ADVANCED DIAGNOSTIC IMAGING</v>
+          </cell>
+          <cell r="D334" t="str">
+            <v>CT Scan</v>
+          </cell>
+          <cell r="E334" t="str">
+            <v>tier2</v>
+          </cell>
+        </row>
+        <row r="335">
+          <cell r="C335" t="str">
+            <v>ADVANCED DIAGNOSTIC IMAGING</v>
+          </cell>
+          <cell r="D335" t="str">
+            <v>MRI</v>
+          </cell>
+          <cell r="E335" t="str">
+            <v>tier2</v>
+          </cell>
+        </row>
+        <row r="336">
+          <cell r="C336" t="str">
+            <v>ADVANCED DIAGNOSTIC IMAGING</v>
+          </cell>
+          <cell r="D336" t="str">
+            <v>Echocardiography</v>
+          </cell>
+          <cell r="E336" t="str">
+            <v>tier2</v>
+          </cell>
+        </row>
+        <row r="337">
+          <cell r="C337" t="str">
+            <v>ADVANCED DIAGNOSTIC IMAGING</v>
+          </cell>
+          <cell r="D337" t="str">
+            <v>Proctoscopy</v>
+          </cell>
+          <cell r="E337" t="str">
+            <v>tier2</v>
+          </cell>
+        </row>
+        <row r="338">
+          <cell r="C338" t="str">
+            <v>ADVANCED DIAGNOSTIC IMAGING</v>
+          </cell>
+          <cell r="D338" t="str">
+            <v>Sigmoidoscopy</v>
+          </cell>
+          <cell r="E338" t="str">
+            <v>tier2</v>
+          </cell>
+        </row>
+        <row r="339">
+          <cell r="C339" t="str">
+            <v>ADVANCED DIAGNOSTIC IMAGING</v>
+          </cell>
+          <cell r="D339" t="str">
+            <v>Upper GI Endoscopy</v>
+          </cell>
+          <cell r="E339" t="str">
+            <v>tier2</v>
+          </cell>
+        </row>
+        <row r="340">
+          <cell r="C340" t="str">
+            <v>ADVANCED DIAGNOSTIC IMAGING</v>
+          </cell>
+          <cell r="D340" t="str">
+            <v>Endoscopic Ultrasound</v>
+          </cell>
+          <cell r="E340" t="str">
+            <v>tier2</v>
+          </cell>
+        </row>
+        <row r="341">
+          <cell r="C341" t="str">
+            <v>ADVANCED DIAGNOSTIC IMAGING</v>
+          </cell>
+          <cell r="D341" t="str">
+            <v>Endoscopic retrograde cholangiopancreatography</v>
+          </cell>
+          <cell r="E341" t="str">
+            <v>tier2</v>
+          </cell>
+        </row>
+        <row r="342">
+          <cell r="C342" t="str">
+            <v>ADVANCED DIAGNOSTIC IMAGING</v>
+          </cell>
+          <cell r="D342" t="str">
+            <v>Enteroscopy</v>
+          </cell>
+          <cell r="E342" t="str">
+            <v>tier2</v>
+          </cell>
+        </row>
+        <row r="343">
+          <cell r="C343" t="str">
+            <v>ADVANCED DIAGNOSTIC IMAGING</v>
+          </cell>
+          <cell r="D343" t="str">
+            <v>Gastroscopy</v>
+          </cell>
+          <cell r="E343" t="str">
+            <v>tier2</v>
+          </cell>
+        </row>
+        <row r="344">
+          <cell r="C344" t="str">
+            <v>ADVANCED DIAGNOSTIC IMAGING</v>
+          </cell>
+          <cell r="D344" t="str">
+            <v>Colonoscopy</v>
+          </cell>
+          <cell r="E344" t="str">
+            <v>tier2</v>
+          </cell>
+        </row>
+        <row r="345">
+          <cell r="C345" t="str">
+            <v>ADVANCED DIAGNOSTIC IMAGING</v>
+          </cell>
+          <cell r="D345" t="str">
+            <v>Laryngoscopy (Direct and Indirect)</v>
+          </cell>
+          <cell r="E345" t="str">
+            <v>tier2</v>
+          </cell>
+        </row>
+        <row r="346">
+          <cell r="C346" t="str">
+            <v>ADVANCED DIAGNOSTIC IMAGING</v>
+          </cell>
+          <cell r="D346" t="str">
+            <v>Bronchoscopy</v>
+          </cell>
+          <cell r="E346" t="str">
+            <v>tier2</v>
+          </cell>
+        </row>
+        <row r="347">
+          <cell r="C347" t="str">
+            <v>ADVANCED DIAGNOSTIC IMAGING</v>
+          </cell>
+          <cell r="D347" t="str">
+            <v>Thoracoscopy</v>
+          </cell>
+          <cell r="E347" t="str">
+            <v>tier2</v>
+          </cell>
+        </row>
+        <row r="348">
+          <cell r="C348" t="str">
+            <v>ADVANCED DIAGNOSTIC IMAGING</v>
+          </cell>
+          <cell r="D348" t="str">
+            <v>Hysteroscopy</v>
+          </cell>
+          <cell r="E348" t="str">
+            <v>tier2</v>
+          </cell>
+        </row>
+        <row r="349">
+          <cell r="C349" t="str">
+            <v>ADVANCED DIAGNOSTIC IMAGING</v>
+          </cell>
+          <cell r="D349" t="str">
+            <v>Cystoscopy</v>
+          </cell>
+          <cell r="E349" t="str">
+            <v>tier2</v>
+          </cell>
+        </row>
+        <row r="350">
+          <cell r="C350" t="str">
+            <v>ADVANCED DIAGNOSTIC IMAGING</v>
+          </cell>
+          <cell r="D350" t="str">
+            <v>Laparoscopy</v>
+          </cell>
+          <cell r="E350" t="str">
+            <v>tier2</v>
+          </cell>
+        </row>
+        <row r="351">
+          <cell r="C351" t="str">
+            <v>ADVANCED DIAGNOSTIC IMAGING</v>
+          </cell>
+          <cell r="D351" t="str">
+            <v>Arthroscopy</v>
+          </cell>
+          <cell r="E351" t="str">
+            <v>tier2</v>
+          </cell>
+        </row>
+        <row r="352">
+          <cell r="C352" t="str">
+            <v>HEMATOLOGICAL TESTS</v>
+          </cell>
+          <cell r="D352" t="str">
+            <v>Hemoglobin (HB)</v>
+          </cell>
+          <cell r="E352" t="str">
+            <v>tier2</v>
+          </cell>
+        </row>
+        <row r="353">
+          <cell r="C353" t="str">
+            <v>HEMATOLOGICAL TESTS</v>
+          </cell>
+          <cell r="D353" t="str">
+            <v>Packed Cell Volume (PCV)</v>
+          </cell>
+          <cell r="E353" t="str">
+            <v>tier2</v>
+          </cell>
+        </row>
+        <row r="354">
+          <cell r="C354" t="str">
+            <v>HEMATOLOGICAL TESTS</v>
+          </cell>
+          <cell r="D354" t="str">
+            <v>White cell count (Total and Differential)</v>
+          </cell>
+          <cell r="E354" t="str">
+            <v>tier2</v>
+          </cell>
+        </row>
+        <row r="355">
+          <cell r="C355" t="str">
+            <v>HEMATOLOGICAL TESTS</v>
+          </cell>
+          <cell r="D355" t="str">
+            <v>Full Blood Count and differentials (FBC)</v>
+          </cell>
+          <cell r="E355" t="str">
+            <v>tier2</v>
+          </cell>
+        </row>
+        <row r="356">
+          <cell r="C356" t="str">
+            <v>HEMATOLOGICAL TESTS</v>
+          </cell>
+          <cell r="D356" t="str">
+            <v>White Blood Cell count</v>
+          </cell>
+          <cell r="E356" t="str">
+            <v>tier2</v>
+          </cell>
+        </row>
+        <row r="357">
+          <cell r="C357" t="str">
+            <v>HEMATOLOGICAL TESTS</v>
+          </cell>
+          <cell r="D357" t="str">
+            <v>Red Blood Cell/Reticulocyte count</v>
+          </cell>
+          <cell r="E357" t="str">
+            <v>tier2</v>
+          </cell>
+        </row>
+        <row r="358">
+          <cell r="C358" t="str">
+            <v>HEMATOLOGICAL TESTS</v>
+          </cell>
+          <cell r="D358" t="str">
+            <v>Grouping and Cross Matching</v>
+          </cell>
+          <cell r="E358" t="str">
+            <v>tier2</v>
+          </cell>
+        </row>
+        <row r="359">
+          <cell r="C359" t="str">
+            <v>HEMATOLOGICAL TESTS</v>
+          </cell>
+          <cell r="D359" t="str">
+            <v>Genotype (on request by clinician)</v>
+          </cell>
+          <cell r="E359" t="str">
+            <v>tier2</v>
+          </cell>
+        </row>
+        <row r="360">
+          <cell r="C360" t="str">
+            <v>HEMATOLOGICAL TESTS</v>
+          </cell>
+          <cell r="D360" t="str">
+            <v>Blood group (on request by clinician)</v>
+          </cell>
+          <cell r="E360" t="str">
+            <v>tier2</v>
+          </cell>
+        </row>
+        <row r="361">
+          <cell r="C361" t="str">
+            <v>HEMATOLOGICAL TESTS</v>
+          </cell>
+          <cell r="D361" t="str">
+            <v>Erythrocyte Sedimentation Rate (ESR)</v>
+          </cell>
+          <cell r="E361" t="str">
+            <v>tier2</v>
+          </cell>
+        </row>
+        <row r="362">
+          <cell r="C362" t="str">
+            <v>HEMATOLOGICAL TESTS</v>
+          </cell>
+          <cell r="D362" t="str">
+            <v>MCHC</v>
+          </cell>
+          <cell r="E362" t="str">
+            <v>tier2</v>
+          </cell>
+        </row>
+        <row r="363">
+          <cell r="C363" t="str">
+            <v>HEMATOLOGICAL TESTS</v>
+          </cell>
+          <cell r="D363" t="str">
+            <v>MCH</v>
+          </cell>
+          <cell r="E363" t="str">
+            <v>tier2</v>
+          </cell>
+        </row>
+        <row r="364">
+          <cell r="C364" t="str">
+            <v>HEMATOLOGICAL TESTS</v>
+          </cell>
+          <cell r="D364" t="str">
+            <v>MCV</v>
+          </cell>
+          <cell r="E364" t="str">
+            <v>tier2</v>
+          </cell>
+        </row>
+        <row r="365">
+          <cell r="C365" t="str">
+            <v>HEMATOLOGICAL TESTS</v>
+          </cell>
+          <cell r="D365" t="str">
+            <v>Blood Film</v>
+          </cell>
+          <cell r="E365" t="str">
+            <v>tier2</v>
+          </cell>
+        </row>
+        <row r="366">
+          <cell r="C366" t="str">
+            <v>HEMATOLOGICAL TESTS</v>
+          </cell>
+          <cell r="D366" t="str">
+            <v>Blood Pregnancy (Beta HCG) Test</v>
+          </cell>
+          <cell r="E366" t="str">
+            <v>tier2</v>
+          </cell>
+        </row>
+        <row r="367">
+          <cell r="C367" t="str">
+            <v>CHEMISTRY INVESTIGATIONS</v>
+          </cell>
+          <cell r="D367" t="str">
+            <v>Fasting Blood Sugar</v>
+          </cell>
+          <cell r="E367" t="str">
+            <v>tier2</v>
+          </cell>
+        </row>
+        <row r="368">
+          <cell r="C368" t="str">
+            <v>CHEMISTRY INVESTIGATIONS</v>
+          </cell>
+          <cell r="D368" t="str">
+            <v>Random Blood Sugar</v>
+          </cell>
+          <cell r="E368" t="str">
+            <v>tier2</v>
+          </cell>
+        </row>
+        <row r="369">
+          <cell r="C369" t="str">
+            <v>CHEMISTRY INVESTIGATIONS</v>
+          </cell>
+          <cell r="D369" t="str">
+            <v>2 Hours Post-prandial Blood Sugar</v>
+          </cell>
+          <cell r="E369" t="str">
+            <v>tier2</v>
+          </cell>
+        </row>
+        <row r="370">
+          <cell r="C370" t="str">
+            <v>CHEMISTRY INVESTIGATIONS</v>
+          </cell>
+          <cell r="D370" t="str">
+            <v>Oral Glucose Tolerance Test (OGTT)</v>
+          </cell>
+          <cell r="E370" t="str">
+            <v>tier2</v>
+          </cell>
+        </row>
+        <row r="371">
+          <cell r="C371" t="str">
+            <v>CHEMISTRY INVESTIGATIONS</v>
+          </cell>
+          <cell r="D371" t="str">
+            <v>Glucose Challenge Test</v>
+          </cell>
+          <cell r="E371" t="str">
+            <v>tier2</v>
+          </cell>
+        </row>
+        <row r="372">
+          <cell r="C372" t="str">
+            <v>CHEMISTRY INVESTIGATIONS</v>
+          </cell>
+          <cell r="D372" t="str">
+            <v>Electrolytes, Urea and Creatinine</v>
+          </cell>
+          <cell r="E372" t="str">
+            <v>tier2</v>
+          </cell>
+        </row>
+        <row r="373">
+          <cell r="C373" t="str">
+            <v>CHEMISTRY INVESTIGATIONS</v>
+          </cell>
+          <cell r="D373" t="str">
+            <v>Lipid Profile (Fasting) (HDL, LDL, Triglyceride)</v>
+          </cell>
+          <cell r="E373" t="str">
+            <v>tier2</v>
+          </cell>
+        </row>
+        <row r="374">
+          <cell r="C374" t="str">
+            <v>CHEMISTRY INVESTIGATIONS</v>
+          </cell>
+          <cell r="D374" t="str">
+            <v>Liver Function Test (LFT)</v>
+          </cell>
+          <cell r="E374" t="str">
+            <v>tier2</v>
+          </cell>
+        </row>
+        <row r="375">
+          <cell r="C375" t="str">
+            <v>CHEMISTRY INVESTIGATIONS</v>
+          </cell>
+          <cell r="D375" t="str">
+            <v>Serum ALT/SGPT</v>
+          </cell>
+          <cell r="E375" t="str">
+            <v>tier2</v>
+          </cell>
+        </row>
+        <row r="376">
+          <cell r="C376" t="str">
+            <v>CHEMISTRY INVESTIGATIONS</v>
+          </cell>
+          <cell r="D376" t="str">
+            <v>Serum AST/SGOT</v>
+          </cell>
+          <cell r="E376" t="str">
+            <v>tier2</v>
+          </cell>
+        </row>
+        <row r="377">
+          <cell r="C377" t="str">
+            <v>CHEMISTRY INVESTIGATIONS</v>
+          </cell>
+          <cell r="D377" t="str">
+            <v>Serum Sodium</v>
+          </cell>
+          <cell r="E377" t="str">
+            <v>tier2</v>
+          </cell>
+        </row>
+        <row r="378">
+          <cell r="C378" t="str">
+            <v>CHEMISTRY INVESTIGATIONS</v>
+          </cell>
+          <cell r="D378" t="str">
+            <v>Serum Calcium</v>
+          </cell>
+          <cell r="E378" t="str">
+            <v>tier2</v>
+          </cell>
+        </row>
+        <row r="379">
+          <cell r="C379" t="str">
+            <v>CHEMISTRY INVESTIGATIONS</v>
+          </cell>
+          <cell r="D379" t="str">
+            <v>Serum Magnesium</v>
+          </cell>
+          <cell r="E379" t="str">
+            <v>tier2</v>
+          </cell>
+        </row>
+        <row r="380">
+          <cell r="C380" t="str">
+            <v>CHEMISTRY INVESTIGATIONS</v>
+          </cell>
+          <cell r="D380" t="str">
+            <v>Serum Potasium</v>
+          </cell>
+          <cell r="E380" t="str">
+            <v>tier2</v>
+          </cell>
+        </row>
+        <row r="381">
+          <cell r="C381" t="str">
+            <v>CHEMISTRY INVESTIGATIONS</v>
+          </cell>
+          <cell r="D381" t="str">
+            <v>Serum Lithium</v>
+          </cell>
+          <cell r="E381" t="str">
+            <v>tier2</v>
+          </cell>
+        </row>
+        <row r="382">
+          <cell r="C382" t="str">
+            <v>CHEMISTRY INVESTIGATIONS</v>
+          </cell>
+          <cell r="D382" t="str">
+            <v>Serum Chloride</v>
+          </cell>
+          <cell r="E382" t="str">
+            <v>tier2</v>
+          </cell>
+        </row>
+        <row r="383">
+          <cell r="C383" t="str">
+            <v>CHEMISTRY INVESTIGATIONS</v>
+          </cell>
+          <cell r="D383" t="str">
+            <v>Serum Bicarbonate</v>
+          </cell>
+          <cell r="E383" t="str">
+            <v>tier2</v>
+          </cell>
+        </row>
+        <row r="384">
+          <cell r="C384" t="str">
+            <v>CHEMISTRY INVESTIGATIONS</v>
+          </cell>
+          <cell r="D384" t="str">
+            <v>Serum Alkaline Phosphate</v>
+          </cell>
+          <cell r="E384" t="str">
+            <v>tier2</v>
+          </cell>
+        </row>
+        <row r="385">
+          <cell r="C385" t="str">
+            <v>CHEMISTRY INVESTIGATIONS</v>
+          </cell>
+          <cell r="D385" t="str">
+            <v>Serum Acid Phosphate</v>
+          </cell>
+          <cell r="E385" t="str">
+            <v>tier2</v>
+          </cell>
+        </row>
+        <row r="386">
+          <cell r="C386" t="str">
+            <v>CHEMISTRY INVESTIGATIONS</v>
+          </cell>
+          <cell r="D386" t="str">
+            <v>Serum Inorganic Phosphate</v>
+          </cell>
+          <cell r="E386" t="str">
+            <v>tier2</v>
+          </cell>
+        </row>
+        <row r="387">
+          <cell r="C387" t="str">
+            <v>CHEMISTRY INVESTIGATIONS</v>
+          </cell>
+          <cell r="D387" t="str">
+            <v>Serum Bilirubin (Total and Direct)</v>
+          </cell>
+          <cell r="E387" t="str">
+            <v>tier2</v>
+          </cell>
+        </row>
+        <row r="388">
+          <cell r="C388" t="str">
+            <v>CHEMISTRY INVESTIGATIONS</v>
+          </cell>
+          <cell r="D388" t="str">
+            <v>Serum Albumin</v>
+          </cell>
+          <cell r="E388" t="str">
+            <v>tier2</v>
+          </cell>
+        </row>
+        <row r="389">
+          <cell r="C389" t="str">
+            <v>CHEMISTRY INVESTIGATIONS</v>
+          </cell>
+          <cell r="D389" t="str">
+            <v>Serum Lactate Dehydrogenase</v>
+          </cell>
+          <cell r="E389" t="str">
+            <v>tier2</v>
+          </cell>
+        </row>
+        <row r="390">
+          <cell r="C390" t="str">
+            <v>CHEMISTRY INVESTIGATIONS</v>
+          </cell>
+          <cell r="D390" t="str">
+            <v>Serum Gamma Glutamyl Transferase</v>
+          </cell>
+          <cell r="E390" t="str">
+            <v>tier2</v>
+          </cell>
+        </row>
+        <row r="391">
+          <cell r="C391" t="str">
+            <v>CHEMISTRY INVESTIGATIONS</v>
+          </cell>
+          <cell r="D391" t="str">
+            <v>Prothrombin time (PT/INR)</v>
+          </cell>
+          <cell r="E391" t="str">
+            <v>tier2</v>
+          </cell>
+        </row>
+        <row r="392">
+          <cell r="C392" t="str">
+            <v>CHEMISTRY INVESTIGATIONS</v>
+          </cell>
+          <cell r="D392" t="str">
+            <v>Urine Pregnancy Test</v>
+          </cell>
+          <cell r="E392" t="str">
+            <v>tier2</v>
+          </cell>
+        </row>
+        <row r="393">
+          <cell r="C393" t="str">
+            <v>MICROBIOLOGY AND PARASITOLOGY</v>
+          </cell>
+          <cell r="D393" t="str">
+            <v>Malaria Parasite (MP)</v>
+          </cell>
+          <cell r="E393" t="str">
+            <v>tier2</v>
+          </cell>
+        </row>
+        <row r="394">
+          <cell r="C394" t="str">
+            <v>MICROBIOLOGY AND PARASITOLOGY</v>
+          </cell>
+          <cell r="D394" t="str">
+            <v>Widal</v>
+          </cell>
+          <cell r="E394" t="str">
+            <v>tier2</v>
+          </cell>
+        </row>
+        <row r="395">
+          <cell r="C395" t="str">
+            <v>MICROBIOLOGY AND PARASITOLOGY</v>
+          </cell>
+          <cell r="D395" t="str">
+            <v>Urine M/C/S</v>
+          </cell>
+          <cell r="E395" t="str">
+            <v>tier2</v>
+          </cell>
+        </row>
+        <row r="396">
+          <cell r="C396" t="str">
+            <v>MICROBIOLOGY AND PARASITOLOGY</v>
+          </cell>
+          <cell r="D396" t="str">
+            <v>Endocervical Swab (ECS) M/C/S</v>
+          </cell>
+          <cell r="E396" t="str">
+            <v>tier2</v>
+          </cell>
+        </row>
+        <row r="397">
+          <cell r="C397" t="str">
+            <v>MICROBIOLOGY AND PARASITOLOGY</v>
+          </cell>
+          <cell r="D397" t="str">
+            <v>High Vaginal Swab (HVS) M/C/S</v>
+          </cell>
+          <cell r="E397" t="str">
+            <v>tier2</v>
+          </cell>
+        </row>
+        <row r="398">
+          <cell r="C398" t="str">
+            <v>MICROBIOLOGY AND PARASITOLOGY</v>
+          </cell>
+          <cell r="D398" t="str">
+            <v>Urethral Swab M/C/S</v>
+          </cell>
+          <cell r="E398" t="str">
+            <v>tier2</v>
+          </cell>
+        </row>
+        <row r="399">
+          <cell r="C399" t="str">
+            <v>MICROBIOLOGY AND PARASITOLOGY</v>
+          </cell>
+          <cell r="D399" t="str">
+            <v>Throat Swab M/C/S</v>
+          </cell>
+          <cell r="E399" t="str">
+            <v>tier2</v>
+          </cell>
+        </row>
+        <row r="400">
+          <cell r="C400" t="str">
+            <v>MICROBIOLOGY AND PARASITOLOGY</v>
+          </cell>
+          <cell r="D400" t="str">
+            <v>Ear Swab M/C/S</v>
+          </cell>
+          <cell r="E400" t="str">
+            <v>tier2</v>
+          </cell>
+        </row>
+        <row r="401">
+          <cell r="C401" t="str">
+            <v>MICROBIOLOGY AND PARASITOLOGY</v>
+          </cell>
+          <cell r="D401" t="str">
+            <v>Wound Swab M/C/S</v>
+          </cell>
+          <cell r="E401" t="str">
+            <v>tier2</v>
+          </cell>
+        </row>
+        <row r="402">
+          <cell r="C402" t="str">
+            <v>MICROBIOLOGY AND PARASITOLOGY</v>
+          </cell>
+          <cell r="D402" t="str">
+            <v>Eye Swab M/C/S</v>
+          </cell>
+          <cell r="E402" t="str">
+            <v>tier2</v>
+          </cell>
+        </row>
+        <row r="403">
+          <cell r="C403" t="str">
+            <v>MICROBIOLOGY AND PARASITOLOGY</v>
+          </cell>
+          <cell r="D403" t="str">
+            <v>Sputum M/C/S</v>
+          </cell>
+          <cell r="E403" t="str">
+            <v>tier2</v>
+          </cell>
+        </row>
+        <row r="404">
+          <cell r="C404" t="str">
+            <v>MICROBIOLOGY AND PARASITOLOGY</v>
+          </cell>
+          <cell r="D404" t="str">
+            <v>Aspirates M/C/S</v>
+          </cell>
+          <cell r="E404" t="str">
+            <v>tier2</v>
+          </cell>
+        </row>
+        <row r="405">
+          <cell r="C405" t="str">
+            <v>MICROBIOLOGY AND PARASITOLOGY</v>
+          </cell>
+          <cell r="D405" t="str">
+            <v>Stool M/C/S</v>
+          </cell>
+          <cell r="E405" t="str">
+            <v>tier2</v>
+          </cell>
+        </row>
+        <row r="406">
+          <cell r="C406" t="str">
+            <v>MICROBIOLOGY AND PARASITOLOGY</v>
+          </cell>
+          <cell r="D406" t="str">
+            <v>VDRL (Veneral Disease Research Laboratory) Test</v>
+          </cell>
+          <cell r="E406" t="str">
+            <v>tier2</v>
+          </cell>
+        </row>
+        <row r="407">
+          <cell r="C407" t="str">
+            <v>MICROBIOLOGY AND PARASITOLOGY</v>
+          </cell>
+          <cell r="D407" t="str">
+            <v>H.Pylori</v>
+          </cell>
+          <cell r="E407" t="str">
+            <v>tier2</v>
+          </cell>
+        </row>
+        <row r="408">
+          <cell r="C408" t="str">
+            <v>MICROBIOLOGY AND PARASITOLOGY</v>
+          </cell>
+          <cell r="D408" t="str">
+            <v>Trypanosomes Screening</v>
+          </cell>
+          <cell r="E408" t="str">
+            <v>tier2</v>
+          </cell>
+        </row>
+        <row r="409">
+          <cell r="C409" t="str">
+            <v>MICROBIOLOGY AND PARASITOLOGY</v>
+          </cell>
+          <cell r="D409" t="str">
+            <v>Toxoplasma Screening</v>
+          </cell>
+          <cell r="E409" t="str">
+            <v>tier2</v>
+          </cell>
+        </row>
+        <row r="410">
+          <cell r="C410" t="str">
+            <v>MICROBIOLOGY AND PARASITOLOGY</v>
+          </cell>
+          <cell r="D410" t="str">
+            <v>Skin Snip for Microfilaria</v>
+          </cell>
+          <cell r="E410" t="str">
+            <v>tier2</v>
+          </cell>
+        </row>
+        <row r="411">
+          <cell r="C411" t="str">
+            <v>MICROBIOLOGY AND PARASITOLOGY</v>
+          </cell>
+          <cell r="D411" t="str">
+            <v>Skin Scraping for Fungi</v>
+          </cell>
+          <cell r="E411" t="str">
+            <v>tier2</v>
+          </cell>
+        </row>
+        <row r="412">
+          <cell r="C412" t="str">
+            <v>MICROBIOLOGY AND PARASITOLOGY</v>
+          </cell>
+          <cell r="D412" t="str">
+            <v>Leishmania Screening</v>
+          </cell>
+          <cell r="E412" t="str">
+            <v>tier2</v>
+          </cell>
+        </row>
+        <row r="413">
+          <cell r="C413" t="str">
+            <v>MICROBIOLOGY AND PARASITOLOGY</v>
+          </cell>
+          <cell r="D413" t="str">
+            <v>Mantoux/Heaf's Test</v>
+          </cell>
+          <cell r="E413" t="str">
+            <v>tier2</v>
+          </cell>
+        </row>
+        <row r="414">
+          <cell r="C414" t="str">
+            <v>MICROBIOLOGY AND PARASITOLOGY</v>
+          </cell>
+          <cell r="D414" t="str">
+            <v>Blood Culture</v>
+          </cell>
+          <cell r="E414" t="str">
+            <v>tier2</v>
+          </cell>
+        </row>
+        <row r="415">
+          <cell r="C415" t="str">
+            <v>MICROBIOLOGY AND PARASITOLOGY</v>
+          </cell>
+          <cell r="D415" t="str">
+            <v>Stool Occult Blood</v>
+          </cell>
+          <cell r="E415" t="str">
+            <v>tier2</v>
+          </cell>
+        </row>
+        <row r="416">
+          <cell r="C416" t="str">
+            <v>ADVANCED LABORATORY INVESTIGATIONS/PATHOLOGY</v>
+          </cell>
+          <cell r="D416" t="str">
+            <v>Blood urea Nitrogen</v>
+          </cell>
+          <cell r="E416" t="str">
+            <v>tier2</v>
+          </cell>
+        </row>
+        <row r="417">
+          <cell r="C417" t="str">
+            <v>ADVANCED LABORATORY INVESTIGATIONS/PATHOLOGY</v>
+          </cell>
+          <cell r="D417" t="str">
+            <v>Hepatitis B Surface Antigen (HBSAg)</v>
+          </cell>
+          <cell r="E417" t="str">
+            <v>tier2</v>
+          </cell>
+        </row>
+        <row r="418">
+          <cell r="C418" t="str">
+            <v>ADVANCED LABORATORY INVESTIGATIONS/PATHOLOGY</v>
+          </cell>
+          <cell r="D418" t="str">
+            <v>HBA1C</v>
+          </cell>
+          <cell r="E418" t="str">
+            <v>tier2</v>
+          </cell>
+        </row>
+        <row r="419">
+          <cell r="C419" t="str">
+            <v>ADVANCED LABORATORY INVESTIGATIONS/PATHOLOGY</v>
+          </cell>
+          <cell r="D419" t="str">
+            <v>Hepatitis C Screening</v>
+          </cell>
+          <cell r="E419" t="str">
+            <v>tier2</v>
+          </cell>
+        </row>
+        <row r="420">
+          <cell r="C420" t="str">
+            <v>ADVANCED LABORATORY INVESTIGATIONS/PATHOLOGY</v>
+          </cell>
+          <cell r="D420" t="str">
+            <v>Hepatitis B Screening</v>
+          </cell>
+          <cell r="E420" t="str">
+            <v>tier2</v>
+          </cell>
+        </row>
+        <row r="421">
+          <cell r="C421" t="str">
+            <v>ADVANCED LABORATORY INVESTIGATIONS/PATHOLOGY</v>
+          </cell>
+          <cell r="D421" t="str">
+            <v>HIV Screening</v>
+          </cell>
+          <cell r="E421" t="str">
+            <v>tier2</v>
+          </cell>
+        </row>
+        <row r="422">
+          <cell r="C422" t="str">
+            <v>ADVANCED LABORATORY INVESTIGATIONS/PATHOLOGY</v>
+          </cell>
+          <cell r="D422" t="str">
+            <v>HIV Confirmatory Test</v>
+          </cell>
+          <cell r="E422" t="str">
+            <v>tier2</v>
+          </cell>
+        </row>
+        <row r="423">
+          <cell r="C423" t="str">
+            <v>ADVANCED LABORATORY INVESTIGATIONS/PATHOLOGY</v>
+          </cell>
+          <cell r="D423" t="str">
+            <v>G-6PD Screening</v>
+          </cell>
+          <cell r="E423" t="str">
+            <v>tier2</v>
+          </cell>
+        </row>
+        <row r="424">
+          <cell r="C424" t="str">
+            <v>ADVANCED LABORATORY INVESTIGATIONS/PATHOLOGY</v>
+          </cell>
+          <cell r="D424" t="str">
+            <v>Thyroid Function Tests</v>
+          </cell>
+          <cell r="E424" t="str">
+            <v>tier2</v>
+          </cell>
+        </row>
+        <row r="425">
+          <cell r="C425" t="str">
+            <v>ADVANCED LABORATORY INVESTIGATIONS/PATHOLOGY</v>
+          </cell>
+          <cell r="D425" t="str">
+            <v>Serum Uric Acid</v>
+          </cell>
+          <cell r="E425" t="str">
+            <v>tier2</v>
+          </cell>
+        </row>
+        <row r="426">
+          <cell r="C426" t="str">
+            <v>ADVANCED LABORATORY INVESTIGATIONS/PATHOLOGY</v>
+          </cell>
+          <cell r="D426" t="str">
+            <v>Creatinine phosphokinase</v>
+          </cell>
+          <cell r="E426" t="str">
+            <v>tier2</v>
+          </cell>
+        </row>
+        <row r="427">
+          <cell r="C427" t="str">
+            <v>ADVANCED LABORATORY INVESTIGATIONS/PATHOLOGY</v>
+          </cell>
+          <cell r="D427" t="str">
+            <v>Syphilis Screening</v>
+          </cell>
+          <cell r="E427" t="str">
+            <v>tier2</v>
+          </cell>
+        </row>
+        <row r="428">
+          <cell r="C428" t="str">
+            <v>ADVANCED LABORATORY INVESTIGATIONS/PATHOLOGY</v>
+          </cell>
+          <cell r="D428" t="str">
+            <v>Serum immunoglobulins/Antibodies</v>
+          </cell>
+          <cell r="E428" t="str">
+            <v>tier2</v>
+          </cell>
+        </row>
+        <row r="429">
+          <cell r="C429" t="str">
+            <v>ADVANCED LABORATORY INVESTIGATIONS/PATHOLOGY</v>
+          </cell>
+          <cell r="D429" t="str">
+            <v>Immunofluorescence assay</v>
+          </cell>
+          <cell r="E429" t="str">
+            <v>tier2</v>
+          </cell>
+        </row>
+        <row r="430">
+          <cell r="C430" t="str">
+            <v>ADVANCED LABORATORY INVESTIGATIONS/PATHOLOGY</v>
+          </cell>
+          <cell r="D430" t="str">
+            <v>QBC Malaria Concentration And Fluorescent Staining</v>
+          </cell>
+          <cell r="E430" t="str">
+            <v>tier2</v>
+          </cell>
+        </row>
+        <row r="431">
+          <cell r="C431" t="str">
+            <v>ADVANCED LABORATORY INVESTIGATIONS/PATHOLOGY</v>
+          </cell>
+          <cell r="D431" t="str">
+            <v>Pap Smear and Cytology</v>
+          </cell>
+          <cell r="E431" t="str">
+            <v>tier2</v>
+          </cell>
+        </row>
+        <row r="432">
+          <cell r="C432" t="str">
+            <v>ADVANCED LABORATORY INVESTIGATIONS/PATHOLOGY</v>
+          </cell>
+          <cell r="D432" t="str">
+            <v>Prostate Specific Antigen</v>
+          </cell>
+          <cell r="E432" t="str">
+            <v>tier2</v>
+          </cell>
+        </row>
+        <row r="433">
+          <cell r="C433" t="str">
+            <v>ADVANCED LABORATORY INVESTIGATIONS/PATHOLOGY</v>
+          </cell>
+          <cell r="D433" t="str">
+            <v>Protein Electrophoresis</v>
+          </cell>
+          <cell r="E433" t="str">
+            <v>tier2</v>
+          </cell>
+        </row>
+        <row r="434">
+          <cell r="C434" t="str">
+            <v>ADVANCED LABORATORY INVESTIGATIONS/PATHOLOGY</v>
+          </cell>
+          <cell r="D434" t="str">
+            <v>CSF M/C/S (CSF Analysis)</v>
+          </cell>
+          <cell r="E434" t="str">
+            <v>tier2</v>
+          </cell>
+        </row>
+        <row r="435">
+          <cell r="C435" t="str">
+            <v>ADVANCED LABORATORY INVESTIGATIONS/PATHOLOGY</v>
+          </cell>
+          <cell r="D435" t="str">
+            <v>Semen M/C/S</v>
+          </cell>
+          <cell r="E435" t="str">
+            <v>tier2</v>
+          </cell>
+        </row>
+        <row r="436">
+          <cell r="C436" t="str">
+            <v>ADVANCED LABORATORY INVESTIGATIONS/PATHOLOGY</v>
+          </cell>
+          <cell r="D436" t="str">
+            <v>Serum Creatinine Phosphokinase</v>
+          </cell>
+          <cell r="E436" t="str">
+            <v>tier2</v>
+          </cell>
+        </row>
+        <row r="437">
+          <cell r="C437" t="str">
+            <v>ADVANCED LABORATORY INVESTIGATIONS/PATHOLOGY</v>
+          </cell>
+          <cell r="D437" t="str">
+            <v>Serum Iron</v>
+          </cell>
+          <cell r="E437" t="str">
+            <v>tier2</v>
+          </cell>
+        </row>
+        <row r="438">
+          <cell r="C438" t="str">
+            <v>ADVANCED LABORATORY INVESTIGATIONS/PATHOLOGY</v>
+          </cell>
+          <cell r="D438" t="str">
+            <v>24 Hour Creatinine Clearance</v>
+          </cell>
+          <cell r="E438" t="str">
+            <v>tier2</v>
+          </cell>
+        </row>
+        <row r="439">
+          <cell r="C439" t="str">
+            <v>ADVANCED LABORATORY INVESTIGATIONS/PATHOLOGY</v>
+          </cell>
+          <cell r="D439" t="str">
+            <v>Coomb's Test (Indirect)</v>
+          </cell>
+          <cell r="E439" t="str">
+            <v>tier2</v>
+          </cell>
+        </row>
+        <row r="440">
+          <cell r="C440" t="str">
+            <v>ADVANCED LABORATORY INVESTIGATIONS/PATHOLOGY</v>
+          </cell>
+          <cell r="D440" t="str">
+            <v>Coomb's Test (Direct)</v>
+          </cell>
+          <cell r="E440" t="str">
+            <v>tier2</v>
+          </cell>
+        </row>
+        <row r="441">
+          <cell r="C441" t="str">
+            <v>ADVANCED LABORATORY INVESTIGATIONS/PATHOLOGY</v>
+          </cell>
+          <cell r="D441" t="str">
+            <v>Osmotic Fragility Test</v>
+          </cell>
+          <cell r="E441" t="str">
+            <v>tier2</v>
+          </cell>
+        </row>
+        <row r="442">
+          <cell r="C442" t="str">
+            <v>ADVANCED LABORATORY INVESTIGATIONS/PATHOLOGY</v>
+          </cell>
+          <cell r="D442" t="str">
+            <v>Chlamydia Screening</v>
+          </cell>
+          <cell r="E442" t="str">
+            <v>tier2</v>
+          </cell>
+        </row>
+        <row r="443">
+          <cell r="C443" t="str">
+            <v>ADVANCED LABORATORY INVESTIGATIONS/PATHOLOGY</v>
+          </cell>
+          <cell r="D443" t="str">
+            <v>Seminal Fluid Analysis (SFA)</v>
+          </cell>
+          <cell r="E443" t="str">
+            <v>tier2</v>
+          </cell>
+        </row>
+        <row r="444">
+          <cell r="C444" t="str">
+            <v>ADVANCED LABORATORY INVESTIGATIONS/PATHOLOGY</v>
+          </cell>
+          <cell r="D444" t="str">
+            <v>Clotting Time</v>
+          </cell>
+          <cell r="E444" t="str">
+            <v>tier2</v>
+          </cell>
+        </row>
+        <row r="445">
+          <cell r="C445" t="str">
+            <v>ADVANCED LABORATORY INVESTIGATIONS/PATHOLOGY</v>
+          </cell>
+          <cell r="D445" t="str">
+            <v>Bleeding Time</v>
+          </cell>
+          <cell r="E445" t="str">
+            <v>tier2</v>
+          </cell>
+        </row>
+        <row r="446">
+          <cell r="C446" t="str">
+            <v>ADVANCED LABORATORY INVESTIGATIONS/PATHOLOGY</v>
+          </cell>
+          <cell r="D446" t="str">
+            <v>D-Dimer</v>
+          </cell>
+          <cell r="E446" t="str">
+            <v>tier2</v>
+          </cell>
+        </row>
+        <row r="447">
+          <cell r="C447" t="str">
+            <v>ADVANCED LABORATORY INVESTIGATIONS/PATHOLOGY</v>
+          </cell>
+          <cell r="D447" t="str">
+            <v>Sputum Acid Fast Bacilli (AFB) Test</v>
+          </cell>
+          <cell r="E447" t="str">
+            <v>tier2</v>
+          </cell>
+        </row>
+        <row r="448">
+          <cell r="C448" t="str">
+            <v>ADMISSIONS AND ACCOMMODATION</v>
+          </cell>
+          <cell r="D448" t="str">
+            <v>Feeding for enrollees on admission</v>
+          </cell>
+          <cell r="E448" t="str">
+            <v>tier2</v>
+          </cell>
+        </row>
+        <row r="449">
+          <cell r="C449" t="str">
+            <v>ADMISSIONS AND ACCOMMODATION</v>
+          </cell>
+          <cell r="D449" t="str">
+            <v>Hospital Ward Care</v>
+          </cell>
+          <cell r="E449" t="str">
+            <v>tier2</v>
+          </cell>
+        </row>
+        <row r="450">
+          <cell r="C450" t="str">
+            <v>ADMISSIONS AND ACCOMMODATION</v>
+          </cell>
+          <cell r="D450" t="str">
+            <v>Skilled medical and paramedical services</v>
+          </cell>
+          <cell r="E450" t="str">
+            <v>tier2</v>
+          </cell>
+        </row>
+        <row r="451">
+          <cell r="C451" t="str">
+            <v>ADMISSIONS AND ACCOMMODATION</v>
+          </cell>
+          <cell r="D451" t="str">
+            <v>Supply of prescribed drugs</v>
+          </cell>
+          <cell r="E451" t="str">
+            <v>tier2</v>
+          </cell>
+        </row>
+        <row r="452">
+          <cell r="C452" t="str">
+            <v>ADMISSIONS AND ACCOMMODATION</v>
+          </cell>
+          <cell r="D452" t="str">
+            <v>Supply of all medical and surgical consumables</v>
+          </cell>
+          <cell r="E452" t="str">
+            <v>tier2</v>
+          </cell>
+        </row>
+        <row r="453">
+          <cell r="C453" t="str">
+            <v>ADMISSIONS AND ACCOMMODATION</v>
+          </cell>
+          <cell r="D453" t="str">
+            <v>Blood grouping, cross matching, and transfusion</v>
+          </cell>
+          <cell r="E453" t="str">
+            <v>tier2</v>
+          </cell>
+        </row>
+        <row r="454">
+          <cell r="C454" t="str">
+            <v>ADMISSIONS AND ACCOMMODATION</v>
+          </cell>
+          <cell r="D454" t="str">
+            <v>Accommodation for in-patient care</v>
+          </cell>
+          <cell r="E454" t="str">
+            <v>tier2</v>
+          </cell>
+        </row>
+        <row r="455">
+          <cell r="C455" t="str">
+            <v>ADMISSIONS AND ACCOMMODATION</v>
+          </cell>
+          <cell r="D455" t="str">
+            <v>Accommodation for parents/relatives (Excludes feeding)</v>
+          </cell>
+          <cell r="E455" t="str">
+            <v>tier2</v>
+          </cell>
+        </row>
+        <row r="456">
+          <cell r="C456" t="str">
+            <v>INTENSIVE CARE</v>
+          </cell>
+          <cell r="D456" t="str">
+            <v>ICU and ICU-related Care</v>
+          </cell>
+          <cell r="E456" t="str">
+            <v>tier2</v>
+          </cell>
+        </row>
+        <row r="457">
+          <cell r="C457" t="str">
+            <v>EYE/OPTICAL CARE</v>
+          </cell>
+          <cell r="D457" t="str">
+            <v>Specialist Opthalmologist Consultation</v>
+          </cell>
+          <cell r="E457" t="str">
+            <v>tier2</v>
+          </cell>
+        </row>
+        <row r="458">
+          <cell r="C458" t="str">
+            <v>EYE/OPTICAL CARE</v>
+          </cell>
+          <cell r="D458" t="str">
+            <v>Treatment of acute and chronic ocular infections</v>
+          </cell>
+          <cell r="E458" t="str">
+            <v>tier2</v>
+          </cell>
+        </row>
+        <row r="459">
+          <cell r="C459" t="str">
+            <v>EYE/OPTICAL CARE</v>
+          </cell>
+          <cell r="D459" t="str">
+            <v>Basic ocular tests</v>
+          </cell>
+          <cell r="E459" t="str">
+            <v>tier2</v>
+          </cell>
+        </row>
+        <row r="460">
+          <cell r="C460" t="str">
+            <v>EYE/OPTICAL CARE</v>
+          </cell>
+          <cell r="D460" t="str">
+            <v>Advanced Ocular tests</v>
+          </cell>
+          <cell r="E460" t="str">
+            <v>tier2</v>
+          </cell>
+        </row>
+        <row r="461">
+          <cell r="C461" t="str">
+            <v>EYE/OPTICAL CARE</v>
+          </cell>
+          <cell r="D461" t="str">
+            <v>Lenses and Frames (Including Contact lenses)</v>
+          </cell>
+          <cell r="E461" t="str">
+            <v>tier2</v>
+          </cell>
+        </row>
+        <row r="462">
+          <cell r="C462" t="str">
+            <v>DENTAL CARE</v>
+          </cell>
+          <cell r="D462" t="str">
+            <v>Specialist Consultation</v>
+          </cell>
+          <cell r="E462" t="str">
+            <v>tier2</v>
+          </cell>
+        </row>
+        <row r="463">
+          <cell r="C463" t="str">
+            <v>DENTAL CARE</v>
+          </cell>
+          <cell r="D463" t="str">
+            <v>Routine dental examination</v>
+          </cell>
+          <cell r="E463" t="str">
+            <v>tier2</v>
+          </cell>
+        </row>
+        <row r="464">
+          <cell r="C464" t="str">
+            <v>DENTAL CARE</v>
+          </cell>
+          <cell r="D464" t="str">
+            <v>Preventive dental care and counselling</v>
+          </cell>
+          <cell r="E464" t="str">
+            <v>tier2</v>
+          </cell>
+        </row>
+        <row r="465">
+          <cell r="C465" t="str">
+            <v>DENTAL CARE</v>
+          </cell>
+          <cell r="D465" t="str">
+            <v>Dental pain therapy</v>
+          </cell>
+          <cell r="E465" t="str">
+            <v>tier2</v>
+          </cell>
+        </row>
+        <row r="466">
+          <cell r="C466" t="str">
+            <v>DENTAL CARE</v>
+          </cell>
+          <cell r="D466" t="str">
+            <v>Treatment of acute and chronic dental infections</v>
+          </cell>
+          <cell r="E466" t="str">
+            <v>tier2</v>
+          </cell>
+        </row>
+        <row r="467">
+          <cell r="C467" t="str">
+            <v>DENTAL CARE</v>
+          </cell>
+          <cell r="D467" t="str">
+            <v>Access to prescribed drugs</v>
+          </cell>
+          <cell r="E467" t="str">
+            <v>tier2</v>
+          </cell>
+        </row>
+        <row r="468">
+          <cell r="C468" t="str">
+            <v>DENTAL CARE</v>
+          </cell>
+          <cell r="D468" t="str">
+            <v xml:space="preserve">Surgical extraction </v>
+          </cell>
+          <cell r="E468" t="str">
+            <v>tier2</v>
+          </cell>
+        </row>
+        <row r="469">
+          <cell r="C469" t="str">
+            <v>DENTAL CARE</v>
+          </cell>
+          <cell r="D469" t="str">
+            <v xml:space="preserve">Non-surgical extraction </v>
+          </cell>
+          <cell r="E469" t="str">
+            <v>tier2</v>
+          </cell>
+        </row>
+        <row r="470">
+          <cell r="C470" t="str">
+            <v>DENTAL CARE</v>
+          </cell>
+          <cell r="D470" t="str">
+            <v xml:space="preserve">Root Canal Therapy </v>
+          </cell>
+          <cell r="E470" t="str">
+            <v>tier2</v>
+          </cell>
+        </row>
+        <row r="471">
+          <cell r="C471" t="str">
+            <v>DENTAL CARE</v>
+          </cell>
+          <cell r="D471" t="str">
+            <v xml:space="preserve">Scaling and Polishing </v>
+          </cell>
+          <cell r="E471" t="str">
+            <v>tier2</v>
+          </cell>
+        </row>
+        <row r="472">
+          <cell r="C472" t="str">
+            <v>DENTAL CARE</v>
+          </cell>
+          <cell r="D472" t="str">
+            <v xml:space="preserve">Operculectomy </v>
+          </cell>
+          <cell r="E472" t="str">
+            <v>tier2</v>
+          </cell>
+        </row>
+        <row r="473">
+          <cell r="C473" t="str">
+            <v>DENTAL CARE</v>
+          </cell>
+          <cell r="D473" t="str">
+            <v xml:space="preserve">Gingival Curettage </v>
+          </cell>
+          <cell r="E473" t="str">
+            <v>tier2</v>
+          </cell>
+        </row>
+        <row r="474">
+          <cell r="C474" t="str">
+            <v>DENTAL CARE</v>
+          </cell>
+          <cell r="D474" t="str">
+            <v xml:space="preserve">Composite Filling </v>
+          </cell>
+          <cell r="E474" t="str">
+            <v>tier2</v>
+          </cell>
+        </row>
+        <row r="475">
+          <cell r="C475" t="str">
+            <v>DENTAL CARE</v>
+          </cell>
+          <cell r="D475" t="str">
+            <v xml:space="preserve">Amalgam Filling </v>
+          </cell>
+          <cell r="E475" t="str">
+            <v>tier2</v>
+          </cell>
+        </row>
+        <row r="476">
+          <cell r="C476" t="str">
+            <v>DENTAL CARE</v>
+          </cell>
+          <cell r="D476" t="str">
+            <v xml:space="preserve">Incision and Drainage </v>
+          </cell>
+          <cell r="E476" t="str">
+            <v>tier2</v>
+          </cell>
+        </row>
+        <row r="477">
+          <cell r="C477" t="str">
+            <v>PHYSIOTHERAPY CARE</v>
+          </cell>
+          <cell r="D477" t="str">
+            <v>Specialist Consultation</v>
+          </cell>
+          <cell r="E477" t="str">
+            <v>tier2</v>
+          </cell>
+        </row>
+        <row r="478">
+          <cell r="C478" t="str">
+            <v>PHYSIOTHERAPY CARE</v>
+          </cell>
+          <cell r="D478" t="str">
+            <v>Routine fitness examination</v>
+          </cell>
+          <cell r="E478" t="str">
+            <v>tier2</v>
+          </cell>
+        </row>
+        <row r="479">
+          <cell r="C479" t="str">
+            <v>PHYSIOTHERAPY CARE</v>
+          </cell>
+          <cell r="D479" t="str">
+            <v>Preventive Counselling on referral</v>
+          </cell>
+          <cell r="E479" t="str">
+            <v>tier2</v>
+          </cell>
+        </row>
+        <row r="480">
+          <cell r="C480" t="str">
+            <v>PHYSIOTHERAPY CARE</v>
+          </cell>
+          <cell r="D480" t="str">
+            <v>Cervical Collar and Crutches</v>
+          </cell>
+          <cell r="E480" t="str">
+            <v>tier2</v>
+          </cell>
+        </row>
+        <row r="481">
+          <cell r="C481" t="str">
+            <v>PHYSIOTHERAPY CARE</v>
+          </cell>
+          <cell r="D481" t="str">
+            <v>Walker</v>
+          </cell>
+          <cell r="E481" t="str">
+            <v>tier2</v>
+          </cell>
+        </row>
+        <row r="482">
+          <cell r="C482" t="str">
+            <v>PHYSIOTHERAPY CARE</v>
+          </cell>
+          <cell r="D482" t="str">
+            <v>Pain therapy</v>
+          </cell>
+          <cell r="E482" t="str">
+            <v>tier2</v>
+          </cell>
+        </row>
+        <row r="483">
+          <cell r="C483" t="str">
+            <v>PHYSIOTHERAPY CARE</v>
+          </cell>
+          <cell r="D483" t="str">
+            <v>Access to prescribed drugs</v>
+          </cell>
+          <cell r="E483" t="str">
+            <v>tier2</v>
+          </cell>
+        </row>
+        <row r="484">
+          <cell r="C484" t="str">
+            <v>PHYSIOTHERAPY CARE</v>
+          </cell>
+          <cell r="D484" t="str">
+            <v>Number of Sessions Covered</v>
+          </cell>
+          <cell r="E484" t="str">
+            <v>tier2</v>
+          </cell>
+        </row>
+        <row r="485">
+          <cell r="C485" t="str">
+            <v xml:space="preserve">OBSTETRICS CARE </v>
+          </cell>
+          <cell r="D485" t="str">
+            <v>Antenatal Care (INCL. SPECIALIST CARE AND ANC DRUGS)</v>
+          </cell>
+          <cell r="E485" t="str">
+            <v>tier2</v>
+          </cell>
+        </row>
+        <row r="486">
+          <cell r="C486" t="str">
+            <v xml:space="preserve">OBSTETRICS CARE </v>
+          </cell>
+          <cell r="D486" t="str">
+            <v>Delivery (SVD/NORMAL and COMPLICATED)</v>
+          </cell>
+          <cell r="E486" t="str">
+            <v>tier2</v>
+          </cell>
+        </row>
+        <row r="487">
+          <cell r="C487" t="str">
+            <v xml:space="preserve">OBSTETRICS CARE </v>
+          </cell>
+          <cell r="D487" t="str">
+            <v>Delivery (MULTIPLE)</v>
+          </cell>
+          <cell r="E487" t="str">
+            <v>tier2</v>
+          </cell>
+        </row>
+        <row r="488">
+          <cell r="C488" t="str">
+            <v xml:space="preserve">OBSTETRICS CARE </v>
+          </cell>
+          <cell r="D488" t="str">
+            <v>Assisted Delivery</v>
+          </cell>
+          <cell r="E488" t="str">
+            <v>tier2</v>
+          </cell>
+        </row>
+        <row r="489">
+          <cell r="C489" t="str">
+            <v xml:space="preserve">OBSTETRICS CARE </v>
+          </cell>
+          <cell r="D489" t="str">
+            <v>Therapeutic Abortion (Manual Vacuum Aspiration)</v>
+          </cell>
+          <cell r="E489" t="str">
+            <v>tier2</v>
+          </cell>
+        </row>
+        <row r="490">
+          <cell r="C490" t="str">
+            <v xml:space="preserve">OBSTETRICS CARE </v>
+          </cell>
+          <cell r="D490" t="str">
+            <v>CAESARIAN SECTION</v>
+          </cell>
+          <cell r="E490" t="str">
+            <v>tier2</v>
+          </cell>
+        </row>
+        <row r="491">
+          <cell r="C491" t="str">
+            <v xml:space="preserve">INFERTILITY CARE </v>
+          </cell>
+          <cell r="D491" t="str">
+            <v>Fertility Specialist Consultation and Counselling</v>
+          </cell>
+          <cell r="E491" t="str">
+            <v>tier2</v>
+          </cell>
+        </row>
+        <row r="492">
+          <cell r="C492" t="str">
+            <v xml:space="preserve">INFERTILITY CARE </v>
+          </cell>
+          <cell r="D492" t="str">
+            <v>Fertility Investigations</v>
+          </cell>
+          <cell r="E492" t="str">
+            <v>tier2</v>
+          </cell>
+        </row>
+        <row r="493">
+          <cell r="C493" t="str">
+            <v xml:space="preserve">INCUBATOR CARE </v>
+          </cell>
+          <cell r="D493" t="str">
+            <v>Neonatal / Special Baby Care Unit</v>
+          </cell>
+          <cell r="E493" t="str">
+            <v>tier2</v>
+          </cell>
+        </row>
+        <row r="494">
+          <cell r="C494" t="str">
+            <v>NPI IMMUNIZATION (0-5 YEARS)</v>
+          </cell>
+          <cell r="D494" t="str">
+            <v>BCG</v>
+          </cell>
+          <cell r="E494" t="str">
+            <v>tier2</v>
+          </cell>
+        </row>
+        <row r="495">
+          <cell r="C495" t="str">
+            <v>NPI IMMUNIZATION (0-5 YEARS)</v>
+          </cell>
+          <cell r="D495" t="str">
+            <v>OPV/IPV</v>
+          </cell>
+          <cell r="E495" t="str">
+            <v>tier2</v>
+          </cell>
+        </row>
+        <row r="496">
+          <cell r="C496" t="str">
+            <v>NPI IMMUNIZATION (0-5 YEARS)</v>
+          </cell>
+          <cell r="D496" t="str">
+            <v>PENTAVALENT</v>
+          </cell>
+          <cell r="E496" t="str">
+            <v>tier2</v>
+          </cell>
+        </row>
+        <row r="497">
+          <cell r="C497" t="str">
+            <v>NPI IMMUNIZATION (0-5 YEARS)</v>
+          </cell>
+          <cell r="D497" t="str">
+            <v>HEPATITIS B</v>
+          </cell>
+          <cell r="E497" t="str">
+            <v>tier2</v>
+          </cell>
+        </row>
+        <row r="498">
+          <cell r="C498" t="str">
+            <v>NPI IMMUNIZATION (0-5 YEARS)</v>
+          </cell>
+          <cell r="D498" t="str">
+            <v>DPT</v>
+          </cell>
+          <cell r="E498" t="str">
+            <v>tier2</v>
+          </cell>
+        </row>
+        <row r="499">
+          <cell r="C499" t="str">
+            <v>NPI IMMUNIZATION (0-5 YEARS)</v>
+          </cell>
+          <cell r="D499" t="str">
+            <v>VITAMIN A</v>
+          </cell>
+          <cell r="E499" t="str">
+            <v>tier2</v>
+          </cell>
+        </row>
+        <row r="500">
+          <cell r="C500" t="str">
+            <v>NPI IMMUNIZATION (0-5 YEARS)</v>
+          </cell>
+          <cell r="D500" t="str">
+            <v>MEASLES</v>
+          </cell>
+          <cell r="E500" t="str">
+            <v>tier2</v>
+          </cell>
+        </row>
+      </sheetData>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1503,10 +3720,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F300"/>
+  <dimension ref="A1:F500"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A291" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="D298" sqref="D298"/>
+    <sheetView tabSelected="1" topLeftCell="A492" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="A301" sqref="A301:F500"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7781,6 +9998,4206 @@
       </c>
       <c r="F300" s="14">
         <v>50000</v>
+      </c>
+    </row>
+    <row r="301" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A301" s="13" t="str">
+        <f>CONCATENATE("Tariff ",[1]Tariff!C301," ",[1]Tariff!D301," - ", [1]Tariff!E301)</f>
+        <v>Tariff SPECIALIST CONSULTATION  Dermatologist  - tier2</v>
+      </c>
+      <c r="B301" s="12">
+        <v>20</v>
+      </c>
+      <c r="C301" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="D301" s="13" t="s">
+        <v>36</v>
+      </c>
+      <c r="E301" s="14" t="s">
+        <v>326</v>
+      </c>
+      <c r="F301" s="14">
+        <v>225000</v>
+      </c>
+    </row>
+    <row r="302" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A302" s="13" t="str">
+        <f>CONCATENATE("Tariff ",[1]Tariff!C302," ",[1]Tariff!D302," - ", [1]Tariff!E302)</f>
+        <v>Tariff SPECIALIST CONSULTATION  Haematologist - tier2</v>
+      </c>
+      <c r="B302" s="12">
+        <v>20</v>
+      </c>
+      <c r="C302" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="D302" s="13" t="s">
+        <v>37</v>
+      </c>
+      <c r="E302" s="14" t="s">
+        <v>326</v>
+      </c>
+      <c r="F302" s="14">
+        <v>36000</v>
+      </c>
+    </row>
+    <row r="303" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A303" s="13" t="str">
+        <f>CONCATENATE("Tariff ",[1]Tariff!C303," ",[1]Tariff!D303," - ", [1]Tariff!E303)</f>
+        <v>Tariff SPECIALIST CONSULTATION  Dietician/Nutritionist  - tier2</v>
+      </c>
+      <c r="B303" s="12">
+        <v>20</v>
+      </c>
+      <c r="C303" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="D303" s="13" t="s">
+        <v>38</v>
+      </c>
+      <c r="E303" s="14" t="s">
+        <v>326</v>
+      </c>
+      <c r="F303" s="14">
+        <v>225000</v>
+      </c>
+    </row>
+    <row r="304" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="A304" s="13" t="str">
+        <f>CONCATENATE("Tariff ",[1]Tariff!C304," ",[1]Tariff!D304," - ", [1]Tariff!E304)</f>
+        <v>Tariff SPECIALIST CONSULTATION  Pulmonologist/Respiratory Physician - tier2</v>
+      </c>
+      <c r="B304" s="12">
+        <v>20</v>
+      </c>
+      <c r="C304" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="D304" s="13" t="s">
+        <v>39</v>
+      </c>
+      <c r="E304" s="14" t="s">
+        <v>326</v>
+      </c>
+      <c r="F304" s="14">
+        <v>225000</v>
+      </c>
+    </row>
+    <row r="305" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A305" s="13" t="str">
+        <f>CONCATENATE("Tariff ",[1]Tariff!C305," ",[1]Tariff!D305," - ", [1]Tariff!E305)</f>
+        <v>Tariff SPECIALIST CONSULTATION  Hematologist  - tier2</v>
+      </c>
+      <c r="B305" s="12">
+        <v>20</v>
+      </c>
+      <c r="C305" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="D305" s="13" t="s">
+        <v>40</v>
+      </c>
+      <c r="E305" s="14" t="s">
+        <v>326</v>
+      </c>
+      <c r="F305" s="14">
+        <v>225000</v>
+      </c>
+    </row>
+    <row r="306" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A306" s="13" t="str">
+        <f>CONCATENATE("Tariff ",[1]Tariff!C306," ",[1]Tariff!D306," - ", [1]Tariff!E306)</f>
+        <v>Tariff SPECIALIST CONSULTATION  Oncologist  - tier2</v>
+      </c>
+      <c r="B306" s="12">
+        <v>20</v>
+      </c>
+      <c r="C306" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="D306" s="13" t="s">
+        <v>41</v>
+      </c>
+      <c r="E306" s="14" t="s">
+        <v>326</v>
+      </c>
+      <c r="F306" s="14">
+        <v>75000</v>
+      </c>
+    </row>
+    <row r="307" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A307" s="13" t="str">
+        <f>CONCATENATE("Tariff ",[1]Tariff!C307," ",[1]Tariff!D307," - ", [1]Tariff!E307)</f>
+        <v>Tariff SPECIALIST CONSULTATION  Pathologist  - tier2</v>
+      </c>
+      <c r="B307" s="12">
+        <v>20</v>
+      </c>
+      <c r="C307" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="D307" s="13" t="s">
+        <v>42</v>
+      </c>
+      <c r="E307" s="14" t="s">
+        <v>326</v>
+      </c>
+      <c r="F307" s="14">
+        <v>225000</v>
+      </c>
+    </row>
+    <row r="308" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A308" s="13" t="str">
+        <f>CONCATENATE("Tariff ",[1]Tariff!C308," ",[1]Tariff!D308," - ", [1]Tariff!E308)</f>
+        <v>Tariff SPECIALIST CONSULTATION  Endocrinologist  - tier2</v>
+      </c>
+      <c r="B308" s="12">
+        <v>20</v>
+      </c>
+      <c r="C308" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="D308" s="13" t="s">
+        <v>43</v>
+      </c>
+      <c r="E308" s="14" t="s">
+        <v>326</v>
+      </c>
+      <c r="F308" s="14">
+        <v>225000</v>
+      </c>
+    </row>
+    <row r="309" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A309" s="13" t="str">
+        <f>CONCATENATE("Tariff ",[1]Tariff!C309," ",[1]Tariff!D309," - ", [1]Tariff!E309)</f>
+        <v>Tariff SPECIALIST CONSULTATION  Family Physician - tier2</v>
+      </c>
+      <c r="B309" s="12">
+        <v>20</v>
+      </c>
+      <c r="C309" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="D309" s="13" t="s">
+        <v>44</v>
+      </c>
+      <c r="E309" s="14" t="s">
+        <v>326</v>
+      </c>
+      <c r="F309" s="14">
+        <v>225000</v>
+      </c>
+    </row>
+    <row r="310" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A310" s="13" t="str">
+        <f>CONCATENATE("Tariff ",[1]Tariff!C310," ",[1]Tariff!D310," - ", [1]Tariff!E310)</f>
+        <v>Tariff SPECIALIST CONSULTATION  Oral and Maxillofacial Surgeon - tier2</v>
+      </c>
+      <c r="B310" s="12">
+        <v>20</v>
+      </c>
+      <c r="C310" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="D310" s="13" t="s">
+        <v>45</v>
+      </c>
+      <c r="E310" s="14" t="s">
+        <v>326</v>
+      </c>
+      <c r="F310" s="14">
+        <v>225000</v>
+      </c>
+    </row>
+    <row r="311" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="A311" s="13" t="str">
+        <f>CONCATENATE("Tariff ",[1]Tariff!C311," ",[1]Tariff!D311," - ", [1]Tariff!E311)</f>
+        <v>Tariff ACCESS TO FREE TELEMEDICINE APP  Chat - certified Doctors during medical emergency - tier2</v>
+      </c>
+      <c r="B311" s="12">
+        <v>20</v>
+      </c>
+      <c r="C311" s="13" t="s">
+        <v>46</v>
+      </c>
+      <c r="D311" s="13" t="s">
+        <v>47</v>
+      </c>
+      <c r="E311" s="14" t="s">
+        <v>326</v>
+      </c>
+      <c r="F311" s="14">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="312" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="A312" s="13" t="str">
+        <f>CONCATENATE("Tariff ",[1]Tariff!C312," ",[1]Tariff!D312," - ", [1]Tariff!E312)</f>
+        <v>Tariff ACCESS TO FREE TELEMEDICINE APP  Chat - certified Doctors for medical Information - tier2</v>
+      </c>
+      <c r="B312" s="12">
+        <v>20</v>
+      </c>
+      <c r="C312" s="13" t="s">
+        <v>46</v>
+      </c>
+      <c r="D312" s="13" t="s">
+        <v>48</v>
+      </c>
+      <c r="E312" s="14" t="s">
+        <v>326</v>
+      </c>
+      <c r="F312" s="14">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="313" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="A313" s="13" t="str">
+        <f>CONCATENATE("Tariff ",[1]Tariff!C313," ",[1]Tariff!D313," - ", [1]Tariff!E313)</f>
+        <v>Tariff ACCESS TO FREE TELEMEDICINE APP  Free drug Pick-up at designated Pharmacies - tier2</v>
+      </c>
+      <c r="B313" s="12">
+        <v>20</v>
+      </c>
+      <c r="C313" s="13" t="s">
+        <v>46</v>
+      </c>
+      <c r="D313" s="13" t="s">
+        <v>49</v>
+      </c>
+      <c r="E313" s="14" t="s">
+        <v>326</v>
+      </c>
+      <c r="F313" s="14">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="314" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="A314" s="13" t="str">
+        <f>CONCATENATE("Tariff ",[1]Tariff!C314," ",[1]Tariff!D314," - ", [1]Tariff!E314)</f>
+        <v>Tariff ACCESS TO FREE TELEMEDICINE APP  GPS-enabled access to hospital directories - tier2</v>
+      </c>
+      <c r="B314" s="12">
+        <v>20</v>
+      </c>
+      <c r="C314" s="13" t="s">
+        <v>46</v>
+      </c>
+      <c r="D314" s="13" t="s">
+        <v>50</v>
+      </c>
+      <c r="E314" s="14" t="s">
+        <v>326</v>
+      </c>
+      <c r="F314" s="14">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="315" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="A315" s="13" t="str">
+        <f>CONCATENATE("Tariff ",[1]Tariff!C315," ",[1]Tariff!D315," - ", [1]Tariff!E315)</f>
+        <v>Tariff ACCESS TO FREE TELEMEDICINE APP  Telemedicine app with details of covered benefits - tier2</v>
+      </c>
+      <c r="B315" s="12">
+        <v>20</v>
+      </c>
+      <c r="C315" s="13" t="s">
+        <v>46</v>
+      </c>
+      <c r="D315" s="13" t="s">
+        <v>51</v>
+      </c>
+      <c r="E315" s="14" t="s">
+        <v>326</v>
+      </c>
+      <c r="F315" s="14">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="316" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="A316" s="13" t="str">
+        <f>CONCATENATE("Tariff ",[1]Tariff!C316," ",[1]Tariff!D316," - ", [1]Tariff!E316)</f>
+        <v>Tariff ACCIDENT AND EMERGENCY CARE Resuscitative care needed to stabilize patient - tier2</v>
+      </c>
+      <c r="B316" s="12">
+        <v>20</v>
+      </c>
+      <c r="C316" s="13" t="s">
+        <v>52</v>
+      </c>
+      <c r="D316" s="13" t="s">
+        <v>53</v>
+      </c>
+      <c r="E316" s="14" t="s">
+        <v>326</v>
+      </c>
+      <c r="F316" s="14">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="317" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A317" s="13" t="str">
+        <f>CONCATENATE("Tariff ",[1]Tariff!C317," ",[1]Tariff!D317," - ", [1]Tariff!E317)</f>
+        <v>Tariff BASIC DIAGNOSTIC IMAGING Chest X-Rays - tier2</v>
+      </c>
+      <c r="B317" s="12">
+        <v>20</v>
+      </c>
+      <c r="C317" s="13" t="s">
+        <v>54</v>
+      </c>
+      <c r="D317" s="13" t="s">
+        <v>55</v>
+      </c>
+      <c r="E317" s="14" t="s">
+        <v>326</v>
+      </c>
+      <c r="F317" s="14">
+        <v>9000</v>
+      </c>
+    </row>
+    <row r="318" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A318" s="13" t="str">
+        <f>CONCATENATE("Tariff ",[1]Tariff!C318," ",[1]Tariff!D318," - ", [1]Tariff!E318)</f>
+        <v>Tariff BASIC DIAGNOSTIC IMAGING Abdominal X-Rays - tier2</v>
+      </c>
+      <c r="B318" s="12">
+        <v>20</v>
+      </c>
+      <c r="C318" s="13" t="s">
+        <v>54</v>
+      </c>
+      <c r="D318" s="13" t="s">
+        <v>56</v>
+      </c>
+      <c r="E318" s="14" t="s">
+        <v>326</v>
+      </c>
+      <c r="F318" s="14">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="319" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A319" s="13" t="str">
+        <f>CONCATENATE("Tariff ",[1]Tariff!C319," ",[1]Tariff!D319," - ", [1]Tariff!E319)</f>
+        <v>Tariff BASIC DIAGNOSTIC IMAGING Limbs X-rays - tier2</v>
+      </c>
+      <c r="B319" s="12">
+        <v>20</v>
+      </c>
+      <c r="C319" s="13" t="s">
+        <v>54</v>
+      </c>
+      <c r="D319" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="E319" s="14" t="s">
+        <v>326</v>
+      </c>
+      <c r="F319" s="14">
+        <v>2500</v>
+      </c>
+    </row>
+    <row r="320" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A320" s="13" t="str">
+        <f>CONCATENATE("Tariff ",[1]Tariff!C320," ",[1]Tariff!D320," - ", [1]Tariff!E320)</f>
+        <v>Tariff BASIC DIAGNOSTIC IMAGING Neck X-rays - tier2</v>
+      </c>
+      <c r="B320" s="12">
+        <v>20</v>
+      </c>
+      <c r="C320" s="13" t="s">
+        <v>54</v>
+      </c>
+      <c r="D320" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="E320" s="14" t="s">
+        <v>326</v>
+      </c>
+      <c r="F320" s="14">
+        <v>2500</v>
+      </c>
+    </row>
+    <row r="321" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A321" s="13" t="str">
+        <f>CONCATENATE("Tariff ",[1]Tariff!C321," ",[1]Tariff!D321," - ", [1]Tariff!E321)</f>
+        <v>Tariff BASIC DIAGNOSTIC IMAGING Sinus X-rays - tier2</v>
+      </c>
+      <c r="B321" s="12">
+        <v>20</v>
+      </c>
+      <c r="C321" s="13" t="s">
+        <v>54</v>
+      </c>
+      <c r="D321" s="13" t="s">
+        <v>59</v>
+      </c>
+      <c r="E321" s="14" t="s">
+        <v>326</v>
+      </c>
+      <c r="F321" s="14">
+        <v>2500</v>
+      </c>
+    </row>
+    <row r="322" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A322" s="13" t="str">
+        <f>CONCATENATE("Tariff ",[1]Tariff!C322," ",[1]Tariff!D322," - ", [1]Tariff!E322)</f>
+        <v>Tariff BASIC DIAGNOSTIC IMAGING Mastoid X-rays - tier2</v>
+      </c>
+      <c r="B322" s="12">
+        <v>20</v>
+      </c>
+      <c r="C322" s="13" t="s">
+        <v>54</v>
+      </c>
+      <c r="D322" s="13" t="s">
+        <v>60</v>
+      </c>
+      <c r="E322" s="14" t="s">
+        <v>326</v>
+      </c>
+      <c r="F322" s="14">
+        <v>2500</v>
+      </c>
+    </row>
+    <row r="323" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A323" s="13" t="str">
+        <f>CONCATENATE("Tariff ",[1]Tariff!C323," ",[1]Tariff!D323," - ", [1]Tariff!E323)</f>
+        <v>Tariff BASIC DIAGNOSTIC IMAGING Cervical Spine X-rays - tier2</v>
+      </c>
+      <c r="B323" s="12">
+        <v>20</v>
+      </c>
+      <c r="C323" s="13" t="s">
+        <v>54</v>
+      </c>
+      <c r="D323" s="13" t="s">
+        <v>61</v>
+      </c>
+      <c r="E323" s="14" t="s">
+        <v>326</v>
+      </c>
+      <c r="F323" s="14">
+        <v>2500</v>
+      </c>
+    </row>
+    <row r="324" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A324" s="13" t="str">
+        <f>CONCATENATE("Tariff ",[1]Tariff!C324," ",[1]Tariff!D324," - ", [1]Tariff!E324)</f>
+        <v>Tariff BASIC DIAGNOSTIC IMAGING Skull X-rays - tier2</v>
+      </c>
+      <c r="B324" s="12">
+        <v>20</v>
+      </c>
+      <c r="C324" s="13" t="s">
+        <v>54</v>
+      </c>
+      <c r="D324" s="13" t="s">
+        <v>62</v>
+      </c>
+      <c r="E324" s="14" t="s">
+        <v>326</v>
+      </c>
+      <c r="F324" s="14">
+        <v>2500</v>
+      </c>
+    </row>
+    <row r="325" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A325" s="13" t="str">
+        <f>CONCATENATE("Tariff ",[1]Tariff!C325," ",[1]Tariff!D325," - ", [1]Tariff!E325)</f>
+        <v>Tariff BASIC DIAGNOSTIC IMAGING Pelvic X-rays - tier2</v>
+      </c>
+      <c r="B325" s="12">
+        <v>20</v>
+      </c>
+      <c r="C325" s="13" t="s">
+        <v>54</v>
+      </c>
+      <c r="D325" s="13" t="s">
+        <v>63</v>
+      </c>
+      <c r="E325" s="14" t="s">
+        <v>326</v>
+      </c>
+      <c r="F325" s="14">
+        <v>2500</v>
+      </c>
+    </row>
+    <row r="326" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A326" s="13" t="str">
+        <f>CONCATENATE("Tariff ",[1]Tariff!C326," ",[1]Tariff!D326," - ", [1]Tariff!E326)</f>
+        <v>Tariff BASIC DIAGNOSTIC IMAGING Thoracic Inlet X-rays - tier2</v>
+      </c>
+      <c r="B326" s="12">
+        <v>20</v>
+      </c>
+      <c r="C326" s="13" t="s">
+        <v>54</v>
+      </c>
+      <c r="D326" s="13" t="s">
+        <v>64</v>
+      </c>
+      <c r="E326" s="14" t="s">
+        <v>326</v>
+      </c>
+      <c r="F326" s="14">
+        <v>2500</v>
+      </c>
+    </row>
+    <row r="327" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A327" s="13" t="str">
+        <f>CONCATENATE("Tariff ",[1]Tariff!C327," ",[1]Tariff!D327," - ", [1]Tariff!E327)</f>
+        <v>Tariff BASIC DIAGNOSTIC IMAGING Thoraco-Lumbar X-rays - tier2</v>
+      </c>
+      <c r="B327" s="12">
+        <v>20</v>
+      </c>
+      <c r="C327" s="13" t="s">
+        <v>54</v>
+      </c>
+      <c r="D327" s="13" t="s">
+        <v>65</v>
+      </c>
+      <c r="E327" s="14" t="s">
+        <v>326</v>
+      </c>
+      <c r="F327" s="14">
+        <v>2500</v>
+      </c>
+    </row>
+    <row r="328" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A328" s="13" t="str">
+        <f>CONCATENATE("Tariff ",[1]Tariff!C328," ",[1]Tariff!D328," - ", [1]Tariff!E328)</f>
+        <v>Tariff BASIC DIAGNOSTIC IMAGING Lumbosacral X-Rays - tier2</v>
+      </c>
+      <c r="B328" s="12">
+        <v>20</v>
+      </c>
+      <c r="C328" s="13" t="s">
+        <v>54</v>
+      </c>
+      <c r="D328" s="13" t="s">
+        <v>66</v>
+      </c>
+      <c r="E328" s="14" t="s">
+        <v>326</v>
+      </c>
+      <c r="F328" s="14">
+        <v>2500</v>
+      </c>
+    </row>
+    <row r="329" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="A329" s="13" t="str">
+        <f>CONCATENATE("Tariff ",[1]Tariff!C329," ",[1]Tariff!D329," - ", [1]Tariff!E329)</f>
+        <v>Tariff BASIC DIAGNOSTIC IMAGING Mandibles/Temporomandibular Joint X-Rays - tier2</v>
+      </c>
+      <c r="B329" s="12">
+        <v>20</v>
+      </c>
+      <c r="C329" s="13" t="s">
+        <v>54</v>
+      </c>
+      <c r="D329" s="13" t="s">
+        <v>67</v>
+      </c>
+      <c r="E329" s="14" t="s">
+        <v>326</v>
+      </c>
+      <c r="F329" s="14">
+        <v>2500</v>
+      </c>
+    </row>
+    <row r="330" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A330" s="13" t="str">
+        <f>CONCATENATE("Tariff ",[1]Tariff!C330," ",[1]Tariff!D330," - ", [1]Tariff!E330)</f>
+        <v>Tariff BASIC DIAGNOSTIC IMAGING X-rays of All Body Joints - tier2</v>
+      </c>
+      <c r="B330" s="12">
+        <v>20</v>
+      </c>
+      <c r="C330" s="13" t="s">
+        <v>54</v>
+      </c>
+      <c r="D330" s="13" t="s">
+        <v>68</v>
+      </c>
+      <c r="E330" s="14" t="s">
+        <v>326</v>
+      </c>
+      <c r="F330" s="14">
+        <v>2500</v>
+      </c>
+    </row>
+    <row r="331" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A331" s="13" t="str">
+        <f>CONCATENATE("Tariff ",[1]Tariff!C331," ",[1]Tariff!D331," - ", [1]Tariff!E331)</f>
+        <v>Tariff BASIC DIAGNOSTIC IMAGING Ultrasound Scan - tier2</v>
+      </c>
+      <c r="B331" s="12">
+        <v>20</v>
+      </c>
+      <c r="C331" s="13" t="s">
+        <v>54</v>
+      </c>
+      <c r="D331" s="13" t="s">
+        <v>69</v>
+      </c>
+      <c r="E331" s="14" t="s">
+        <v>326</v>
+      </c>
+      <c r="F331" s="14">
+        <v>8000</v>
+      </c>
+    </row>
+    <row r="332" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="A332" s="13" t="str">
+        <f>CONCATENATE("Tariff ",[1]Tariff!C332," ",[1]Tariff!D332," - ", [1]Tariff!E332)</f>
+        <v>Tariff ADVANCED DIAGNOSTIC IMAGING Doppler Ultrasound Scan - tier2</v>
+      </c>
+      <c r="B332" s="12">
+        <v>20</v>
+      </c>
+      <c r="C332" s="13" t="s">
+        <v>70</v>
+      </c>
+      <c r="D332" s="13" t="s">
+        <v>71</v>
+      </c>
+      <c r="E332" s="14" t="s">
+        <v>326</v>
+      </c>
+      <c r="F332" s="14">
+        <v>40000</v>
+      </c>
+    </row>
+    <row r="333" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="A333" s="13" t="str">
+        <f>CONCATENATE("Tariff ",[1]Tariff!C333," ",[1]Tariff!D333," - ", [1]Tariff!E333)</f>
+        <v>Tariff ADVANCED DIAGNOSTIC IMAGING ECG (PRE AND POST EXERCISE) - tier2</v>
+      </c>
+      <c r="B333" s="12">
+        <v>20</v>
+      </c>
+      <c r="C333" s="13" t="s">
+        <v>70</v>
+      </c>
+      <c r="D333" s="13" t="s">
+        <v>72</v>
+      </c>
+      <c r="E333" s="14" t="s">
+        <v>326</v>
+      </c>
+      <c r="F333" s="14">
+        <v>40000</v>
+      </c>
+    </row>
+    <row r="334" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="A334" s="13" t="str">
+        <f>CONCATENATE("Tariff ",[1]Tariff!C334," ",[1]Tariff!D334," - ", [1]Tariff!E334)</f>
+        <v>Tariff ADVANCED DIAGNOSTIC IMAGING CT Scan - tier2</v>
+      </c>
+      <c r="B334" s="12">
+        <v>20</v>
+      </c>
+      <c r="C334" s="13" t="s">
+        <v>70</v>
+      </c>
+      <c r="D334" s="13" t="s">
+        <v>73</v>
+      </c>
+      <c r="E334" s="14" t="s">
+        <v>326</v>
+      </c>
+      <c r="F334" s="14">
+        <v>40000</v>
+      </c>
+    </row>
+    <row r="335" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="A335" s="13" t="str">
+        <f>CONCATENATE("Tariff ",[1]Tariff!C335," ",[1]Tariff!D335," - ", [1]Tariff!E335)</f>
+        <v>Tariff ADVANCED DIAGNOSTIC IMAGING MRI - tier2</v>
+      </c>
+      <c r="B335" s="12">
+        <v>20</v>
+      </c>
+      <c r="C335" s="13" t="s">
+        <v>70</v>
+      </c>
+      <c r="D335" s="13" t="s">
+        <v>74</v>
+      </c>
+      <c r="E335" s="14" t="s">
+        <v>326</v>
+      </c>
+      <c r="F335" s="14">
+        <v>40000</v>
+      </c>
+    </row>
+    <row r="336" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="A336" s="13" t="str">
+        <f>CONCATENATE("Tariff ",[1]Tariff!C336," ",[1]Tariff!D336," - ", [1]Tariff!E336)</f>
+        <v>Tariff ADVANCED DIAGNOSTIC IMAGING Echocardiography - tier2</v>
+      </c>
+      <c r="B336" s="12">
+        <v>20</v>
+      </c>
+      <c r="C336" s="13" t="s">
+        <v>70</v>
+      </c>
+      <c r="D336" s="13" t="s">
+        <v>75</v>
+      </c>
+      <c r="E336" s="14" t="s">
+        <v>326</v>
+      </c>
+      <c r="F336" s="14">
+        <v>40000</v>
+      </c>
+    </row>
+    <row r="337" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="A337" s="13" t="str">
+        <f>CONCATENATE("Tariff ",[1]Tariff!C337," ",[1]Tariff!D337," - ", [1]Tariff!E337)</f>
+        <v>Tariff ADVANCED DIAGNOSTIC IMAGING Proctoscopy - tier2</v>
+      </c>
+      <c r="B337" s="12">
+        <v>20</v>
+      </c>
+      <c r="C337" s="13" t="s">
+        <v>70</v>
+      </c>
+      <c r="D337" s="13" t="s">
+        <v>76</v>
+      </c>
+      <c r="E337" s="14" t="s">
+        <v>326</v>
+      </c>
+      <c r="F337" s="14">
+        <v>40000</v>
+      </c>
+    </row>
+    <row r="338" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="A338" s="13" t="str">
+        <f>CONCATENATE("Tariff ",[1]Tariff!C338," ",[1]Tariff!D338," - ", [1]Tariff!E338)</f>
+        <v>Tariff ADVANCED DIAGNOSTIC IMAGING Sigmoidoscopy - tier2</v>
+      </c>
+      <c r="B338" s="12">
+        <v>20</v>
+      </c>
+      <c r="C338" s="13" t="s">
+        <v>70</v>
+      </c>
+      <c r="D338" s="13" t="s">
+        <v>77</v>
+      </c>
+      <c r="E338" s="14" t="s">
+        <v>326</v>
+      </c>
+      <c r="F338" s="14">
+        <v>40000</v>
+      </c>
+    </row>
+    <row r="339" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="A339" s="13" t="str">
+        <f>CONCATENATE("Tariff ",[1]Tariff!C339," ",[1]Tariff!D339," - ", [1]Tariff!E339)</f>
+        <v>Tariff ADVANCED DIAGNOSTIC IMAGING Upper GI Endoscopy - tier2</v>
+      </c>
+      <c r="B339" s="12">
+        <v>20</v>
+      </c>
+      <c r="C339" s="13" t="s">
+        <v>70</v>
+      </c>
+      <c r="D339" s="13" t="s">
+        <v>78</v>
+      </c>
+      <c r="E339" s="14" t="s">
+        <v>326</v>
+      </c>
+      <c r="F339" s="14">
+        <v>40000</v>
+      </c>
+    </row>
+    <row r="340" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="A340" s="13" t="str">
+        <f>CONCATENATE("Tariff ",[1]Tariff!C340," ",[1]Tariff!D340," - ", [1]Tariff!E340)</f>
+        <v>Tariff ADVANCED DIAGNOSTIC IMAGING Endoscopic Ultrasound - tier2</v>
+      </c>
+      <c r="B340" s="12">
+        <v>20</v>
+      </c>
+      <c r="C340" s="13" t="s">
+        <v>70</v>
+      </c>
+      <c r="D340" s="13" t="s">
+        <v>79</v>
+      </c>
+      <c r="E340" s="14" t="s">
+        <v>326</v>
+      </c>
+      <c r="F340" s="14">
+        <v>40000</v>
+      </c>
+    </row>
+    <row r="341" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="A341" s="13" t="str">
+        <f>CONCATENATE("Tariff ",[1]Tariff!C341," ",[1]Tariff!D341," - ", [1]Tariff!E341)</f>
+        <v>Tariff ADVANCED DIAGNOSTIC IMAGING Endoscopic retrograde cholangiopancreatography - tier2</v>
+      </c>
+      <c r="B341" s="12">
+        <v>20</v>
+      </c>
+      <c r="C341" s="13" t="s">
+        <v>70</v>
+      </c>
+      <c r="D341" s="13" t="s">
+        <v>80</v>
+      </c>
+      <c r="E341" s="14" t="s">
+        <v>326</v>
+      </c>
+      <c r="F341" s="14">
+        <v>40000</v>
+      </c>
+    </row>
+    <row r="342" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="A342" s="13" t="str">
+        <f>CONCATENATE("Tariff ",[1]Tariff!C342," ",[1]Tariff!D342," - ", [1]Tariff!E342)</f>
+        <v>Tariff ADVANCED DIAGNOSTIC IMAGING Enteroscopy - tier2</v>
+      </c>
+      <c r="B342" s="12">
+        <v>20</v>
+      </c>
+      <c r="C342" s="13" t="s">
+        <v>70</v>
+      </c>
+      <c r="D342" s="13" t="s">
+        <v>81</v>
+      </c>
+      <c r="E342" s="14" t="s">
+        <v>326</v>
+      </c>
+      <c r="F342" s="14">
+        <v>40000</v>
+      </c>
+    </row>
+    <row r="343" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="A343" s="13" t="str">
+        <f>CONCATENATE("Tariff ",[1]Tariff!C343," ",[1]Tariff!D343," - ", [1]Tariff!E343)</f>
+        <v>Tariff ADVANCED DIAGNOSTIC IMAGING Gastroscopy - tier2</v>
+      </c>
+      <c r="B343" s="12">
+        <v>20</v>
+      </c>
+      <c r="C343" s="13" t="s">
+        <v>70</v>
+      </c>
+      <c r="D343" s="13" t="s">
+        <v>82</v>
+      </c>
+      <c r="E343" s="14" t="s">
+        <v>326</v>
+      </c>
+      <c r="F343" s="14">
+        <v>40000</v>
+      </c>
+    </row>
+    <row r="344" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="A344" s="13" t="str">
+        <f>CONCATENATE("Tariff ",[1]Tariff!C344," ",[1]Tariff!D344," - ", [1]Tariff!E344)</f>
+        <v>Tariff ADVANCED DIAGNOSTIC IMAGING Colonoscopy - tier2</v>
+      </c>
+      <c r="B344" s="12">
+        <v>20</v>
+      </c>
+      <c r="C344" s="13" t="s">
+        <v>70</v>
+      </c>
+      <c r="D344" s="13" t="s">
+        <v>83</v>
+      </c>
+      <c r="E344" s="14" t="s">
+        <v>326</v>
+      </c>
+      <c r="F344" s="14">
+        <v>40000</v>
+      </c>
+    </row>
+    <row r="345" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="A345" s="13" t="str">
+        <f>CONCATENATE("Tariff ",[1]Tariff!C345," ",[1]Tariff!D345," - ", [1]Tariff!E345)</f>
+        <v>Tariff ADVANCED DIAGNOSTIC IMAGING Laryngoscopy (Direct and Indirect) - tier2</v>
+      </c>
+      <c r="B345" s="12">
+        <v>20</v>
+      </c>
+      <c r="C345" s="13" t="s">
+        <v>70</v>
+      </c>
+      <c r="D345" s="13" t="s">
+        <v>84</v>
+      </c>
+      <c r="E345" s="14" t="s">
+        <v>326</v>
+      </c>
+      <c r="F345" s="14">
+        <v>40000</v>
+      </c>
+    </row>
+    <row r="346" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="A346" s="13" t="str">
+        <f>CONCATENATE("Tariff ",[1]Tariff!C346," ",[1]Tariff!D346," - ", [1]Tariff!E346)</f>
+        <v>Tariff ADVANCED DIAGNOSTIC IMAGING Bronchoscopy - tier2</v>
+      </c>
+      <c r="B346" s="12">
+        <v>20</v>
+      </c>
+      <c r="C346" s="13" t="s">
+        <v>70</v>
+      </c>
+      <c r="D346" s="13" t="s">
+        <v>85</v>
+      </c>
+      <c r="E346" s="14" t="s">
+        <v>326</v>
+      </c>
+      <c r="F346" s="14">
+        <v>40000</v>
+      </c>
+    </row>
+    <row r="347" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="A347" s="13" t="str">
+        <f>CONCATENATE("Tariff ",[1]Tariff!C347," ",[1]Tariff!D347," - ", [1]Tariff!E347)</f>
+        <v>Tariff ADVANCED DIAGNOSTIC IMAGING Thoracoscopy - tier2</v>
+      </c>
+      <c r="B347" s="12">
+        <v>20</v>
+      </c>
+      <c r="C347" s="13" t="s">
+        <v>70</v>
+      </c>
+      <c r="D347" s="13" t="s">
+        <v>86</v>
+      </c>
+      <c r="E347" s="14" t="s">
+        <v>326</v>
+      </c>
+      <c r="F347" s="14">
+        <v>40000</v>
+      </c>
+    </row>
+    <row r="348" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="A348" s="13" t="str">
+        <f>CONCATENATE("Tariff ",[1]Tariff!C348," ",[1]Tariff!D348," - ", [1]Tariff!E348)</f>
+        <v>Tariff ADVANCED DIAGNOSTIC IMAGING Hysteroscopy - tier2</v>
+      </c>
+      <c r="B348" s="12">
+        <v>20</v>
+      </c>
+      <c r="C348" s="13" t="s">
+        <v>70</v>
+      </c>
+      <c r="D348" s="13" t="s">
+        <v>87</v>
+      </c>
+      <c r="E348" s="14" t="s">
+        <v>326</v>
+      </c>
+      <c r="F348" s="14">
+        <v>40000</v>
+      </c>
+    </row>
+    <row r="349" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="A349" s="13" t="str">
+        <f>CONCATENATE("Tariff ",[1]Tariff!C349," ",[1]Tariff!D349," - ", [1]Tariff!E349)</f>
+        <v>Tariff ADVANCED DIAGNOSTIC IMAGING Cystoscopy - tier2</v>
+      </c>
+      <c r="B349" s="12">
+        <v>20</v>
+      </c>
+      <c r="C349" s="13" t="s">
+        <v>70</v>
+      </c>
+      <c r="D349" s="13" t="s">
+        <v>88</v>
+      </c>
+      <c r="E349" s="14" t="s">
+        <v>326</v>
+      </c>
+      <c r="F349" s="14">
+        <v>40000</v>
+      </c>
+    </row>
+    <row r="350" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="A350" s="13" t="str">
+        <f>CONCATENATE("Tariff ",[1]Tariff!C350," ",[1]Tariff!D350," - ", [1]Tariff!E350)</f>
+        <v>Tariff ADVANCED DIAGNOSTIC IMAGING Laparoscopy - tier2</v>
+      </c>
+      <c r="B350" s="12">
+        <v>20</v>
+      </c>
+      <c r="C350" s="13" t="s">
+        <v>70</v>
+      </c>
+      <c r="D350" s="13" t="s">
+        <v>89</v>
+      </c>
+      <c r="E350" s="14" t="s">
+        <v>326</v>
+      </c>
+      <c r="F350" s="14">
+        <v>40000</v>
+      </c>
+    </row>
+    <row r="351" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="A351" s="13" t="str">
+        <f>CONCATENATE("Tariff ",[1]Tariff!C351," ",[1]Tariff!D351," - ", [1]Tariff!E351)</f>
+        <v>Tariff ADVANCED DIAGNOSTIC IMAGING Arthroscopy - tier2</v>
+      </c>
+      <c r="B351" s="12">
+        <v>20</v>
+      </c>
+      <c r="C351" s="13" t="s">
+        <v>70</v>
+      </c>
+      <c r="D351" s="13" t="s">
+        <v>90</v>
+      </c>
+      <c r="E351" s="14" t="s">
+        <v>326</v>
+      </c>
+      <c r="F351" s="14">
+        <v>40000</v>
+      </c>
+    </row>
+    <row r="352" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A352" s="13" t="str">
+        <f>CONCATENATE("Tariff ",[1]Tariff!C352," ",[1]Tariff!D352," - ", [1]Tariff!E352)</f>
+        <v>Tariff HEMATOLOGICAL TESTS Hemoglobin (HB) - tier2</v>
+      </c>
+      <c r="B352" s="12">
+        <v>20</v>
+      </c>
+      <c r="C352" s="13" t="s">
+        <v>91</v>
+      </c>
+      <c r="D352" s="13" t="s">
+        <v>92</v>
+      </c>
+      <c r="E352" s="14" t="s">
+        <v>326</v>
+      </c>
+      <c r="F352" s="14">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="353" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A353" s="13" t="str">
+        <f>CONCATENATE("Tariff ",[1]Tariff!C353," ",[1]Tariff!D353," - ", [1]Tariff!E353)</f>
+        <v>Tariff HEMATOLOGICAL TESTS Packed Cell Volume (PCV) - tier2</v>
+      </c>
+      <c r="B353" s="12">
+        <v>20</v>
+      </c>
+      <c r="C353" s="13" t="s">
+        <v>91</v>
+      </c>
+      <c r="D353" s="13" t="s">
+        <v>93</v>
+      </c>
+      <c r="E353" s="14" t="s">
+        <v>326</v>
+      </c>
+      <c r="F353" s="14">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="354" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A354" s="13" t="str">
+        <f>CONCATENATE("Tariff ",[1]Tariff!C354," ",[1]Tariff!D354," - ", [1]Tariff!E354)</f>
+        <v>Tariff HEMATOLOGICAL TESTS White cell count (Total and Differential) - tier2</v>
+      </c>
+      <c r="B354" s="12">
+        <v>20</v>
+      </c>
+      <c r="C354" s="13" t="s">
+        <v>91</v>
+      </c>
+      <c r="D354" s="13" t="s">
+        <v>94</v>
+      </c>
+      <c r="E354" s="14" t="s">
+        <v>326</v>
+      </c>
+      <c r="F354" s="14">
+        <v>800</v>
+      </c>
+    </row>
+    <row r="355" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A355" s="13" t="str">
+        <f>CONCATENATE("Tariff ",[1]Tariff!C355," ",[1]Tariff!D355," - ", [1]Tariff!E355)</f>
+        <v>Tariff HEMATOLOGICAL TESTS Full Blood Count and differentials (FBC) - tier2</v>
+      </c>
+      <c r="B355" s="12">
+        <v>20</v>
+      </c>
+      <c r="C355" s="13" t="s">
+        <v>91</v>
+      </c>
+      <c r="D355" s="13" t="s">
+        <v>95</v>
+      </c>
+      <c r="E355" s="14" t="s">
+        <v>326</v>
+      </c>
+      <c r="F355" s="14">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="356" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A356" s="13" t="str">
+        <f>CONCATENATE("Tariff ",[1]Tariff!C356," ",[1]Tariff!D356," - ", [1]Tariff!E356)</f>
+        <v>Tariff HEMATOLOGICAL TESTS White Blood Cell count - tier2</v>
+      </c>
+      <c r="B356" s="12">
+        <v>20</v>
+      </c>
+      <c r="C356" s="13" t="s">
+        <v>91</v>
+      </c>
+      <c r="D356" s="13" t="s">
+        <v>96</v>
+      </c>
+      <c r="E356" s="14" t="s">
+        <v>326</v>
+      </c>
+      <c r="F356" s="14">
+        <v>800</v>
+      </c>
+    </row>
+    <row r="357" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A357" s="13" t="str">
+        <f>CONCATENATE("Tariff ",[1]Tariff!C357," ",[1]Tariff!D357," - ", [1]Tariff!E357)</f>
+        <v>Tariff HEMATOLOGICAL TESTS Red Blood Cell/Reticulocyte count - tier2</v>
+      </c>
+      <c r="B357" s="12">
+        <v>20</v>
+      </c>
+      <c r="C357" s="13" t="s">
+        <v>91</v>
+      </c>
+      <c r="D357" s="13" t="s">
+        <v>97</v>
+      </c>
+      <c r="E357" s="14" t="s">
+        <v>326</v>
+      </c>
+      <c r="F357" s="14">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="358" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A358" s="13" t="str">
+        <f>CONCATENATE("Tariff ",[1]Tariff!C358," ",[1]Tariff!D358," - ", [1]Tariff!E358)</f>
+        <v>Tariff HEMATOLOGICAL TESTS Grouping and Cross Matching - tier2</v>
+      </c>
+      <c r="B358" s="12">
+        <v>20</v>
+      </c>
+      <c r="C358" s="13" t="s">
+        <v>91</v>
+      </c>
+      <c r="D358" s="13" t="s">
+        <v>98</v>
+      </c>
+      <c r="E358" s="14" t="s">
+        <v>326</v>
+      </c>
+      <c r="F358" s="14">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="359" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A359" s="13" t="str">
+        <f>CONCATENATE("Tariff ",[1]Tariff!C359," ",[1]Tariff!D359," - ", [1]Tariff!E359)</f>
+        <v>Tariff HEMATOLOGICAL TESTS Genotype (on request by clinician) - tier2</v>
+      </c>
+      <c r="B359" s="12">
+        <v>20</v>
+      </c>
+      <c r="C359" s="13" t="s">
+        <v>91</v>
+      </c>
+      <c r="D359" s="13" t="s">
+        <v>99</v>
+      </c>
+      <c r="E359" s="14" t="s">
+        <v>326</v>
+      </c>
+      <c r="F359" s="14">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="360" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A360" s="13" t="str">
+        <f>CONCATENATE("Tariff ",[1]Tariff!C360," ",[1]Tariff!D360," - ", [1]Tariff!E360)</f>
+        <v>Tariff HEMATOLOGICAL TESTS Blood group (on request by clinician) - tier2</v>
+      </c>
+      <c r="B360" s="12">
+        <v>20</v>
+      </c>
+      <c r="C360" s="13" t="s">
+        <v>91</v>
+      </c>
+      <c r="D360" s="13" t="s">
+        <v>100</v>
+      </c>
+      <c r="E360" s="14" t="s">
+        <v>326</v>
+      </c>
+      <c r="F360" s="14">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="361" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A361" s="13" t="str">
+        <f>CONCATENATE("Tariff ",[1]Tariff!C361," ",[1]Tariff!D361," - ", [1]Tariff!E361)</f>
+        <v>Tariff HEMATOLOGICAL TESTS Erythrocyte Sedimentation Rate (ESR) - tier2</v>
+      </c>
+      <c r="B361" s="12">
+        <v>20</v>
+      </c>
+      <c r="C361" s="13" t="s">
+        <v>91</v>
+      </c>
+      <c r="D361" s="13" t="s">
+        <v>101</v>
+      </c>
+      <c r="E361" s="14" t="s">
+        <v>326</v>
+      </c>
+      <c r="F361" s="14">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="362" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A362" s="13" t="str">
+        <f>CONCATENATE("Tariff ",[1]Tariff!C362," ",[1]Tariff!D362," - ", [1]Tariff!E362)</f>
+        <v>Tariff HEMATOLOGICAL TESTS MCHC - tier2</v>
+      </c>
+      <c r="B362" s="12">
+        <v>20</v>
+      </c>
+      <c r="C362" s="13" t="s">
+        <v>91</v>
+      </c>
+      <c r="D362" s="13" t="s">
+        <v>102</v>
+      </c>
+      <c r="E362" s="14" t="s">
+        <v>326</v>
+      </c>
+      <c r="F362" s="14">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="363" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A363" s="13" t="str">
+        <f>CONCATENATE("Tariff ",[1]Tariff!C363," ",[1]Tariff!D363," - ", [1]Tariff!E363)</f>
+        <v>Tariff HEMATOLOGICAL TESTS MCH - tier2</v>
+      </c>
+      <c r="B363" s="12">
+        <v>20</v>
+      </c>
+      <c r="C363" s="13" t="s">
+        <v>91</v>
+      </c>
+      <c r="D363" s="13" t="s">
+        <v>103</v>
+      </c>
+      <c r="E363" s="14" t="s">
+        <v>326</v>
+      </c>
+      <c r="F363" s="14">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="364" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A364" s="13" t="str">
+        <f>CONCATENATE("Tariff ",[1]Tariff!C364," ",[1]Tariff!D364," - ", [1]Tariff!E364)</f>
+        <v>Tariff HEMATOLOGICAL TESTS MCV - tier2</v>
+      </c>
+      <c r="B364" s="12">
+        <v>20</v>
+      </c>
+      <c r="C364" s="13" t="s">
+        <v>91</v>
+      </c>
+      <c r="D364" s="13" t="s">
+        <v>104</v>
+      </c>
+      <c r="E364" s="14" t="s">
+        <v>326</v>
+      </c>
+      <c r="F364" s="14">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="365" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A365" s="13" t="str">
+        <f>CONCATENATE("Tariff ",[1]Tariff!C365," ",[1]Tariff!D365," - ", [1]Tariff!E365)</f>
+        <v>Tariff HEMATOLOGICAL TESTS Blood Film - tier2</v>
+      </c>
+      <c r="B365" s="12">
+        <v>20</v>
+      </c>
+      <c r="C365" s="13" t="s">
+        <v>91</v>
+      </c>
+      <c r="D365" s="13" t="s">
+        <v>105</v>
+      </c>
+      <c r="E365" s="14" t="s">
+        <v>326</v>
+      </c>
+      <c r="F365" s="14">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="366" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A366" s="13" t="str">
+        <f>CONCATENATE("Tariff ",[1]Tariff!C366," ",[1]Tariff!D366," - ", [1]Tariff!E366)</f>
+        <v>Tariff HEMATOLOGICAL TESTS Blood Pregnancy (Beta HCG) Test - tier2</v>
+      </c>
+      <c r="B366" s="12">
+        <v>20</v>
+      </c>
+      <c r="C366" s="13" t="s">
+        <v>91</v>
+      </c>
+      <c r="D366" s="13" t="s">
+        <v>106</v>
+      </c>
+      <c r="E366" s="14" t="s">
+        <v>326</v>
+      </c>
+      <c r="F366" s="14">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="367" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A367" s="13" t="str">
+        <f>CONCATENATE("Tariff ",[1]Tariff!C367," ",[1]Tariff!D367," - ", [1]Tariff!E367)</f>
+        <v>Tariff CHEMISTRY INVESTIGATIONS Fasting Blood Sugar - tier2</v>
+      </c>
+      <c r="B367" s="12">
+        <v>20</v>
+      </c>
+      <c r="C367" s="13" t="s">
+        <v>107</v>
+      </c>
+      <c r="D367" s="13" t="s">
+        <v>108</v>
+      </c>
+      <c r="E367" s="14" t="s">
+        <v>326</v>
+      </c>
+      <c r="F367" s="14">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="368" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A368" s="13" t="str">
+        <f>CONCATENATE("Tariff ",[1]Tariff!C368," ",[1]Tariff!D368," - ", [1]Tariff!E368)</f>
+        <v>Tariff CHEMISTRY INVESTIGATIONS Random Blood Sugar - tier2</v>
+      </c>
+      <c r="B368" s="12">
+        <v>20</v>
+      </c>
+      <c r="C368" s="13" t="s">
+        <v>107</v>
+      </c>
+      <c r="D368" s="13" t="s">
+        <v>109</v>
+      </c>
+      <c r="E368" s="14" t="s">
+        <v>326</v>
+      </c>
+      <c r="F368" s="14">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="369" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A369" s="13" t="str">
+        <f>CONCATENATE("Tariff ",[1]Tariff!C369," ",[1]Tariff!D369," - ", [1]Tariff!E369)</f>
+        <v>Tariff CHEMISTRY INVESTIGATIONS 2 Hours Post-prandial Blood Sugar - tier2</v>
+      </c>
+      <c r="B369" s="12">
+        <v>20</v>
+      </c>
+      <c r="C369" s="13" t="s">
+        <v>107</v>
+      </c>
+      <c r="D369" s="13" t="s">
+        <v>110</v>
+      </c>
+      <c r="E369" s="14" t="s">
+        <v>326</v>
+      </c>
+      <c r="F369" s="14">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="370" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A370" s="13" t="str">
+        <f>CONCATENATE("Tariff ",[1]Tariff!C370," ",[1]Tariff!D370," - ", [1]Tariff!E370)</f>
+        <v>Tariff CHEMISTRY INVESTIGATIONS Oral Glucose Tolerance Test (OGTT) - tier2</v>
+      </c>
+      <c r="B370" s="12">
+        <v>20</v>
+      </c>
+      <c r="C370" s="13" t="s">
+        <v>107</v>
+      </c>
+      <c r="D370" s="13" t="s">
+        <v>111</v>
+      </c>
+      <c r="E370" s="14" t="s">
+        <v>326</v>
+      </c>
+      <c r="F370" s="14">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="371" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A371" s="13" t="str">
+        <f>CONCATENATE("Tariff ",[1]Tariff!C371," ",[1]Tariff!D371," - ", [1]Tariff!E371)</f>
+        <v>Tariff CHEMISTRY INVESTIGATIONS Glucose Challenge Test - tier2</v>
+      </c>
+      <c r="B371" s="12">
+        <v>20</v>
+      </c>
+      <c r="C371" s="13" t="s">
+        <v>107</v>
+      </c>
+      <c r="D371" s="13" t="s">
+        <v>112</v>
+      </c>
+      <c r="E371" s="14" t="s">
+        <v>326</v>
+      </c>
+      <c r="F371" s="14">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="372" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A372" s="13" t="str">
+        <f>CONCATENATE("Tariff ",[1]Tariff!C372," ",[1]Tariff!D372," - ", [1]Tariff!E372)</f>
+        <v>Tariff CHEMISTRY INVESTIGATIONS Electrolytes, Urea and Creatinine - tier2</v>
+      </c>
+      <c r="B372" s="12">
+        <v>20</v>
+      </c>
+      <c r="C372" s="13" t="s">
+        <v>107</v>
+      </c>
+      <c r="D372" s="13" t="s">
+        <v>113</v>
+      </c>
+      <c r="E372" s="14" t="s">
+        <v>326</v>
+      </c>
+      <c r="F372" s="14">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="373" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="A373" s="13" t="str">
+        <f>CONCATENATE("Tariff ",[1]Tariff!C373," ",[1]Tariff!D373," - ", [1]Tariff!E373)</f>
+        <v>Tariff CHEMISTRY INVESTIGATIONS Lipid Profile (Fasting) (HDL, LDL, Triglyceride) - tier2</v>
+      </c>
+      <c r="B373" s="12">
+        <v>20</v>
+      </c>
+      <c r="C373" s="13" t="s">
+        <v>107</v>
+      </c>
+      <c r="D373" s="13" t="s">
+        <v>114</v>
+      </c>
+      <c r="E373" s="14" t="s">
+        <v>326</v>
+      </c>
+      <c r="F373" s="14">
+        <v>3500</v>
+      </c>
+    </row>
+    <row r="374" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A374" s="13" t="str">
+        <f>CONCATENATE("Tariff ",[1]Tariff!C374," ",[1]Tariff!D374," - ", [1]Tariff!E374)</f>
+        <v>Tariff CHEMISTRY INVESTIGATIONS Liver Function Test (LFT) - tier2</v>
+      </c>
+      <c r="B374" s="12">
+        <v>20</v>
+      </c>
+      <c r="C374" s="13" t="s">
+        <v>107</v>
+      </c>
+      <c r="D374" s="13" t="s">
+        <v>115</v>
+      </c>
+      <c r="E374" s="14" t="s">
+        <v>326</v>
+      </c>
+      <c r="F374" s="14">
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="375" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A375" s="13" t="str">
+        <f>CONCATENATE("Tariff ",[1]Tariff!C375," ",[1]Tariff!D375," - ", [1]Tariff!E375)</f>
+        <v>Tariff CHEMISTRY INVESTIGATIONS Serum ALT/SGPT - tier2</v>
+      </c>
+      <c r="B375" s="12">
+        <v>20</v>
+      </c>
+      <c r="C375" s="13" t="s">
+        <v>107</v>
+      </c>
+      <c r="D375" s="13" t="s">
+        <v>116</v>
+      </c>
+      <c r="E375" s="14" t="s">
+        <v>326</v>
+      </c>
+      <c r="F375" s="14">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="376" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A376" s="13" t="str">
+        <f>CONCATENATE("Tariff ",[1]Tariff!C376," ",[1]Tariff!D376," - ", [1]Tariff!E376)</f>
+        <v>Tariff CHEMISTRY INVESTIGATIONS Serum AST/SGOT - tier2</v>
+      </c>
+      <c r="B376" s="12">
+        <v>20</v>
+      </c>
+      <c r="C376" s="13" t="s">
+        <v>107</v>
+      </c>
+      <c r="D376" s="13" t="s">
+        <v>117</v>
+      </c>
+      <c r="E376" s="14" t="s">
+        <v>326</v>
+      </c>
+      <c r="F376" s="14">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="377" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A377" s="13" t="str">
+        <f>CONCATENATE("Tariff ",[1]Tariff!C377," ",[1]Tariff!D377," - ", [1]Tariff!E377)</f>
+        <v>Tariff CHEMISTRY INVESTIGATIONS Serum Sodium - tier2</v>
+      </c>
+      <c r="B377" s="12">
+        <v>20</v>
+      </c>
+      <c r="C377" s="13" t="s">
+        <v>107</v>
+      </c>
+      <c r="D377" s="13" t="s">
+        <v>118</v>
+      </c>
+      <c r="E377" s="14" t="s">
+        <v>326</v>
+      </c>
+      <c r="F377" s="14">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="378" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A378" s="13" t="str">
+        <f>CONCATENATE("Tariff ",[1]Tariff!C378," ",[1]Tariff!D378," - ", [1]Tariff!E378)</f>
+        <v>Tariff CHEMISTRY INVESTIGATIONS Serum Calcium - tier2</v>
+      </c>
+      <c r="B378" s="12">
+        <v>20</v>
+      </c>
+      <c r="C378" s="13" t="s">
+        <v>107</v>
+      </c>
+      <c r="D378" s="13" t="s">
+        <v>119</v>
+      </c>
+      <c r="E378" s="14" t="s">
+        <v>326</v>
+      </c>
+      <c r="F378" s="14">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="379" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A379" s="13" t="str">
+        <f>CONCATENATE("Tariff ",[1]Tariff!C379," ",[1]Tariff!D379," - ", [1]Tariff!E379)</f>
+        <v>Tariff CHEMISTRY INVESTIGATIONS Serum Magnesium - tier2</v>
+      </c>
+      <c r="B379" s="12">
+        <v>20</v>
+      </c>
+      <c r="C379" s="13" t="s">
+        <v>107</v>
+      </c>
+      <c r="D379" s="13" t="s">
+        <v>120</v>
+      </c>
+      <c r="E379" s="14" t="s">
+        <v>326</v>
+      </c>
+      <c r="F379" s="14">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="380" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A380" s="13" t="str">
+        <f>CONCATENATE("Tariff ",[1]Tariff!C380," ",[1]Tariff!D380," - ", [1]Tariff!E380)</f>
+        <v>Tariff CHEMISTRY INVESTIGATIONS Serum Potasium - tier2</v>
+      </c>
+      <c r="B380" s="12">
+        <v>20</v>
+      </c>
+      <c r="C380" s="13" t="s">
+        <v>107</v>
+      </c>
+      <c r="D380" s="13" t="s">
+        <v>121</v>
+      </c>
+      <c r="E380" s="14" t="s">
+        <v>326</v>
+      </c>
+      <c r="F380" s="14">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="381" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A381" s="13" t="str">
+        <f>CONCATENATE("Tariff ",[1]Tariff!C381," ",[1]Tariff!D381," - ", [1]Tariff!E381)</f>
+        <v>Tariff CHEMISTRY INVESTIGATIONS Serum Lithium - tier2</v>
+      </c>
+      <c r="B381" s="12">
+        <v>20</v>
+      </c>
+      <c r="C381" s="13" t="s">
+        <v>107</v>
+      </c>
+      <c r="D381" s="13" t="s">
+        <v>122</v>
+      </c>
+      <c r="E381" s="14" t="s">
+        <v>326</v>
+      </c>
+      <c r="F381" s="14">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="382" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A382" s="13" t="str">
+        <f>CONCATENATE("Tariff ",[1]Tariff!C382," ",[1]Tariff!D382," - ", [1]Tariff!E382)</f>
+        <v>Tariff CHEMISTRY INVESTIGATIONS Serum Chloride - tier2</v>
+      </c>
+      <c r="B382" s="12">
+        <v>20</v>
+      </c>
+      <c r="C382" s="13" t="s">
+        <v>107</v>
+      </c>
+      <c r="D382" s="13" t="s">
+        <v>123</v>
+      </c>
+      <c r="E382" s="14" t="s">
+        <v>326</v>
+      </c>
+      <c r="F382" s="14">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="383" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A383" s="13" t="str">
+        <f>CONCATENATE("Tariff ",[1]Tariff!C383," ",[1]Tariff!D383," - ", [1]Tariff!E383)</f>
+        <v>Tariff CHEMISTRY INVESTIGATIONS Serum Bicarbonate - tier2</v>
+      </c>
+      <c r="B383" s="12">
+        <v>20</v>
+      </c>
+      <c r="C383" s="13" t="s">
+        <v>107</v>
+      </c>
+      <c r="D383" s="13" t="s">
+        <v>124</v>
+      </c>
+      <c r="E383" s="14" t="s">
+        <v>326</v>
+      </c>
+      <c r="F383" s="14">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="384" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A384" s="13" t="str">
+        <f>CONCATENATE("Tariff ",[1]Tariff!C384," ",[1]Tariff!D384," - ", [1]Tariff!E384)</f>
+        <v>Tariff CHEMISTRY INVESTIGATIONS Serum Alkaline Phosphate - tier2</v>
+      </c>
+      <c r="B384" s="12">
+        <v>20</v>
+      </c>
+      <c r="C384" s="13" t="s">
+        <v>107</v>
+      </c>
+      <c r="D384" s="13" t="s">
+        <v>125</v>
+      </c>
+      <c r="E384" s="14" t="s">
+        <v>326</v>
+      </c>
+      <c r="F384" s="14">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="385" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A385" s="13" t="str">
+        <f>CONCATENATE("Tariff ",[1]Tariff!C385," ",[1]Tariff!D385," - ", [1]Tariff!E385)</f>
+        <v>Tariff CHEMISTRY INVESTIGATIONS Serum Acid Phosphate - tier2</v>
+      </c>
+      <c r="B385" s="12">
+        <v>20</v>
+      </c>
+      <c r="C385" s="13" t="s">
+        <v>107</v>
+      </c>
+      <c r="D385" s="13" t="s">
+        <v>126</v>
+      </c>
+      <c r="E385" s="14" t="s">
+        <v>326</v>
+      </c>
+      <c r="F385" s="14">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="386" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A386" s="13" t="str">
+        <f>CONCATENATE("Tariff ",[1]Tariff!C386," ",[1]Tariff!D386," - ", [1]Tariff!E386)</f>
+        <v>Tariff CHEMISTRY INVESTIGATIONS Serum Inorganic Phosphate - tier2</v>
+      </c>
+      <c r="B386" s="12">
+        <v>20</v>
+      </c>
+      <c r="C386" s="13" t="s">
+        <v>107</v>
+      </c>
+      <c r="D386" s="13" t="s">
+        <v>127</v>
+      </c>
+      <c r="E386" s="14" t="s">
+        <v>326</v>
+      </c>
+      <c r="F386" s="14">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="387" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A387" s="13" t="str">
+        <f>CONCATENATE("Tariff ",[1]Tariff!C387," ",[1]Tariff!D387," - ", [1]Tariff!E387)</f>
+        <v>Tariff CHEMISTRY INVESTIGATIONS Serum Bilirubin (Total and Direct) - tier2</v>
+      </c>
+      <c r="B387" s="12">
+        <v>20</v>
+      </c>
+      <c r="C387" s="13" t="s">
+        <v>107</v>
+      </c>
+      <c r="D387" s="13" t="s">
+        <v>128</v>
+      </c>
+      <c r="E387" s="14" t="s">
+        <v>326</v>
+      </c>
+      <c r="F387" s="14">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="388" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A388" s="13" t="str">
+        <f>CONCATENATE("Tariff ",[1]Tariff!C388," ",[1]Tariff!D388," - ", [1]Tariff!E388)</f>
+        <v>Tariff CHEMISTRY INVESTIGATIONS Serum Albumin - tier2</v>
+      </c>
+      <c r="B388" s="12">
+        <v>20</v>
+      </c>
+      <c r="C388" s="13" t="s">
+        <v>107</v>
+      </c>
+      <c r="D388" s="13" t="s">
+        <v>129</v>
+      </c>
+      <c r="E388" s="14" t="s">
+        <v>326</v>
+      </c>
+      <c r="F388" s="14">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="389" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A389" s="13" t="str">
+        <f>CONCATENATE("Tariff ",[1]Tariff!C389," ",[1]Tariff!D389," - ", [1]Tariff!E389)</f>
+        <v>Tariff CHEMISTRY INVESTIGATIONS Serum Lactate Dehydrogenase - tier2</v>
+      </c>
+      <c r="B389" s="12">
+        <v>20</v>
+      </c>
+      <c r="C389" s="13" t="s">
+        <v>107</v>
+      </c>
+      <c r="D389" s="13" t="s">
+        <v>130</v>
+      </c>
+      <c r="E389" s="14" t="s">
+        <v>326</v>
+      </c>
+      <c r="F389" s="14">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="390" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A390" s="13" t="str">
+        <f>CONCATENATE("Tariff ",[1]Tariff!C390," ",[1]Tariff!D390," - ", [1]Tariff!E390)</f>
+        <v>Tariff CHEMISTRY INVESTIGATIONS Serum Gamma Glutamyl Transferase - tier2</v>
+      </c>
+      <c r="B390" s="12">
+        <v>20</v>
+      </c>
+      <c r="C390" s="13" t="s">
+        <v>107</v>
+      </c>
+      <c r="D390" s="13" t="s">
+        <v>131</v>
+      </c>
+      <c r="E390" s="14" t="s">
+        <v>326</v>
+      </c>
+      <c r="F390" s="14">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="391" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A391" s="13" t="str">
+        <f>CONCATENATE("Tariff ",[1]Tariff!C391," ",[1]Tariff!D391," - ", [1]Tariff!E391)</f>
+        <v>Tariff CHEMISTRY INVESTIGATIONS Prothrombin time (PT/INR) - tier2</v>
+      </c>
+      <c r="B391" s="12">
+        <v>20</v>
+      </c>
+      <c r="C391" s="13" t="s">
+        <v>107</v>
+      </c>
+      <c r="D391" s="13" t="s">
+        <v>132</v>
+      </c>
+      <c r="E391" s="14" t="s">
+        <v>326</v>
+      </c>
+      <c r="F391" s="14">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="392" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A392" s="13" t="str">
+        <f>CONCATENATE("Tariff ",[1]Tariff!C392," ",[1]Tariff!D392," - ", [1]Tariff!E392)</f>
+        <v>Tariff CHEMISTRY INVESTIGATIONS Urine Pregnancy Test - tier2</v>
+      </c>
+      <c r="B392" s="12">
+        <v>20</v>
+      </c>
+      <c r="C392" s="13" t="s">
+        <v>107</v>
+      </c>
+      <c r="D392" s="13" t="s">
+        <v>133</v>
+      </c>
+      <c r="E392" s="14" t="s">
+        <v>326</v>
+      </c>
+      <c r="F392" s="14">
+        <v>800</v>
+      </c>
+    </row>
+    <row r="393" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A393" s="13" t="str">
+        <f>CONCATENATE("Tariff ",[1]Tariff!C393," ",[1]Tariff!D393," - ", [1]Tariff!E393)</f>
+        <v>Tariff MICROBIOLOGY AND PARASITOLOGY Malaria Parasite (MP) - tier2</v>
+      </c>
+      <c r="B393" s="12">
+        <v>20</v>
+      </c>
+      <c r="C393" s="13" t="s">
+        <v>134</v>
+      </c>
+      <c r="D393" s="13" t="s">
+        <v>135</v>
+      </c>
+      <c r="E393" s="14" t="s">
+        <v>326</v>
+      </c>
+      <c r="F393" s="14">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="394" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A394" s="13" t="str">
+        <f>CONCATENATE("Tariff ",[1]Tariff!C394," ",[1]Tariff!D394," - ", [1]Tariff!E394)</f>
+        <v>Tariff MICROBIOLOGY AND PARASITOLOGY Widal - tier2</v>
+      </c>
+      <c r="B394" s="12">
+        <v>20</v>
+      </c>
+      <c r="C394" s="13" t="s">
+        <v>134</v>
+      </c>
+      <c r="D394" s="13" t="s">
+        <v>136</v>
+      </c>
+      <c r="E394" s="14" t="s">
+        <v>326</v>
+      </c>
+      <c r="F394" s="14">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="395" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A395" s="13" t="str">
+        <f>CONCATENATE("Tariff ",[1]Tariff!C395," ",[1]Tariff!D395," - ", [1]Tariff!E395)</f>
+        <v>Tariff MICROBIOLOGY AND PARASITOLOGY Urine M/C/S - tier2</v>
+      </c>
+      <c r="B395" s="12">
+        <v>20</v>
+      </c>
+      <c r="C395" s="13" t="s">
+        <v>134</v>
+      </c>
+      <c r="D395" s="13" t="s">
+        <v>137</v>
+      </c>
+      <c r="E395" s="14" t="s">
+        <v>326</v>
+      </c>
+      <c r="F395" s="14">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="396" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A396" s="13" t="str">
+        <f>CONCATENATE("Tariff ",[1]Tariff!C396," ",[1]Tariff!D396," - ", [1]Tariff!E396)</f>
+        <v>Tariff MICROBIOLOGY AND PARASITOLOGY Endocervical Swab (ECS) M/C/S - tier2</v>
+      </c>
+      <c r="B396" s="12">
+        <v>20</v>
+      </c>
+      <c r="C396" s="13" t="s">
+        <v>134</v>
+      </c>
+      <c r="D396" s="13" t="s">
+        <v>138</v>
+      </c>
+      <c r="E396" s="14" t="s">
+        <v>326</v>
+      </c>
+      <c r="F396" s="14">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="397" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A397" s="13" t="str">
+        <f>CONCATENATE("Tariff ",[1]Tariff!C397," ",[1]Tariff!D397," - ", [1]Tariff!E397)</f>
+        <v>Tariff MICROBIOLOGY AND PARASITOLOGY High Vaginal Swab (HVS) M/C/S - tier2</v>
+      </c>
+      <c r="B397" s="12">
+        <v>20</v>
+      </c>
+      <c r="C397" s="13" t="s">
+        <v>134</v>
+      </c>
+      <c r="D397" s="13" t="s">
+        <v>139</v>
+      </c>
+      <c r="E397" s="14" t="s">
+        <v>326</v>
+      </c>
+      <c r="F397" s="14">
+        <v>750</v>
+      </c>
+    </row>
+    <row r="398" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A398" s="13" t="str">
+        <f>CONCATENATE("Tariff ",[1]Tariff!C398," ",[1]Tariff!D398," - ", [1]Tariff!E398)</f>
+        <v>Tariff MICROBIOLOGY AND PARASITOLOGY Urethral Swab M/C/S - tier2</v>
+      </c>
+      <c r="B398" s="12">
+        <v>20</v>
+      </c>
+      <c r="C398" s="13" t="s">
+        <v>134</v>
+      </c>
+      <c r="D398" s="13" t="s">
+        <v>140</v>
+      </c>
+      <c r="E398" s="14" t="s">
+        <v>326</v>
+      </c>
+      <c r="F398" s="14">
+        <v>800</v>
+      </c>
+    </row>
+    <row r="399" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A399" s="13" t="str">
+        <f>CONCATENATE("Tariff ",[1]Tariff!C399," ",[1]Tariff!D399," - ", [1]Tariff!E399)</f>
+        <v>Tariff MICROBIOLOGY AND PARASITOLOGY Throat Swab M/C/S - tier2</v>
+      </c>
+      <c r="B399" s="12">
+        <v>20</v>
+      </c>
+      <c r="C399" s="13" t="s">
+        <v>134</v>
+      </c>
+      <c r="D399" s="13" t="s">
+        <v>141</v>
+      </c>
+      <c r="E399" s="14" t="s">
+        <v>326</v>
+      </c>
+      <c r="F399" s="14">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="400" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A400" s="13" t="str">
+        <f>CONCATENATE("Tariff ",[1]Tariff!C400," ",[1]Tariff!D400," - ", [1]Tariff!E400)</f>
+        <v>Tariff MICROBIOLOGY AND PARASITOLOGY Ear Swab M/C/S - tier2</v>
+      </c>
+      <c r="B400" s="12">
+        <v>20</v>
+      </c>
+      <c r="C400" s="13" t="s">
+        <v>134</v>
+      </c>
+      <c r="D400" s="13" t="s">
+        <v>142</v>
+      </c>
+      <c r="E400" s="14" t="s">
+        <v>326</v>
+      </c>
+      <c r="F400" s="14">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="401" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A401" s="13" t="str">
+        <f>CONCATENATE("Tariff ",[1]Tariff!C401," ",[1]Tariff!D401," - ", [1]Tariff!E401)</f>
+        <v>Tariff MICROBIOLOGY AND PARASITOLOGY Wound Swab M/C/S - tier2</v>
+      </c>
+      <c r="B401" s="12">
+        <v>20</v>
+      </c>
+      <c r="C401" s="13" t="s">
+        <v>134</v>
+      </c>
+      <c r="D401" s="13" t="s">
+        <v>143</v>
+      </c>
+      <c r="E401" s="14" t="s">
+        <v>326</v>
+      </c>
+      <c r="F401" s="14">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="402" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A402" s="13" t="str">
+        <f>CONCATENATE("Tariff ",[1]Tariff!C402," ",[1]Tariff!D402," - ", [1]Tariff!E402)</f>
+        <v>Tariff MICROBIOLOGY AND PARASITOLOGY Eye Swab M/C/S - tier2</v>
+      </c>
+      <c r="B402" s="12">
+        <v>20</v>
+      </c>
+      <c r="C402" s="13" t="s">
+        <v>134</v>
+      </c>
+      <c r="D402" s="13" t="s">
+        <v>144</v>
+      </c>
+      <c r="E402" s="14" t="s">
+        <v>326</v>
+      </c>
+      <c r="F402" s="14">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="403" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A403" s="13" t="str">
+        <f>CONCATENATE("Tariff ",[1]Tariff!C403," ",[1]Tariff!D403," - ", [1]Tariff!E403)</f>
+        <v>Tariff MICROBIOLOGY AND PARASITOLOGY Sputum M/C/S - tier2</v>
+      </c>
+      <c r="B403" s="12">
+        <v>20</v>
+      </c>
+      <c r="C403" s="13" t="s">
+        <v>134</v>
+      </c>
+      <c r="D403" s="13" t="s">
+        <v>145</v>
+      </c>
+      <c r="E403" s="14" t="s">
+        <v>326</v>
+      </c>
+      <c r="F403" s="14">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="404" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A404" s="13" t="str">
+        <f>CONCATENATE("Tariff ",[1]Tariff!C404," ",[1]Tariff!D404," - ", [1]Tariff!E404)</f>
+        <v>Tariff MICROBIOLOGY AND PARASITOLOGY Aspirates M/C/S - tier2</v>
+      </c>
+      <c r="B404" s="12">
+        <v>20</v>
+      </c>
+      <c r="C404" s="13" t="s">
+        <v>134</v>
+      </c>
+      <c r="D404" s="13" t="s">
+        <v>146</v>
+      </c>
+      <c r="E404" s="14" t="s">
+        <v>326</v>
+      </c>
+      <c r="F404" s="14">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="405" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A405" s="13" t="str">
+        <f>CONCATENATE("Tariff ",[1]Tariff!C405," ",[1]Tariff!D405," - ", [1]Tariff!E405)</f>
+        <v>Tariff MICROBIOLOGY AND PARASITOLOGY Stool M/C/S - tier2</v>
+      </c>
+      <c r="B405" s="12">
+        <v>20</v>
+      </c>
+      <c r="C405" s="13" t="s">
+        <v>134</v>
+      </c>
+      <c r="D405" s="13" t="s">
+        <v>147</v>
+      </c>
+      <c r="E405" s="14" t="s">
+        <v>326</v>
+      </c>
+      <c r="F405" s="14">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="406" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="A406" s="13" t="str">
+        <f>CONCATENATE("Tariff ",[1]Tariff!C406," ",[1]Tariff!D406," - ", [1]Tariff!E406)</f>
+        <v>Tariff MICROBIOLOGY AND PARASITOLOGY VDRL (Veneral Disease Research Laboratory) Test - tier2</v>
+      </c>
+      <c r="B406" s="12">
+        <v>20</v>
+      </c>
+      <c r="C406" s="13" t="s">
+        <v>134</v>
+      </c>
+      <c r="D406" s="13" t="s">
+        <v>148</v>
+      </c>
+      <c r="E406" s="14" t="s">
+        <v>326</v>
+      </c>
+      <c r="F406" s="14">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="407" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A407" s="13" t="str">
+        <f>CONCATENATE("Tariff ",[1]Tariff!C407," ",[1]Tariff!D407," - ", [1]Tariff!E407)</f>
+        <v>Tariff MICROBIOLOGY AND PARASITOLOGY H.Pylori - tier2</v>
+      </c>
+      <c r="B407" s="12">
+        <v>20</v>
+      </c>
+      <c r="C407" s="13" t="s">
+        <v>134</v>
+      </c>
+      <c r="D407" s="13" t="s">
+        <v>149</v>
+      </c>
+      <c r="E407" s="14" t="s">
+        <v>326</v>
+      </c>
+      <c r="F407" s="14">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="408" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A408" s="13" t="str">
+        <f>CONCATENATE("Tariff ",[1]Tariff!C408," ",[1]Tariff!D408," - ", [1]Tariff!E408)</f>
+        <v>Tariff MICROBIOLOGY AND PARASITOLOGY Trypanosomes Screening - tier2</v>
+      </c>
+      <c r="B408" s="12">
+        <v>20</v>
+      </c>
+      <c r="C408" s="13" t="s">
+        <v>134</v>
+      </c>
+      <c r="D408" s="13" t="s">
+        <v>150</v>
+      </c>
+      <c r="E408" s="14" t="s">
+        <v>326</v>
+      </c>
+      <c r="F408" s="14">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="409" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A409" s="13" t="str">
+        <f>CONCATENATE("Tariff ",[1]Tariff!C409," ",[1]Tariff!D409," - ", [1]Tariff!E409)</f>
+        <v>Tariff MICROBIOLOGY AND PARASITOLOGY Toxoplasma Screening - tier2</v>
+      </c>
+      <c r="B409" s="12">
+        <v>20</v>
+      </c>
+      <c r="C409" s="13" t="s">
+        <v>134</v>
+      </c>
+      <c r="D409" s="13" t="s">
+        <v>151</v>
+      </c>
+      <c r="E409" s="14" t="s">
+        <v>326</v>
+      </c>
+      <c r="F409" s="14">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="410" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A410" s="13" t="str">
+        <f>CONCATENATE("Tariff ",[1]Tariff!C410," ",[1]Tariff!D410," - ", [1]Tariff!E410)</f>
+        <v>Tariff MICROBIOLOGY AND PARASITOLOGY Skin Snip for Microfilaria - tier2</v>
+      </c>
+      <c r="B410" s="12">
+        <v>20</v>
+      </c>
+      <c r="C410" s="13" t="s">
+        <v>134</v>
+      </c>
+      <c r="D410" s="13" t="s">
+        <v>152</v>
+      </c>
+      <c r="E410" s="14" t="s">
+        <v>326</v>
+      </c>
+      <c r="F410" s="14">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="411" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A411" s="13" t="str">
+        <f>CONCATENATE("Tariff ",[1]Tariff!C411," ",[1]Tariff!D411," - ", [1]Tariff!E411)</f>
+        <v>Tariff MICROBIOLOGY AND PARASITOLOGY Skin Scraping for Fungi - tier2</v>
+      </c>
+      <c r="B411" s="12">
+        <v>20</v>
+      </c>
+      <c r="C411" s="13" t="s">
+        <v>134</v>
+      </c>
+      <c r="D411" s="13" t="s">
+        <v>153</v>
+      </c>
+      <c r="E411" s="14" t="s">
+        <v>326</v>
+      </c>
+      <c r="F411" s="14">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="412" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A412" s="13" t="str">
+        <f>CONCATENATE("Tariff ",[1]Tariff!C412," ",[1]Tariff!D412," - ", [1]Tariff!E412)</f>
+        <v>Tariff MICROBIOLOGY AND PARASITOLOGY Leishmania Screening - tier2</v>
+      </c>
+      <c r="B412" s="12">
+        <v>20</v>
+      </c>
+      <c r="C412" s="13" t="s">
+        <v>134</v>
+      </c>
+      <c r="D412" s="13" t="s">
+        <v>154</v>
+      </c>
+      <c r="E412" s="14" t="s">
+        <v>326</v>
+      </c>
+      <c r="F412" s="14">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="413" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A413" s="13" t="str">
+        <f>CONCATENATE("Tariff ",[1]Tariff!C413," ",[1]Tariff!D413," - ", [1]Tariff!E413)</f>
+        <v>Tariff MICROBIOLOGY AND PARASITOLOGY Mantoux/Heaf's Test - tier2</v>
+      </c>
+      <c r="B413" s="12">
+        <v>20</v>
+      </c>
+      <c r="C413" s="13" t="s">
+        <v>134</v>
+      </c>
+      <c r="D413" s="13" t="s">
+        <v>155</v>
+      </c>
+      <c r="E413" s="14" t="s">
+        <v>326</v>
+      </c>
+      <c r="F413" s="14">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="414" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A414" s="13" t="str">
+        <f>CONCATENATE("Tariff ",[1]Tariff!C414," ",[1]Tariff!D414," - ", [1]Tariff!E414)</f>
+        <v>Tariff MICROBIOLOGY AND PARASITOLOGY Blood Culture - tier2</v>
+      </c>
+      <c r="B414" s="12">
+        <v>20</v>
+      </c>
+      <c r="C414" s="13" t="s">
+        <v>134</v>
+      </c>
+      <c r="D414" s="13" t="s">
+        <v>156</v>
+      </c>
+      <c r="E414" s="14" t="s">
+        <v>326</v>
+      </c>
+      <c r="F414" s="14">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="415" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A415" s="13" t="str">
+        <f>CONCATENATE("Tariff ",[1]Tariff!C415," ",[1]Tariff!D415," - ", [1]Tariff!E415)</f>
+        <v>Tariff MICROBIOLOGY AND PARASITOLOGY Stool Occult Blood - tier2</v>
+      </c>
+      <c r="B415" s="12">
+        <v>20</v>
+      </c>
+      <c r="C415" s="13" t="s">
+        <v>134</v>
+      </c>
+      <c r="D415" s="13" t="s">
+        <v>157</v>
+      </c>
+      <c r="E415" s="14" t="s">
+        <v>326</v>
+      </c>
+      <c r="F415" s="14">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="416" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+      <c r="A416" s="13" t="str">
+        <f>CONCATENATE("Tariff ",[1]Tariff!C416," ",[1]Tariff!D416," - ", [1]Tariff!E416)</f>
+        <v>Tariff ADVANCED LABORATORY INVESTIGATIONS/PATHOLOGY Blood urea Nitrogen - tier2</v>
+      </c>
+      <c r="B416" s="12">
+        <v>20</v>
+      </c>
+      <c r="C416" s="13" t="s">
+        <v>158</v>
+      </c>
+      <c r="D416" s="13" t="s">
+        <v>159</v>
+      </c>
+      <c r="E416" s="14" t="s">
+        <v>326</v>
+      </c>
+      <c r="F416" s="14">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="417" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+      <c r="A417" s="13" t="str">
+        <f>CONCATENATE("Tariff ",[1]Tariff!C417," ",[1]Tariff!D417," - ", [1]Tariff!E417)</f>
+        <v>Tariff ADVANCED LABORATORY INVESTIGATIONS/PATHOLOGY Hepatitis B Surface Antigen (HBSAg) - tier2</v>
+      </c>
+      <c r="B417" s="12">
+        <v>20</v>
+      </c>
+      <c r="C417" s="13" t="s">
+        <v>158</v>
+      </c>
+      <c r="D417" s="13" t="s">
+        <v>160</v>
+      </c>
+      <c r="E417" s="14" t="s">
+        <v>326</v>
+      </c>
+      <c r="F417" s="14">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="418" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+      <c r="A418" s="13" t="str">
+        <f>CONCATENATE("Tariff ",[1]Tariff!C418," ",[1]Tariff!D418," - ", [1]Tariff!E418)</f>
+        <v>Tariff ADVANCED LABORATORY INVESTIGATIONS/PATHOLOGY HBA1C - tier2</v>
+      </c>
+      <c r="B418" s="12">
+        <v>20</v>
+      </c>
+      <c r="C418" s="13" t="s">
+        <v>158</v>
+      </c>
+      <c r="D418" s="13" t="s">
+        <v>161</v>
+      </c>
+      <c r="E418" s="14" t="s">
+        <v>326</v>
+      </c>
+      <c r="F418" s="14">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="419" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+      <c r="A419" s="13" t="str">
+        <f>CONCATENATE("Tariff ",[1]Tariff!C419," ",[1]Tariff!D419," - ", [1]Tariff!E419)</f>
+        <v>Tariff ADVANCED LABORATORY INVESTIGATIONS/PATHOLOGY Hepatitis C Screening - tier2</v>
+      </c>
+      <c r="B419" s="12">
+        <v>20</v>
+      </c>
+      <c r="C419" s="13" t="s">
+        <v>158</v>
+      </c>
+      <c r="D419" s="13" t="s">
+        <v>162</v>
+      </c>
+      <c r="E419" s="14" t="s">
+        <v>326</v>
+      </c>
+      <c r="F419" s="14">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="420" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+      <c r="A420" s="13" t="str">
+        <f>CONCATENATE("Tariff ",[1]Tariff!C420," ",[1]Tariff!D420," - ", [1]Tariff!E420)</f>
+        <v>Tariff ADVANCED LABORATORY INVESTIGATIONS/PATHOLOGY Hepatitis B Screening - tier2</v>
+      </c>
+      <c r="B420" s="12">
+        <v>20</v>
+      </c>
+      <c r="C420" s="13" t="s">
+        <v>158</v>
+      </c>
+      <c r="D420" s="13" t="s">
+        <v>163</v>
+      </c>
+      <c r="E420" s="14" t="s">
+        <v>326</v>
+      </c>
+      <c r="F420" s="14">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="421" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+      <c r="A421" s="13" t="str">
+        <f>CONCATENATE("Tariff ",[1]Tariff!C421," ",[1]Tariff!D421," - ", [1]Tariff!E421)</f>
+        <v>Tariff ADVANCED LABORATORY INVESTIGATIONS/PATHOLOGY HIV Screening - tier2</v>
+      </c>
+      <c r="B421" s="12">
+        <v>20</v>
+      </c>
+      <c r="C421" s="13" t="s">
+        <v>158</v>
+      </c>
+      <c r="D421" s="13" t="s">
+        <v>164</v>
+      </c>
+      <c r="E421" s="14" t="s">
+        <v>326</v>
+      </c>
+      <c r="F421" s="14">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="422" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+      <c r="A422" s="13" t="str">
+        <f>CONCATENATE("Tariff ",[1]Tariff!C422," ",[1]Tariff!D422," - ", [1]Tariff!E422)</f>
+        <v>Tariff ADVANCED LABORATORY INVESTIGATIONS/PATHOLOGY HIV Confirmatory Test - tier2</v>
+      </c>
+      <c r="B422" s="12">
+        <v>20</v>
+      </c>
+      <c r="C422" s="13" t="s">
+        <v>158</v>
+      </c>
+      <c r="D422" s="13" t="s">
+        <v>165</v>
+      </c>
+      <c r="E422" s="14" t="s">
+        <v>326</v>
+      </c>
+      <c r="F422" s="14">
+        <v>5000</v>
+      </c>
+    </row>
+    <row r="423" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+      <c r="A423" s="13" t="str">
+        <f>CONCATENATE("Tariff ",[1]Tariff!C423," ",[1]Tariff!D423," - ", [1]Tariff!E423)</f>
+        <v>Tariff ADVANCED LABORATORY INVESTIGATIONS/PATHOLOGY G-6PD Screening - tier2</v>
+      </c>
+      <c r="B423" s="12">
+        <v>20</v>
+      </c>
+      <c r="C423" s="13" t="s">
+        <v>158</v>
+      </c>
+      <c r="D423" s="13" t="s">
+        <v>166</v>
+      </c>
+      <c r="E423" s="14" t="s">
+        <v>326</v>
+      </c>
+      <c r="F423" s="14">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="424" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+      <c r="A424" s="13" t="str">
+        <f>CONCATENATE("Tariff ",[1]Tariff!C424," ",[1]Tariff!D424," - ", [1]Tariff!E424)</f>
+        <v>Tariff ADVANCED LABORATORY INVESTIGATIONS/PATHOLOGY Thyroid Function Tests - tier2</v>
+      </c>
+      <c r="B424" s="12">
+        <v>20</v>
+      </c>
+      <c r="C424" s="13" t="s">
+        <v>158</v>
+      </c>
+      <c r="D424" s="13" t="s">
+        <v>167</v>
+      </c>
+      <c r="E424" s="14" t="s">
+        <v>326</v>
+      </c>
+      <c r="F424" s="14">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="425" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+      <c r="A425" s="13" t="str">
+        <f>CONCATENATE("Tariff ",[1]Tariff!C425," ",[1]Tariff!D425," - ", [1]Tariff!E425)</f>
+        <v>Tariff ADVANCED LABORATORY INVESTIGATIONS/PATHOLOGY Serum Uric Acid - tier2</v>
+      </c>
+      <c r="B425" s="12">
+        <v>20</v>
+      </c>
+      <c r="C425" s="13" t="s">
+        <v>158</v>
+      </c>
+      <c r="D425" s="13" t="s">
+        <v>168</v>
+      </c>
+      <c r="E425" s="14" t="s">
+        <v>326</v>
+      </c>
+      <c r="F425" s="14">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="426" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+      <c r="A426" s="13" t="str">
+        <f>CONCATENATE("Tariff ",[1]Tariff!C426," ",[1]Tariff!D426," - ", [1]Tariff!E426)</f>
+        <v>Tariff ADVANCED LABORATORY INVESTIGATIONS/PATHOLOGY Creatinine phosphokinase - tier2</v>
+      </c>
+      <c r="B426" s="12">
+        <v>20</v>
+      </c>
+      <c r="C426" s="13" t="s">
+        <v>158</v>
+      </c>
+      <c r="D426" s="13" t="s">
+        <v>169</v>
+      </c>
+      <c r="E426" s="14" t="s">
+        <v>326</v>
+      </c>
+      <c r="F426" s="14">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="427" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+      <c r="A427" s="13" t="str">
+        <f>CONCATENATE("Tariff ",[1]Tariff!C427," ",[1]Tariff!D427," - ", [1]Tariff!E427)</f>
+        <v>Tariff ADVANCED LABORATORY INVESTIGATIONS/PATHOLOGY Syphilis Screening - tier2</v>
+      </c>
+      <c r="B427" s="12">
+        <v>20</v>
+      </c>
+      <c r="C427" s="13" t="s">
+        <v>158</v>
+      </c>
+      <c r="D427" s="13" t="s">
+        <v>170</v>
+      </c>
+      <c r="E427" s="14" t="s">
+        <v>326</v>
+      </c>
+      <c r="F427" s="14">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="428" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+      <c r="A428" s="13" t="str">
+        <f>CONCATENATE("Tariff ",[1]Tariff!C428," ",[1]Tariff!D428," - ", [1]Tariff!E428)</f>
+        <v>Tariff ADVANCED LABORATORY INVESTIGATIONS/PATHOLOGY Serum immunoglobulins/Antibodies - tier2</v>
+      </c>
+      <c r="B428" s="12">
+        <v>20</v>
+      </c>
+      <c r="C428" s="13" t="s">
+        <v>158</v>
+      </c>
+      <c r="D428" s="13" t="s">
+        <v>171</v>
+      </c>
+      <c r="E428" s="14" t="s">
+        <v>326</v>
+      </c>
+      <c r="F428" s="14">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="429" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+      <c r="A429" s="13" t="str">
+        <f>CONCATENATE("Tariff ",[1]Tariff!C429," ",[1]Tariff!D429," - ", [1]Tariff!E429)</f>
+        <v>Tariff ADVANCED LABORATORY INVESTIGATIONS/PATHOLOGY Immunofluorescence assay - tier2</v>
+      </c>
+      <c r="B429" s="12">
+        <v>20</v>
+      </c>
+      <c r="C429" s="13" t="s">
+        <v>158</v>
+      </c>
+      <c r="D429" s="13" t="s">
+        <v>172</v>
+      </c>
+      <c r="E429" s="14" t="s">
+        <v>326</v>
+      </c>
+      <c r="F429" s="14">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="430" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+      <c r="A430" s="13" t="str">
+        <f>CONCATENATE("Tariff ",[1]Tariff!C430," ",[1]Tariff!D430," - ", [1]Tariff!E430)</f>
+        <v>Tariff ADVANCED LABORATORY INVESTIGATIONS/PATHOLOGY QBC Malaria Concentration And Fluorescent Staining - tier2</v>
+      </c>
+      <c r="B430" s="12">
+        <v>20</v>
+      </c>
+      <c r="C430" s="13" t="s">
+        <v>158</v>
+      </c>
+      <c r="D430" s="13" t="s">
+        <v>173</v>
+      </c>
+      <c r="E430" s="14" t="s">
+        <v>326</v>
+      </c>
+      <c r="F430" s="14">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="431" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+      <c r="A431" s="13" t="str">
+        <f>CONCATENATE("Tariff ",[1]Tariff!C431," ",[1]Tariff!D431," - ", [1]Tariff!E431)</f>
+        <v>Tariff ADVANCED LABORATORY INVESTIGATIONS/PATHOLOGY Pap Smear and Cytology - tier2</v>
+      </c>
+      <c r="B431" s="12">
+        <v>20</v>
+      </c>
+      <c r="C431" s="13" t="s">
+        <v>158</v>
+      </c>
+      <c r="D431" s="13" t="s">
+        <v>174</v>
+      </c>
+      <c r="E431" s="14" t="s">
+        <v>326</v>
+      </c>
+      <c r="F431" s="14">
+        <v>8000</v>
+      </c>
+    </row>
+    <row r="432" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+      <c r="A432" s="13" t="str">
+        <f>CONCATENATE("Tariff ",[1]Tariff!C432," ",[1]Tariff!D432," - ", [1]Tariff!E432)</f>
+        <v>Tariff ADVANCED LABORATORY INVESTIGATIONS/PATHOLOGY Prostate Specific Antigen - tier2</v>
+      </c>
+      <c r="B432" s="12">
+        <v>20</v>
+      </c>
+      <c r="C432" s="13" t="s">
+        <v>158</v>
+      </c>
+      <c r="D432" s="13" t="s">
+        <v>175</v>
+      </c>
+      <c r="E432" s="14" t="s">
+        <v>326</v>
+      </c>
+      <c r="F432" s="14">
+        <v>6000</v>
+      </c>
+    </row>
+    <row r="433" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+      <c r="A433" s="13" t="str">
+        <f>CONCATENATE("Tariff ",[1]Tariff!C433," ",[1]Tariff!D433," - ", [1]Tariff!E433)</f>
+        <v>Tariff ADVANCED LABORATORY INVESTIGATIONS/PATHOLOGY Protein Electrophoresis - tier2</v>
+      </c>
+      <c r="B433" s="12">
+        <v>20</v>
+      </c>
+      <c r="C433" s="13" t="s">
+        <v>158</v>
+      </c>
+      <c r="D433" s="13" t="s">
+        <v>176</v>
+      </c>
+      <c r="E433" s="14" t="s">
+        <v>326</v>
+      </c>
+      <c r="F433" s="14">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="434" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+      <c r="A434" s="13" t="str">
+        <f>CONCATENATE("Tariff ",[1]Tariff!C434," ",[1]Tariff!D434," - ", [1]Tariff!E434)</f>
+        <v>Tariff ADVANCED LABORATORY INVESTIGATIONS/PATHOLOGY CSF M/C/S (CSF Analysis) - tier2</v>
+      </c>
+      <c r="B434" s="12">
+        <v>20</v>
+      </c>
+      <c r="C434" s="13" t="s">
+        <v>158</v>
+      </c>
+      <c r="D434" s="13" t="s">
+        <v>177</v>
+      </c>
+      <c r="E434" s="14" t="s">
+        <v>326</v>
+      </c>
+      <c r="F434" s="14">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="435" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+      <c r="A435" s="13" t="str">
+        <f>CONCATENATE("Tariff ",[1]Tariff!C435," ",[1]Tariff!D435," - ", [1]Tariff!E435)</f>
+        <v>Tariff ADVANCED LABORATORY INVESTIGATIONS/PATHOLOGY Semen M/C/S - tier2</v>
+      </c>
+      <c r="B435" s="12">
+        <v>20</v>
+      </c>
+      <c r="C435" s="13" t="s">
+        <v>158</v>
+      </c>
+      <c r="D435" s="13" t="s">
+        <v>178</v>
+      </c>
+      <c r="E435" s="14" t="s">
+        <v>326</v>
+      </c>
+      <c r="F435" s="14">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="436" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+      <c r="A436" s="13" t="str">
+        <f>CONCATENATE("Tariff ",[1]Tariff!C436," ",[1]Tariff!D436," - ", [1]Tariff!E436)</f>
+        <v>Tariff ADVANCED LABORATORY INVESTIGATIONS/PATHOLOGY Serum Creatinine Phosphokinase - tier2</v>
+      </c>
+      <c r="B436" s="12">
+        <v>20</v>
+      </c>
+      <c r="C436" s="13" t="s">
+        <v>158</v>
+      </c>
+      <c r="D436" s="13" t="s">
+        <v>179</v>
+      </c>
+      <c r="E436" s="14" t="s">
+        <v>326</v>
+      </c>
+      <c r="F436" s="14">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="437" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+      <c r="A437" s="13" t="str">
+        <f>CONCATENATE("Tariff ",[1]Tariff!C437," ",[1]Tariff!D437," - ", [1]Tariff!E437)</f>
+        <v>Tariff ADVANCED LABORATORY INVESTIGATIONS/PATHOLOGY Serum Iron - tier2</v>
+      </c>
+      <c r="B437" s="12">
+        <v>20</v>
+      </c>
+      <c r="C437" s="13" t="s">
+        <v>158</v>
+      </c>
+      <c r="D437" s="13" t="s">
+        <v>180</v>
+      </c>
+      <c r="E437" s="14" t="s">
+        <v>326</v>
+      </c>
+      <c r="F437" s="14">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="438" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+      <c r="A438" s="13" t="str">
+        <f>CONCATENATE("Tariff ",[1]Tariff!C438," ",[1]Tariff!D438," - ", [1]Tariff!E438)</f>
+        <v>Tariff ADVANCED LABORATORY INVESTIGATIONS/PATHOLOGY 24 Hour Creatinine Clearance - tier2</v>
+      </c>
+      <c r="B438" s="12">
+        <v>20</v>
+      </c>
+      <c r="C438" s="13" t="s">
+        <v>158</v>
+      </c>
+      <c r="D438" s="13" t="s">
+        <v>181</v>
+      </c>
+      <c r="E438" s="14" t="s">
+        <v>326</v>
+      </c>
+      <c r="F438" s="14">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="439" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+      <c r="A439" s="13" t="str">
+        <f>CONCATENATE("Tariff ",[1]Tariff!C439," ",[1]Tariff!D439," - ", [1]Tariff!E439)</f>
+        <v>Tariff ADVANCED LABORATORY INVESTIGATIONS/PATHOLOGY Coomb's Test (Indirect) - tier2</v>
+      </c>
+      <c r="B439" s="12">
+        <v>20</v>
+      </c>
+      <c r="C439" s="13" t="s">
+        <v>158</v>
+      </c>
+      <c r="D439" s="13" t="s">
+        <v>182</v>
+      </c>
+      <c r="E439" s="14" t="s">
+        <v>326</v>
+      </c>
+      <c r="F439" s="14">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="440" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+      <c r="A440" s="13" t="str">
+        <f>CONCATENATE("Tariff ",[1]Tariff!C440," ",[1]Tariff!D440," - ", [1]Tariff!E440)</f>
+        <v>Tariff ADVANCED LABORATORY INVESTIGATIONS/PATHOLOGY Coomb's Test (Direct) - tier2</v>
+      </c>
+      <c r="B440" s="12">
+        <v>20</v>
+      </c>
+      <c r="C440" s="13" t="s">
+        <v>158</v>
+      </c>
+      <c r="D440" s="13" t="s">
+        <v>183</v>
+      </c>
+      <c r="E440" s="14" t="s">
+        <v>326</v>
+      </c>
+      <c r="F440" s="14">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="441" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+      <c r="A441" s="13" t="str">
+        <f>CONCATENATE("Tariff ",[1]Tariff!C441," ",[1]Tariff!D441," - ", [1]Tariff!E441)</f>
+        <v>Tariff ADVANCED LABORATORY INVESTIGATIONS/PATHOLOGY Osmotic Fragility Test - tier2</v>
+      </c>
+      <c r="B441" s="12">
+        <v>20</v>
+      </c>
+      <c r="C441" s="13" t="s">
+        <v>158</v>
+      </c>
+      <c r="D441" s="13" t="s">
+        <v>184</v>
+      </c>
+      <c r="E441" s="14" t="s">
+        <v>326</v>
+      </c>
+      <c r="F441" s="14">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="442" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+      <c r="A442" s="13" t="str">
+        <f>CONCATENATE("Tariff ",[1]Tariff!C442," ",[1]Tariff!D442," - ", [1]Tariff!E442)</f>
+        <v>Tariff ADVANCED LABORATORY INVESTIGATIONS/PATHOLOGY Chlamydia Screening - tier2</v>
+      </c>
+      <c r="B442" s="12">
+        <v>20</v>
+      </c>
+      <c r="C442" s="13" t="s">
+        <v>158</v>
+      </c>
+      <c r="D442" s="13" t="s">
+        <v>185</v>
+      </c>
+      <c r="E442" s="14" t="s">
+        <v>326</v>
+      </c>
+      <c r="F442" s="14">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="443" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+      <c r="A443" s="13" t="str">
+        <f>CONCATENATE("Tariff ",[1]Tariff!C443," ",[1]Tariff!D443," - ", [1]Tariff!E443)</f>
+        <v>Tariff ADVANCED LABORATORY INVESTIGATIONS/PATHOLOGY Seminal Fluid Analysis (SFA) - tier2</v>
+      </c>
+      <c r="B443" s="12">
+        <v>20</v>
+      </c>
+      <c r="C443" s="13" t="s">
+        <v>158</v>
+      </c>
+      <c r="D443" s="13" t="s">
+        <v>186</v>
+      </c>
+      <c r="E443" s="14" t="s">
+        <v>326</v>
+      </c>
+      <c r="F443" s="14">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="444" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+      <c r="A444" s="13" t="str">
+        <f>CONCATENATE("Tariff ",[1]Tariff!C444," ",[1]Tariff!D444," - ", [1]Tariff!E444)</f>
+        <v>Tariff ADVANCED LABORATORY INVESTIGATIONS/PATHOLOGY Clotting Time - tier2</v>
+      </c>
+      <c r="B444" s="12">
+        <v>20</v>
+      </c>
+      <c r="C444" s="13" t="s">
+        <v>158</v>
+      </c>
+      <c r="D444" s="13" t="s">
+        <v>187</v>
+      </c>
+      <c r="E444" s="14" t="s">
+        <v>326</v>
+      </c>
+      <c r="F444" s="14">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="445" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+      <c r="A445" s="13" t="str">
+        <f>CONCATENATE("Tariff ",[1]Tariff!C445," ",[1]Tariff!D445," - ", [1]Tariff!E445)</f>
+        <v>Tariff ADVANCED LABORATORY INVESTIGATIONS/PATHOLOGY Bleeding Time - tier2</v>
+      </c>
+      <c r="B445" s="12">
+        <v>20</v>
+      </c>
+      <c r="C445" s="13" t="s">
+        <v>158</v>
+      </c>
+      <c r="D445" s="13" t="s">
+        <v>188</v>
+      </c>
+      <c r="E445" s="14" t="s">
+        <v>326</v>
+      </c>
+      <c r="F445" s="14">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="446" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+      <c r="A446" s="13" t="str">
+        <f>CONCATENATE("Tariff ",[1]Tariff!C446," ",[1]Tariff!D446," - ", [1]Tariff!E446)</f>
+        <v>Tariff ADVANCED LABORATORY INVESTIGATIONS/PATHOLOGY D-Dimer - tier2</v>
+      </c>
+      <c r="B446" s="12">
+        <v>20</v>
+      </c>
+      <c r="C446" s="13" t="s">
+        <v>158</v>
+      </c>
+      <c r="D446" s="13" t="s">
+        <v>189</v>
+      </c>
+      <c r="E446" s="14" t="s">
+        <v>326</v>
+      </c>
+      <c r="F446" s="14">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="447" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+      <c r="A447" s="13" t="str">
+        <f>CONCATENATE("Tariff ",[1]Tariff!C447," ",[1]Tariff!D447," - ", [1]Tariff!E447)</f>
+        <v>Tariff ADVANCED LABORATORY INVESTIGATIONS/PATHOLOGY Sputum Acid Fast Bacilli (AFB) Test - tier2</v>
+      </c>
+      <c r="B447" s="12">
+        <v>20</v>
+      </c>
+      <c r="C447" s="13" t="s">
+        <v>158</v>
+      </c>
+      <c r="D447" s="13" t="s">
+        <v>190</v>
+      </c>
+      <c r="E447" s="14" t="s">
+        <v>326</v>
+      </c>
+      <c r="F447" s="14">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="448" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="A448" s="13" t="str">
+        <f>CONCATENATE("Tariff ",[1]Tariff!C448," ",[1]Tariff!D448," - ", [1]Tariff!E448)</f>
+        <v>Tariff ADMISSIONS AND ACCOMMODATION Feeding for enrollees on admission - tier2</v>
+      </c>
+      <c r="B448" s="12">
+        <v>20</v>
+      </c>
+      <c r="C448" s="13" t="s">
+        <v>191</v>
+      </c>
+      <c r="D448" s="13" t="s">
+        <v>192</v>
+      </c>
+      <c r="E448" s="14" t="s">
+        <v>326</v>
+      </c>
+      <c r="F448" s="14">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="449" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="A449" s="13" t="str">
+        <f>CONCATENATE("Tariff ",[1]Tariff!C449," ",[1]Tariff!D449," - ", [1]Tariff!E449)</f>
+        <v>Tariff ADMISSIONS AND ACCOMMODATION Hospital Ward Care - tier2</v>
+      </c>
+      <c r="B449" s="12">
+        <v>20</v>
+      </c>
+      <c r="C449" s="13" t="s">
+        <v>191</v>
+      </c>
+      <c r="D449" s="13" t="s">
+        <v>193</v>
+      </c>
+      <c r="E449" s="14" t="s">
+        <v>326</v>
+      </c>
+      <c r="F449" s="14">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="450" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="A450" s="13" t="str">
+        <f>CONCATENATE("Tariff ",[1]Tariff!C450," ",[1]Tariff!D450," - ", [1]Tariff!E450)</f>
+        <v>Tariff ADMISSIONS AND ACCOMMODATION Skilled medical and paramedical services - tier2</v>
+      </c>
+      <c r="B450" s="12">
+        <v>20</v>
+      </c>
+      <c r="C450" s="13" t="s">
+        <v>191</v>
+      </c>
+      <c r="D450" s="13" t="s">
+        <v>194</v>
+      </c>
+      <c r="E450" s="14" t="s">
+        <v>326</v>
+      </c>
+      <c r="F450" s="14">
+        <v>15000</v>
+      </c>
+    </row>
+    <row r="451" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="A451" s="13" t="str">
+        <f>CONCATENATE("Tariff ",[1]Tariff!C451," ",[1]Tariff!D451," - ", [1]Tariff!E451)</f>
+        <v>Tariff ADMISSIONS AND ACCOMMODATION Supply of prescribed drugs - tier2</v>
+      </c>
+      <c r="B451" s="12">
+        <v>20</v>
+      </c>
+      <c r="C451" s="13" t="s">
+        <v>191</v>
+      </c>
+      <c r="D451" s="13" t="s">
+        <v>195</v>
+      </c>
+      <c r="E451" s="14" t="s">
+        <v>326</v>
+      </c>
+      <c r="F451" s="14">
+        <v>1250</v>
+      </c>
+    </row>
+    <row r="452" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="A452" s="13" t="str">
+        <f>CONCATENATE("Tariff ",[1]Tariff!C452," ",[1]Tariff!D452," - ", [1]Tariff!E452)</f>
+        <v>Tariff ADMISSIONS AND ACCOMMODATION Supply of all medical and surgical consumables - tier2</v>
+      </c>
+      <c r="B452" s="12">
+        <v>20</v>
+      </c>
+      <c r="C452" s="13" t="s">
+        <v>191</v>
+      </c>
+      <c r="D452" s="13" t="s">
+        <v>196</v>
+      </c>
+      <c r="E452" s="14" t="s">
+        <v>326</v>
+      </c>
+      <c r="F452" s="14">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="453" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="A453" s="13" t="str">
+        <f>CONCATENATE("Tariff ",[1]Tariff!C453," ",[1]Tariff!D453," - ", [1]Tariff!E453)</f>
+        <v>Tariff ADMISSIONS AND ACCOMMODATION Blood grouping, cross matching, and transfusion - tier2</v>
+      </c>
+      <c r="B453" s="12">
+        <v>20</v>
+      </c>
+      <c r="C453" s="13" t="s">
+        <v>191</v>
+      </c>
+      <c r="D453" s="13" t="s">
+        <v>197</v>
+      </c>
+      <c r="E453" s="14" t="s">
+        <v>326</v>
+      </c>
+      <c r="F453" s="14">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="454" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="A454" s="13" t="str">
+        <f>CONCATENATE("Tariff ",[1]Tariff!C454," ",[1]Tariff!D454," - ", [1]Tariff!E454)</f>
+        <v>Tariff ADMISSIONS AND ACCOMMODATION Accommodation for in-patient care - tier2</v>
+      </c>
+      <c r="B454" s="12">
+        <v>20</v>
+      </c>
+      <c r="C454" s="13" t="s">
+        <v>191</v>
+      </c>
+      <c r="D454" s="13" t="s">
+        <v>198</v>
+      </c>
+      <c r="E454" s="14" t="s">
+        <v>326</v>
+      </c>
+      <c r="F454" s="14">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="455" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="A455" s="13" t="str">
+        <f>CONCATENATE("Tariff ",[1]Tariff!C455," ",[1]Tariff!D455," - ", [1]Tariff!E455)</f>
+        <v>Tariff ADMISSIONS AND ACCOMMODATION Accommodation for parents/relatives (Excludes feeding) - tier2</v>
+      </c>
+      <c r="B455" s="12">
+        <v>20</v>
+      </c>
+      <c r="C455" s="13" t="s">
+        <v>191</v>
+      </c>
+      <c r="D455" s="13" t="s">
+        <v>199</v>
+      </c>
+      <c r="E455" s="14" t="s">
+        <v>326</v>
+      </c>
+      <c r="F455" s="14">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="456" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A456" s="13" t="str">
+        <f>CONCATENATE("Tariff ",[1]Tariff!C456," ",[1]Tariff!D456," - ", [1]Tariff!E456)</f>
+        <v>Tariff INTENSIVE CARE ICU and ICU-related Care - tier2</v>
+      </c>
+      <c r="B456" s="12">
+        <v>20</v>
+      </c>
+      <c r="C456" s="13" t="s">
+        <v>200</v>
+      </c>
+      <c r="D456" s="13" t="s">
+        <v>201</v>
+      </c>
+      <c r="E456" s="14" t="s">
+        <v>326</v>
+      </c>
+      <c r="F456" s="14">
+        <v>350000</v>
+      </c>
+    </row>
+    <row r="457" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A457" s="13" t="str">
+        <f>CONCATENATE("Tariff ",[1]Tariff!C457," ",[1]Tariff!D457," - ", [1]Tariff!E457)</f>
+        <v>Tariff EYE/OPTICAL CARE Specialist Opthalmologist Consultation - tier2</v>
+      </c>
+      <c r="B457" s="12">
+        <v>20</v>
+      </c>
+      <c r="C457" s="13" t="s">
+        <v>202</v>
+      </c>
+      <c r="D457" s="13" t="s">
+        <v>203</v>
+      </c>
+      <c r="E457" s="14" t="s">
+        <v>326</v>
+      </c>
+      <c r="F457" s="14">
+        <v>1200</v>
+      </c>
+    </row>
+    <row r="458" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A458" s="13" t="str">
+        <f>CONCATENATE("Tariff ",[1]Tariff!C458," ",[1]Tariff!D458," - ", [1]Tariff!E458)</f>
+        <v>Tariff EYE/OPTICAL CARE Treatment of acute and chronic ocular infections - tier2</v>
+      </c>
+      <c r="B458" s="12">
+        <v>20</v>
+      </c>
+      <c r="C458" s="13" t="s">
+        <v>202</v>
+      </c>
+      <c r="D458" s="13" t="s">
+        <v>204</v>
+      </c>
+      <c r="E458" s="14" t="s">
+        <v>326</v>
+      </c>
+      <c r="F458" s="14">
+        <v>1200</v>
+      </c>
+    </row>
+    <row r="459" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A459" s="13" t="str">
+        <f>CONCATENATE("Tariff ",[1]Tariff!C459," ",[1]Tariff!D459," - ", [1]Tariff!E459)</f>
+        <v>Tariff EYE/OPTICAL CARE Basic ocular tests - tier2</v>
+      </c>
+      <c r="B459" s="12">
+        <v>20</v>
+      </c>
+      <c r="C459" s="13" t="s">
+        <v>202</v>
+      </c>
+      <c r="D459" s="13" t="s">
+        <v>205</v>
+      </c>
+      <c r="E459" s="14" t="s">
+        <v>326</v>
+      </c>
+      <c r="F459" s="14">
+        <v>1200</v>
+      </c>
+    </row>
+    <row r="460" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A460" s="13" t="str">
+        <f>CONCATENATE("Tariff ",[1]Tariff!C460," ",[1]Tariff!D460," - ", [1]Tariff!E460)</f>
+        <v>Tariff EYE/OPTICAL CARE Advanced Ocular tests - tier2</v>
+      </c>
+      <c r="B460" s="12">
+        <v>20</v>
+      </c>
+      <c r="C460" s="13" t="s">
+        <v>202</v>
+      </c>
+      <c r="D460" s="13" t="s">
+        <v>206</v>
+      </c>
+      <c r="E460" s="14" t="s">
+        <v>326</v>
+      </c>
+      <c r="F460" s="14">
+        <v>2500</v>
+      </c>
+    </row>
+    <row r="461" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A461" s="13" t="str">
+        <f>CONCATENATE("Tariff ",[1]Tariff!C461," ",[1]Tariff!D461," - ", [1]Tariff!E461)</f>
+        <v>Tariff EYE/OPTICAL CARE Lenses and Frames (Including Contact lenses) - tier2</v>
+      </c>
+      <c r="B461" s="12">
+        <v>20</v>
+      </c>
+      <c r="C461" s="13" t="s">
+        <v>202</v>
+      </c>
+      <c r="D461" s="13" t="s">
+        <v>207</v>
+      </c>
+      <c r="E461" s="14" t="s">
+        <v>326</v>
+      </c>
+      <c r="F461" s="14">
+        <v>1200</v>
+      </c>
+    </row>
+    <row r="462" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A462" s="13" t="str">
+        <f>CONCATENATE("Tariff ",[1]Tariff!C462," ",[1]Tariff!D462," - ", [1]Tariff!E462)</f>
+        <v>Tariff DENTAL CARE Specialist Consultation - tier2</v>
+      </c>
+      <c r="B462" s="12">
+        <v>20</v>
+      </c>
+      <c r="C462" s="13" t="s">
+        <v>208</v>
+      </c>
+      <c r="D462" s="13" t="s">
+        <v>209</v>
+      </c>
+      <c r="E462" s="14" t="s">
+        <v>326</v>
+      </c>
+      <c r="F462" s="14">
+        <v>7000</v>
+      </c>
+    </row>
+    <row r="463" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A463" s="13" t="str">
+        <f>CONCATENATE("Tariff ",[1]Tariff!C463," ",[1]Tariff!D463," - ", [1]Tariff!E463)</f>
+        <v>Tariff DENTAL CARE Routine dental examination - tier2</v>
+      </c>
+      <c r="B463" s="12">
+        <v>20</v>
+      </c>
+      <c r="C463" s="13" t="s">
+        <v>208</v>
+      </c>
+      <c r="D463" s="13" t="s">
+        <v>210</v>
+      </c>
+      <c r="E463" s="14" t="s">
+        <v>326</v>
+      </c>
+      <c r="F463" s="14">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="464" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A464" s="13" t="str">
+        <f>CONCATENATE("Tariff ",[1]Tariff!C464," ",[1]Tariff!D464," - ", [1]Tariff!E464)</f>
+        <v>Tariff DENTAL CARE Preventive dental care and counselling - tier2</v>
+      </c>
+      <c r="B464" s="12">
+        <v>20</v>
+      </c>
+      <c r="C464" s="13" t="s">
+        <v>208</v>
+      </c>
+      <c r="D464" s="13" t="s">
+        <v>211</v>
+      </c>
+      <c r="E464" s="14" t="s">
+        <v>326</v>
+      </c>
+      <c r="F464" s="14">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="465" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A465" s="13" t="str">
+        <f>CONCATENATE("Tariff ",[1]Tariff!C465," ",[1]Tariff!D465," - ", [1]Tariff!E465)</f>
+        <v>Tariff DENTAL CARE Dental pain therapy - tier2</v>
+      </c>
+      <c r="B465" s="12">
+        <v>20</v>
+      </c>
+      <c r="C465" s="13" t="s">
+        <v>208</v>
+      </c>
+      <c r="D465" s="13" t="s">
+        <v>212</v>
+      </c>
+      <c r="E465" s="14" t="s">
+        <v>326</v>
+      </c>
+      <c r="F465" s="14">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="466" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A466" s="13" t="str">
+        <f>CONCATENATE("Tariff ",[1]Tariff!C466," ",[1]Tariff!D466," - ", [1]Tariff!E466)</f>
+        <v>Tariff DENTAL CARE Treatment of acute and chronic dental infections - tier2</v>
+      </c>
+      <c r="B466" s="12">
+        <v>20</v>
+      </c>
+      <c r="C466" s="13" t="s">
+        <v>208</v>
+      </c>
+      <c r="D466" s="13" t="s">
+        <v>213</v>
+      </c>
+      <c r="E466" s="14" t="s">
+        <v>326</v>
+      </c>
+      <c r="F466" s="14">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="467" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A467" s="13" t="str">
+        <f>CONCATENATE("Tariff ",[1]Tariff!C467," ",[1]Tariff!D467," - ", [1]Tariff!E467)</f>
+        <v>Tariff DENTAL CARE Access to prescribed drugs - tier2</v>
+      </c>
+      <c r="B467" s="12">
+        <v>20</v>
+      </c>
+      <c r="C467" s="13" t="s">
+        <v>208</v>
+      </c>
+      <c r="D467" s="13" t="s">
+        <v>214</v>
+      </c>
+      <c r="E467" s="14" t="s">
+        <v>326</v>
+      </c>
+      <c r="F467" s="14">
+        <v>800</v>
+      </c>
+    </row>
+    <row r="468" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A468" s="13" t="str">
+        <f>CONCATENATE("Tariff ",[1]Tariff!C468," ",[1]Tariff!D468," - ", [1]Tariff!E468)</f>
+        <v>Tariff DENTAL CARE Surgical extraction  - tier2</v>
+      </c>
+      <c r="B468" s="12">
+        <v>20</v>
+      </c>
+      <c r="C468" s="13" t="s">
+        <v>208</v>
+      </c>
+      <c r="D468" s="13" t="s">
+        <v>215</v>
+      </c>
+      <c r="E468" s="14" t="s">
+        <v>326</v>
+      </c>
+      <c r="F468" s="14">
+        <v>1600</v>
+      </c>
+    </row>
+    <row r="469" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A469" s="13" t="str">
+        <f>CONCATENATE("Tariff ",[1]Tariff!C469," ",[1]Tariff!D469," - ", [1]Tariff!E469)</f>
+        <v>Tariff DENTAL CARE Non-surgical extraction  - tier2</v>
+      </c>
+      <c r="B469" s="12">
+        <v>20</v>
+      </c>
+      <c r="C469" s="13" t="s">
+        <v>208</v>
+      </c>
+      <c r="D469" s="13" t="s">
+        <v>216</v>
+      </c>
+      <c r="E469" s="14" t="s">
+        <v>326</v>
+      </c>
+      <c r="F469" s="14">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="470" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A470" s="13" t="str">
+        <f>CONCATENATE("Tariff ",[1]Tariff!C470," ",[1]Tariff!D470," - ", [1]Tariff!E470)</f>
+        <v>Tariff DENTAL CARE Root Canal Therapy  - tier2</v>
+      </c>
+      <c r="B470" s="12">
+        <v>20</v>
+      </c>
+      <c r="C470" s="13" t="s">
+        <v>208</v>
+      </c>
+      <c r="D470" s="13" t="s">
+        <v>217</v>
+      </c>
+      <c r="E470" s="14" t="s">
+        <v>326</v>
+      </c>
+      <c r="F470" s="14">
+        <v>4000</v>
+      </c>
+    </row>
+    <row r="471" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A471" s="13" t="str">
+        <f>CONCATENATE("Tariff ",[1]Tariff!C471," ",[1]Tariff!D471," - ", [1]Tariff!E471)</f>
+        <v>Tariff DENTAL CARE Scaling and Polishing  - tier2</v>
+      </c>
+      <c r="B471" s="12">
+        <v>20</v>
+      </c>
+      <c r="C471" s="13" t="s">
+        <v>208</v>
+      </c>
+      <c r="D471" s="13" t="s">
+        <v>218</v>
+      </c>
+      <c r="E471" s="14" t="s">
+        <v>326</v>
+      </c>
+      <c r="F471" s="14">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="472" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A472" s="13" t="str">
+        <f>CONCATENATE("Tariff ",[1]Tariff!C472," ",[1]Tariff!D472," - ", [1]Tariff!E472)</f>
+        <v>Tariff DENTAL CARE Operculectomy  - tier2</v>
+      </c>
+      <c r="B472" s="12">
+        <v>20</v>
+      </c>
+      <c r="C472" s="13" t="s">
+        <v>208</v>
+      </c>
+      <c r="D472" s="13" t="s">
+        <v>219</v>
+      </c>
+      <c r="E472" s="14" t="s">
+        <v>326</v>
+      </c>
+      <c r="F472" s="14">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="473" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A473" s="13" t="str">
+        <f>CONCATENATE("Tariff ",[1]Tariff!C473," ",[1]Tariff!D473," - ", [1]Tariff!E473)</f>
+        <v>Tariff DENTAL CARE Gingival Curettage  - tier2</v>
+      </c>
+      <c r="B473" s="12">
+        <v>20</v>
+      </c>
+      <c r="C473" s="13" t="s">
+        <v>208</v>
+      </c>
+      <c r="D473" s="13" t="s">
+        <v>220</v>
+      </c>
+      <c r="E473" s="14" t="s">
+        <v>326</v>
+      </c>
+      <c r="F473" s="14">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="474" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A474" s="13" t="str">
+        <f>CONCATENATE("Tariff ",[1]Tariff!C474," ",[1]Tariff!D474," - ", [1]Tariff!E474)</f>
+        <v>Tariff DENTAL CARE Composite Filling  - tier2</v>
+      </c>
+      <c r="B474" s="12">
+        <v>20</v>
+      </c>
+      <c r="C474" s="13" t="s">
+        <v>208</v>
+      </c>
+      <c r="D474" s="13" t="s">
+        <v>221</v>
+      </c>
+      <c r="E474" s="14" t="s">
+        <v>326</v>
+      </c>
+      <c r="F474" s="14">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="475" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A475" s="13" t="str">
+        <f>CONCATENATE("Tariff ",[1]Tariff!C475," ",[1]Tariff!D475," - ", [1]Tariff!E475)</f>
+        <v>Tariff DENTAL CARE Amalgam Filling  - tier2</v>
+      </c>
+      <c r="B475" s="12">
+        <v>20</v>
+      </c>
+      <c r="C475" s="13" t="s">
+        <v>208</v>
+      </c>
+      <c r="D475" s="13" t="s">
+        <v>222</v>
+      </c>
+      <c r="E475" s="14" t="s">
+        <v>326</v>
+      </c>
+      <c r="F475" s="14">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="476" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A476" s="13" t="str">
+        <f>CONCATENATE("Tariff ",[1]Tariff!C476," ",[1]Tariff!D476," - ", [1]Tariff!E476)</f>
+        <v>Tariff DENTAL CARE Incision and Drainage  - tier2</v>
+      </c>
+      <c r="B476" s="12">
+        <v>20</v>
+      </c>
+      <c r="C476" s="13" t="s">
+        <v>208</v>
+      </c>
+      <c r="D476" s="13" t="s">
+        <v>223</v>
+      </c>
+      <c r="E476" s="14" t="s">
+        <v>326</v>
+      </c>
+      <c r="F476" s="14">
+        <v>4500</v>
+      </c>
+    </row>
+    <row r="477" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A477" s="13" t="str">
+        <f>CONCATENATE("Tariff ",[1]Tariff!C477," ",[1]Tariff!D477," - ", [1]Tariff!E477)</f>
+        <v>Tariff PHYSIOTHERAPY CARE Specialist Consultation - tier2</v>
+      </c>
+      <c r="B477" s="12">
+        <v>20</v>
+      </c>
+      <c r="C477" s="13" t="s">
+        <v>224</v>
+      </c>
+      <c r="D477" s="13" t="s">
+        <v>209</v>
+      </c>
+      <c r="E477" s="14" t="s">
+        <v>326</v>
+      </c>
+      <c r="F477" s="14">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="478" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A478" s="13" t="str">
+        <f>CONCATENATE("Tariff ",[1]Tariff!C478," ",[1]Tariff!D478," - ", [1]Tariff!E478)</f>
+        <v>Tariff PHYSIOTHERAPY CARE Routine fitness examination - tier2</v>
+      </c>
+      <c r="B478" s="12">
+        <v>20</v>
+      </c>
+      <c r="C478" s="13" t="s">
+        <v>224</v>
+      </c>
+      <c r="D478" s="13" t="s">
+        <v>225</v>
+      </c>
+      <c r="E478" s="14" t="s">
+        <v>326</v>
+      </c>
+      <c r="F478" s="14">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="479" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A479" s="13" t="str">
+        <f>CONCATENATE("Tariff ",[1]Tariff!C479," ",[1]Tariff!D479," - ", [1]Tariff!E479)</f>
+        <v>Tariff PHYSIOTHERAPY CARE Preventive Counselling on referral - tier2</v>
+      </c>
+      <c r="B479" s="12">
+        <v>20</v>
+      </c>
+      <c r="C479" s="13" t="s">
+        <v>224</v>
+      </c>
+      <c r="D479" s="13" t="s">
+        <v>226</v>
+      </c>
+      <c r="E479" s="14" t="s">
+        <v>326</v>
+      </c>
+      <c r="F479" s="14">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="480" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A480" s="13" t="str">
+        <f>CONCATENATE("Tariff ",[1]Tariff!C480," ",[1]Tariff!D480," - ", [1]Tariff!E480)</f>
+        <v>Tariff PHYSIOTHERAPY CARE Cervical Collar and Crutches - tier2</v>
+      </c>
+      <c r="B480" s="12">
+        <v>20</v>
+      </c>
+      <c r="C480" s="13" t="s">
+        <v>224</v>
+      </c>
+      <c r="D480" s="13" t="s">
+        <v>227</v>
+      </c>
+      <c r="E480" s="14" t="s">
+        <v>326</v>
+      </c>
+      <c r="F480" s="14">
+        <v>3500</v>
+      </c>
+    </row>
+    <row r="481" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A481" s="13" t="str">
+        <f>CONCATENATE("Tariff ",[1]Tariff!C481," ",[1]Tariff!D481," - ", [1]Tariff!E481)</f>
+        <v>Tariff PHYSIOTHERAPY CARE Walker - tier2</v>
+      </c>
+      <c r="B481" s="12">
+        <v>20</v>
+      </c>
+      <c r="C481" s="13" t="s">
+        <v>224</v>
+      </c>
+      <c r="D481" s="13" t="s">
+        <v>228</v>
+      </c>
+      <c r="E481" s="14" t="s">
+        <v>326</v>
+      </c>
+      <c r="F481" s="14">
+        <v>3500</v>
+      </c>
+    </row>
+    <row r="482" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A482" s="13" t="str">
+        <f>CONCATENATE("Tariff ",[1]Tariff!C482," ",[1]Tariff!D482," - ", [1]Tariff!E482)</f>
+        <v>Tariff PHYSIOTHERAPY CARE Pain therapy - tier2</v>
+      </c>
+      <c r="B482" s="12">
+        <v>20</v>
+      </c>
+      <c r="C482" s="13" t="s">
+        <v>224</v>
+      </c>
+      <c r="D482" s="13" t="s">
+        <v>229</v>
+      </c>
+      <c r="E482" s="14" t="s">
+        <v>326</v>
+      </c>
+      <c r="F482" s="14">
+        <v>3500</v>
+      </c>
+    </row>
+    <row r="483" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A483" s="13" t="str">
+        <f>CONCATENATE("Tariff ",[1]Tariff!C483," ",[1]Tariff!D483," - ", [1]Tariff!E483)</f>
+        <v>Tariff PHYSIOTHERAPY CARE Access to prescribed drugs - tier2</v>
+      </c>
+      <c r="B483" s="12">
+        <v>20</v>
+      </c>
+      <c r="C483" s="13" t="s">
+        <v>224</v>
+      </c>
+      <c r="D483" s="13" t="s">
+        <v>214</v>
+      </c>
+      <c r="E483" s="14" t="s">
+        <v>326</v>
+      </c>
+      <c r="F483" s="14">
+        <v>3500</v>
+      </c>
+    </row>
+    <row r="484" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A484" s="13" t="str">
+        <f>CONCATENATE("Tariff ",[1]Tariff!C484," ",[1]Tariff!D484," - ", [1]Tariff!E484)</f>
+        <v>Tariff PHYSIOTHERAPY CARE Number of Sessions Covered - tier2</v>
+      </c>
+      <c r="B484" s="12">
+        <v>20</v>
+      </c>
+      <c r="C484" s="13" t="s">
+        <v>224</v>
+      </c>
+      <c r="D484" s="13" t="s">
+        <v>230</v>
+      </c>
+      <c r="E484" s="14" t="s">
+        <v>326</v>
+      </c>
+      <c r="F484" s="14">
+        <v>3500</v>
+      </c>
+    </row>
+    <row r="485" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="A485" s="13" t="str">
+        <f>CONCATENATE("Tariff ",[1]Tariff!C485," ",[1]Tariff!D485," - ", [1]Tariff!E485)</f>
+        <v>Tariff OBSTETRICS CARE  Antenatal Care (INCL. SPECIALIST CARE AND ANC DRUGS) - tier2</v>
+      </c>
+      <c r="B485" s="12">
+        <v>20</v>
+      </c>
+      <c r="C485" s="13" t="s">
+        <v>231</v>
+      </c>
+      <c r="D485" s="13" t="s">
+        <v>232</v>
+      </c>
+      <c r="E485" s="14" t="s">
+        <v>326</v>
+      </c>
+      <c r="F485" s="14">
+        <v>50000</v>
+      </c>
+    </row>
+    <row r="486" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A486" s="13" t="str">
+        <f>CONCATENATE("Tariff ",[1]Tariff!C486," ",[1]Tariff!D486," - ", [1]Tariff!E486)</f>
+        <v>Tariff OBSTETRICS CARE  Delivery (SVD/NORMAL and COMPLICATED) - tier2</v>
+      </c>
+      <c r="B486" s="12">
+        <v>20</v>
+      </c>
+      <c r="C486" s="13" t="s">
+        <v>231</v>
+      </c>
+      <c r="D486" s="13" t="s">
+        <v>233</v>
+      </c>
+      <c r="E486" s="14" t="s">
+        <v>326</v>
+      </c>
+      <c r="F486" s="14">
+        <v>50000</v>
+      </c>
+    </row>
+    <row r="487" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A487" s="13" t="str">
+        <f>CONCATENATE("Tariff ",[1]Tariff!C487," ",[1]Tariff!D487," - ", [1]Tariff!E487)</f>
+        <v>Tariff OBSTETRICS CARE  Delivery (MULTIPLE) - tier2</v>
+      </c>
+      <c r="B487" s="12">
+        <v>20</v>
+      </c>
+      <c r="C487" s="13" t="s">
+        <v>231</v>
+      </c>
+      <c r="D487" s="13" t="s">
+        <v>234</v>
+      </c>
+      <c r="E487" s="14" t="s">
+        <v>326</v>
+      </c>
+      <c r="F487" s="14">
+        <v>60000</v>
+      </c>
+    </row>
+    <row r="488" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A488" s="13" t="str">
+        <f>CONCATENATE("Tariff ",[1]Tariff!C488," ",[1]Tariff!D488," - ", [1]Tariff!E488)</f>
+        <v>Tariff OBSTETRICS CARE  Assisted Delivery - tier2</v>
+      </c>
+      <c r="B488" s="12">
+        <v>20</v>
+      </c>
+      <c r="C488" s="13" t="s">
+        <v>231</v>
+      </c>
+      <c r="D488" s="13" t="s">
+        <v>235</v>
+      </c>
+      <c r="E488" s="14" t="s">
+        <v>326</v>
+      </c>
+      <c r="F488" s="14">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="489" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="A489" s="13" t="str">
+        <f>CONCATENATE("Tariff ",[1]Tariff!C489," ",[1]Tariff!D489," - ", [1]Tariff!E489)</f>
+        <v>Tariff OBSTETRICS CARE  Therapeutic Abortion (Manual Vacuum Aspiration) - tier2</v>
+      </c>
+      <c r="B489" s="12">
+        <v>20</v>
+      </c>
+      <c r="C489" s="13" t="s">
+        <v>231</v>
+      </c>
+      <c r="D489" s="13" t="s">
+        <v>236</v>
+      </c>
+      <c r="E489" s="14" t="s">
+        <v>326</v>
+      </c>
+      <c r="F489" s="14">
+        <v>20000</v>
+      </c>
+    </row>
+    <row r="490" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A490" s="13" t="str">
+        <f>CONCATENATE("Tariff ",[1]Tariff!C490," ",[1]Tariff!D490," - ", [1]Tariff!E490)</f>
+        <v>Tariff OBSTETRICS CARE  CAESARIAN SECTION - tier2</v>
+      </c>
+      <c r="B490" s="12">
+        <v>20</v>
+      </c>
+      <c r="C490" s="13" t="s">
+        <v>231</v>
+      </c>
+      <c r="D490" s="13" t="s">
+        <v>237</v>
+      </c>
+      <c r="E490" s="14" t="s">
+        <v>326</v>
+      </c>
+      <c r="F490" s="14">
+        <v>350000</v>
+      </c>
+    </row>
+    <row r="491" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A491" s="13" t="str">
+        <f>CONCATENATE("Tariff ",[1]Tariff!C491," ",[1]Tariff!D491," - ", [1]Tariff!E491)</f>
+        <v>Tariff INFERTILITY CARE  Fertility Specialist Consultation and Counselling - tier2</v>
+      </c>
+      <c r="B491" s="12">
+        <v>20</v>
+      </c>
+      <c r="C491" s="13" t="s">
+        <v>238</v>
+      </c>
+      <c r="D491" s="13" t="s">
+        <v>239</v>
+      </c>
+      <c r="E491" s="14" t="s">
+        <v>326</v>
+      </c>
+      <c r="F491" s="14">
+        <v>47500</v>
+      </c>
+    </row>
+    <row r="492" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A492" s="13" t="str">
+        <f>CONCATENATE("Tariff ",[1]Tariff!C492," ",[1]Tariff!D492," - ", [1]Tariff!E492)</f>
+        <v>Tariff INFERTILITY CARE  Fertility Investigations - tier2</v>
+      </c>
+      <c r="B492" s="12">
+        <v>20</v>
+      </c>
+      <c r="C492" s="13" t="s">
+        <v>238</v>
+      </c>
+      <c r="D492" s="13" t="s">
+        <v>240</v>
+      </c>
+      <c r="E492" s="14" t="s">
+        <v>326</v>
+      </c>
+      <c r="F492" s="14">
+        <v>12500</v>
+      </c>
+    </row>
+    <row r="493" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A493" s="13" t="str">
+        <f>CONCATENATE("Tariff ",[1]Tariff!C493," ",[1]Tariff!D493," - ", [1]Tariff!E493)</f>
+        <v>Tariff INCUBATOR CARE  Neonatal / Special Baby Care Unit - tier2</v>
+      </c>
+      <c r="B493" s="12">
+        <v>20</v>
+      </c>
+      <c r="C493" s="13" t="s">
+        <v>241</v>
+      </c>
+      <c r="D493" s="13" t="s">
+        <v>242</v>
+      </c>
+      <c r="E493" s="14" t="s">
+        <v>326</v>
+      </c>
+      <c r="F493" s="14">
+        <v>12000</v>
+      </c>
+    </row>
+    <row r="494" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A494" s="13" t="str">
+        <f>CONCATENATE("Tariff ",[1]Tariff!C494," ",[1]Tariff!D494," - ", [1]Tariff!E494)</f>
+        <v>Tariff NPI IMMUNIZATION (0-5 YEARS) BCG - tier2</v>
+      </c>
+      <c r="B494" s="12">
+        <v>20</v>
+      </c>
+      <c r="C494" s="13" t="s">
+        <v>243</v>
+      </c>
+      <c r="D494" s="13" t="s">
+        <v>244</v>
+      </c>
+      <c r="E494" s="14" t="s">
+        <v>326</v>
+      </c>
+      <c r="F494" s="14">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="495" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A495" s="13" t="str">
+        <f>CONCATENATE("Tariff ",[1]Tariff!C495," ",[1]Tariff!D495," - ", [1]Tariff!E495)</f>
+        <v>Tariff NPI IMMUNIZATION (0-5 YEARS) OPV/IPV - tier2</v>
+      </c>
+      <c r="B495" s="12">
+        <v>20</v>
+      </c>
+      <c r="C495" s="13" t="s">
+        <v>243</v>
+      </c>
+      <c r="D495" s="13" t="s">
+        <v>245</v>
+      </c>
+      <c r="E495" s="14" t="s">
+        <v>326</v>
+      </c>
+      <c r="F495" s="14">
+        <v>750</v>
+      </c>
+    </row>
+    <row r="496" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A496" s="13" t="str">
+        <f>CONCATENATE("Tariff ",[1]Tariff!C496," ",[1]Tariff!D496," - ", [1]Tariff!E496)</f>
+        <v>Tariff NPI IMMUNIZATION (0-5 YEARS) PENTAVALENT - tier2</v>
+      </c>
+      <c r="B496" s="12">
+        <v>20</v>
+      </c>
+      <c r="C496" s="13" t="s">
+        <v>243</v>
+      </c>
+      <c r="D496" s="13" t="s">
+        <v>246</v>
+      </c>
+      <c r="E496" s="14" t="s">
+        <v>326</v>
+      </c>
+      <c r="F496" s="14">
+        <v>2400</v>
+      </c>
+    </row>
+    <row r="497" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A497" s="13" t="str">
+        <f>CONCATENATE("Tariff ",[1]Tariff!C497," ",[1]Tariff!D497," - ", [1]Tariff!E497)</f>
+        <v>Tariff NPI IMMUNIZATION (0-5 YEARS) HEPATITIS B - tier2</v>
+      </c>
+      <c r="B497" s="12">
+        <v>20</v>
+      </c>
+      <c r="C497" s="13" t="s">
+        <v>243</v>
+      </c>
+      <c r="D497" s="13" t="s">
+        <v>247</v>
+      </c>
+      <c r="E497" s="14" t="s">
+        <v>326</v>
+      </c>
+      <c r="F497" s="14">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="498" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A498" s="13" t="str">
+        <f>CONCATENATE("Tariff ",[1]Tariff!C498," ",[1]Tariff!D498," - ", [1]Tariff!E498)</f>
+        <v>Tariff NPI IMMUNIZATION (0-5 YEARS) DPT - tier2</v>
+      </c>
+      <c r="B498" s="12">
+        <v>20</v>
+      </c>
+      <c r="C498" s="13" t="s">
+        <v>243</v>
+      </c>
+      <c r="D498" s="13" t="s">
+        <v>248</v>
+      </c>
+      <c r="E498" s="14" t="s">
+        <v>326</v>
+      </c>
+      <c r="F498" s="14">
+        <v>750</v>
+      </c>
+    </row>
+    <row r="499" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A499" s="13" t="str">
+        <f>CONCATENATE("Tariff ",[1]Tariff!C499," ",[1]Tariff!D499," - ", [1]Tariff!E499)</f>
+        <v>Tariff NPI IMMUNIZATION (0-5 YEARS) VITAMIN A - tier2</v>
+      </c>
+      <c r="B499" s="12">
+        <v>20</v>
+      </c>
+      <c r="C499" s="13" t="s">
+        <v>243</v>
+      </c>
+      <c r="D499" s="13" t="s">
+        <v>249</v>
+      </c>
+      <c r="E499" s="14" t="s">
+        <v>326</v>
+      </c>
+      <c r="F499" s="14">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="500" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A500" s="13" t="str">
+        <f>CONCATENATE("Tariff ",[1]Tariff!C500," ",[1]Tariff!D500," - ", [1]Tariff!E500)</f>
+        <v>Tariff NPI IMMUNIZATION (0-5 YEARS) MEASLES - tier2</v>
+      </c>
+      <c r="B500" s="12">
+        <v>20</v>
+      </c>
+      <c r="C500" s="13" t="s">
+        <v>243</v>
+      </c>
+      <c r="D500" s="13" t="s">
+        <v>250</v>
+      </c>
+      <c r="E500" s="14" t="s">
+        <v>326</v>
+      </c>
+      <c r="F500" s="14">
+        <v>2000</v>
       </c>
     </row>
   </sheetData>
